--- a/UnitTest/test_config.xlsx
+++ b/UnitTest/test_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\UnitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{99929F92-8CDB-4F50-B959-A17675F65AE9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1F8D6F-76B4-435B-A835-6908DC1D6EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-24492" yWindow="2400" windowWidth="22344" windowHeight="12660" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -340,9 +340,6 @@
     <t>Если строка файла logFile.txt начинается с !, то присутствовала критическая ошибка, из-за которой УП не был обработан вовсе</t>
   </si>
   <si>
-    <t>((L + R) / (2 * A)) * K</t>
-  </si>
-  <si>
     <t>Можно использовать любые формулы, например:
 1) Из SPA-SFU версии №1: ((L + R) / (2 * A)) * K
 2) Среднеарифметическое: ((L + R) / 2) * K
@@ -2291,6 +2288,9 @@
   </si>
   <si>
     <t xml:space="preserve"> {0,1}(.{1,}?)(;|$)</t>
+  </si>
+  <si>
+    <t>(L + R) * K</t>
   </si>
 </sst>
 </file>
@@ -2575,7 +2575,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="66">
+  <cellXfs count="64">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2610,8 +2610,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -2679,12 +2677,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2695,6 +2687,12 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3030,8 +3028,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J80"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B46" sqref="B46"/>
+    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="B14" sqref="B14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3045,20 +3043,20 @@
       <c r="A1" s="8" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="60" t="s">
+      <c r="B1" s="56" t="s">
         <v>84</v>
       </c>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
-      <c r="F1" s="60"/>
-      <c r="G1" s="60"/>
-      <c r="H1" s="60"/>
-      <c r="I1" s="60"/>
-      <c r="J1" s="60"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
+      <c r="F1" s="56"/>
+      <c r="G1" s="56"/>
+      <c r="H1" s="56"/>
+      <c r="I1" s="56"/>
+      <c r="J1" s="56"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="61" t="s">
+      <c r="A2" s="59" t="s">
         <v>54</v>
       </c>
       <c r="B2" t="s">
@@ -3071,11 +3069,11 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="61"/>
+      <c r="A3" s="59"/>
       <c r="B3" s="9" t="s">
         <v>58</v>
       </c>
@@ -3086,7 +3084,7 @@
         <v>60</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>647</v>
+        <v>646</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -3094,20 +3092,20 @@
         <v>73</v>
       </c>
       <c r="B4" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="26" t="s">
+      <c r="A5" s="24" t="s">
         <v>90</v>
       </c>
       <c r="B5" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="26" t="s">
-        <v>163</v>
+      <c r="A6" s="24" t="s">
+        <v>162</v>
       </c>
       <c r="B6" t="s">
         <v>74</v>
@@ -3115,58 +3113,58 @@
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B7" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="57" t="s">
-        <v>113</v>
+      <c r="A8" s="53" t="s">
+        <v>112</v>
       </c>
       <c r="B8" t="s">
         <v>74</v>
       </c>
-      <c r="C8" s="23"/>
+      <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="57"/>
-      <c r="B9" s="23" t="s">
-        <v>136</v>
+      <c r="A9" s="53"/>
+      <c r="B9" s="21" t="s">
+        <v>135</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="57" t="s">
+      <c r="A10" s="53" t="s">
+        <v>160</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="53"/>
+      <c r="B11" s="21" t="s">
         <v>161</v>
       </c>
-      <c r="B10" s="29" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="57"/>
-      <c r="B11" s="23" t="s">
-        <v>162</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="57" t="s">
-        <v>129</v>
+      <c r="A12" s="53" t="s">
+        <v>128</v>
       </c>
       <c r="B12" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="57"/>
+      <c r="A13" s="53"/>
       <c r="B13" s="9" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B14" t="s">
         <v>74</v>
@@ -3177,7 +3175,7 @@
         <v>79</v>
       </c>
       <c r="B15" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
@@ -3190,15 +3188,15 @@
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>667</v>
+        <v>666</v>
       </c>
       <c r="B17" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
       <c r="B18" t="s">
         <v>74</v>
@@ -3206,7 +3204,7 @@
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B19" t="s">
         <v>74</v>
@@ -3214,7 +3212,7 @@
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="B20" t="s">
         <v>74</v>
@@ -3222,7 +3220,7 @@
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>638</v>
+        <v>637</v>
       </c>
       <c r="B21" t="s">
         <v>74</v>
@@ -3230,35 +3228,35 @@
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="B22" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="57" t="s">
+      <c r="A23" s="53" t="s">
+        <v>638</v>
+      </c>
+      <c r="B23" t="s">
+        <v>556</v>
+      </c>
+      <c r="C23" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="53"/>
+      <c r="B24" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="B23" t="s">
-        <v>557</v>
-      </c>
-      <c r="C23" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="57"/>
-      <c r="B24" s="9" t="s">
-        <v>640</v>
-      </c>
       <c r="C24" s="9" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="57" t="s">
-        <v>176</v>
+      <c r="A25" s="53" t="s">
+        <v>175</v>
       </c>
       <c r="B25" t="s">
         <v>74</v>
@@ -3271,116 +3269,116 @@
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="57"/>
+      <c r="A26" s="53"/>
       <c r="B26" s="9" t="s">
+        <v>640</v>
+      </c>
+      <c r="C26" s="9" t="s">
         <v>641</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>642</v>
-      </c>
       <c r="D26" s="9" t="s">
-        <v>744</v>
+        <v>743</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="57" t="s">
+      <c r="A27" s="53" t="s">
+        <v>167</v>
+      </c>
+      <c r="B27" t="s">
+        <v>171</v>
+      </c>
+      <c r="C27" t="s">
+        <v>170</v>
+      </c>
+      <c r="D27" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="53"/>
+      <c r="B28" s="9" t="s">
         <v>168</v>
       </c>
-      <c r="B27" t="s">
-        <v>172</v>
-      </c>
-      <c r="C27" t="s">
-        <v>171</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28" s="9" t="s">
+        <v>169</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>173</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="57"/>
-      <c r="B28" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>170</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>174</v>
-      </c>
-    </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="57"/>
+      <c r="A29" s="53"/>
       <c r="B29" s="9" t="s">
-        <v>167</v>
+        <v>166</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="57" t="s">
-        <v>180</v>
-      </c>
-      <c r="B30" s="25" t="s">
+      <c r="A30" s="53" t="s">
+        <v>179</v>
+      </c>
+      <c r="B30" s="23" t="s">
+        <v>184</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="C30" s="25" t="s">
+      <c r="D30" s="23" t="s">
         <v>186</v>
       </c>
-      <c r="D30" s="25" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="53"/>
+      <c r="B31" s="9" t="s">
         <v>187</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="57"/>
-      <c r="B31" s="9" t="s">
-        <v>188</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="55" t="s">
+      <c r="A32" s="57" t="s">
         <v>76</v>
       </c>
-      <c r="B32" s="56"/>
-      <c r="C32" s="56"/>
+      <c r="B32" s="58"/>
+      <c r="C32" s="58"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="55" t="s">
+      <c r="A33" s="57" t="s">
         <v>78</v>
       </c>
-      <c r="B33" s="56"/>
-      <c r="C33" s="56"/>
+      <c r="B33" s="58"/>
+      <c r="C33" s="58"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="57" t="s">
-        <v>146</v>
+      <c r="A34" s="53" t="s">
+        <v>145</v>
       </c>
       <c r="B34" t="s">
-        <v>740</v>
+        <v>739</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="57"/>
+      <c r="A35" s="53"/>
       <c r="B35" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="57" t="s">
-        <v>147</v>
+      <c r="A36" s="53" t="s">
+        <v>146</v>
       </c>
       <c r="B36" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="57"/>
+      <c r="A37" s="53"/>
       <c r="B37" s="9" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="35" t="s">
-        <v>265</v>
+      <c r="A38" s="33" t="s">
+        <v>264</v>
       </c>
       <c r="B38" s="5">
         <v>2</v>
@@ -3420,70 +3418,70 @@
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>718</v>
+        <v>717</v>
       </c>
       <c r="B43" t="s">
-        <v>722</v>
+        <v>721</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>719</v>
+        <v>718</v>
       </c>
       <c r="B44" t="s">
-        <v>723</v>
+        <v>722</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
+        <v>723</v>
+      </c>
+      <c r="B45" t="s">
         <v>724</v>
-      </c>
-      <c r="B45" t="s">
-        <v>725</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A46" s="15" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="B46" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="57" t="s">
+      <c r="A47" s="53" t="s">
+        <v>142</v>
+      </c>
+      <c r="B47" t="s">
+        <v>156</v>
+      </c>
+      <c r="C47" t="s">
+        <v>668</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="53"/>
+      <c r="B48" s="9" t="s">
+        <v>141</v>
+      </c>
+      <c r="C48" s="9" t="s">
+        <v>667</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A49" s="22" t="s">
         <v>143</v>
       </c>
-      <c r="B47" t="s">
-        <v>157</v>
-      </c>
-      <c r="C47" t="s">
-        <v>669</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="57"/>
-      <c r="B48" s="9" t="s">
-        <v>142</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="24" t="s">
+      <c r="B49" s="23" t="s">
         <v>144</v>
       </c>
-      <c r="B49" s="25" t="s">
-        <v>145</v>
-      </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="53" t="s">
-        <v>729</v>
-      </c>
-      <c r="B50" s="25" t="s">
+      <c r="A50" s="51" t="s">
         <v>728</v>
+      </c>
+      <c r="B50" s="23" t="s">
+        <v>727</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
@@ -3496,7 +3494,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B52" s="5">
         <v>3</v>
@@ -3504,34 +3502,34 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>262</v>
+        <v>261</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>115</v>
+        <v>114</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>148</v>
+        <v>147</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
+        <v>664</v>
+      </c>
+      <c r="B55" s="13" t="s">
         <v>665</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>666</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
+        <v>719</v>
+      </c>
+      <c r="B56" s="13" t="s">
         <v>720</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>721</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
@@ -3544,31 +3542,31 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
+        <v>152</v>
+      </c>
+      <c r="B58" s="5" t="s">
         <v>153</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>154</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
+        <v>115</v>
+      </c>
+      <c r="B60" s="5" t="s">
         <v>116</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>117</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
       <c r="B61" s="5" t="s">
         <v>87</v>
@@ -3576,31 +3574,31 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
+        <v>262</v>
+      </c>
+      <c r="B62" s="5" t="s">
         <v>263</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>264</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>672</v>
-      </c>
-      <c r="B63" s="54">
+        <v>671</v>
+      </c>
+      <c r="B63" s="52">
         <v>4</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>726</v>
-      </c>
-      <c r="B64" s="30">
+        <v>725</v>
+      </c>
+      <c r="B64" s="28">
         <v>0.05</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>194</v>
+        <v>193</v>
       </c>
       <c r="B65" s="5">
         <v>6</v>
@@ -3616,118 +3614,122 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>100</v>
-      </c>
-      <c r="B67" s="30">
+        <v>99</v>
+      </c>
+      <c r="B67" s="28">
         <v>1E-3</v>
       </c>
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>114</v>
-      </c>
-      <c r="B68" s="30">
+        <v>113</v>
+      </c>
+      <c r="B68" s="28">
         <v>1E-3</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>727</v>
-      </c>
-      <c r="B69" s="30">
+        <v>726</v>
+      </c>
+      <c r="B69" s="28">
         <v>0.05</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="15" t="s">
-        <v>175</v>
+        <v>174</v>
       </c>
       <c r="B70" s="13">
         <v>40</v>
       </c>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="62" t="s">
-        <v>128</v>
-      </c>
-      <c r="B71" s="62"/>
-      <c r="C71" s="62"/>
+      <c r="A71" s="60" t="s">
+        <v>127</v>
+      </c>
+      <c r="B71" s="60"/>
+      <c r="C71" s="60"/>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="18" t="s">
-        <v>127</v>
+      <c r="A72" s="15" t="s">
+        <v>126</v>
       </c>
       <c r="B72" s="13" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="18" t="s">
+      <c r="A73" s="15" t="s">
         <v>62</v>
       </c>
       <c r="B73" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="18" t="s">
+      <c r="A74" s="15" t="s">
         <v>61</v>
       </c>
       <c r="B74" t="s">
-        <v>131</v>
+        <v>130</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="18" t="s">
+      <c r="A75" s="15" t="s">
+        <v>137</v>
+      </c>
+      <c r="B75" t="s">
         <v>138</v>
       </c>
-      <c r="B75" t="s">
-        <v>139</v>
-      </c>
     </row>
     <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="55" t="s">
+      <c r="A76" s="57" t="s">
         <v>86</v>
       </c>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
+      <c r="B76" s="58"/>
+      <c r="C76" s="58"/>
     </row>
     <row r="77" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="58" t="s">
-        <v>137</v>
-      </c>
-      <c r="B77" s="58"/>
-      <c r="C77" s="58"/>
+      <c r="A77" s="54" t="s">
+        <v>136</v>
+      </c>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="59" t="s">
-        <v>99</v>
-      </c>
-      <c r="B78" s="59"/>
-      <c r="C78" s="59"/>
+      <c r="A78" s="55" t="s">
+        <v>98</v>
+      </c>
+      <c r="B78" s="55"/>
+      <c r="C78" s="55"/>
       <c r="D78" s="11"/>
       <c r="E78" s="11"/>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="19" t="s">
+      <c r="A79" s="15" t="s">
+        <v>706</v>
+      </c>
+      <c r="B79" s="14" t="s">
+        <v>745</v>
+      </c>
+    </row>
+    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A80" s="15" t="s">
         <v>707</v>
       </c>
-      <c r="B79" s="14" t="s">
-        <v>98</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="19" t="s">
-        <v>708</v>
-      </c>
       <c r="B80" s="14" t="s">
-        <v>98</v>
+        <v>745</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A77:C77"/>
     <mergeCell ref="A78:C78"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A76:C76"/>
@@ -3742,10 +3744,6 @@
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3795,13 +3793,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
+      <c r="A1" s="56" t="s">
         <v>85</v>
       </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
-      <c r="E1" s="60"/>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
+      <c r="E1" s="56"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3811,7 +3809,7 @@
         <v>65</v>
       </c>
       <c r="C2" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="D2" t="s">
         <v>80</v>
@@ -3842,39 +3840,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="60" t="s">
-        <v>648</v>
-      </c>
-      <c r="B1" s="60"/>
-      <c r="C1" s="60"/>
-      <c r="D1" s="60"/>
+      <c r="A1" s="56" t="s">
+        <v>647</v>
+      </c>
+      <c r="B1" s="56"/>
+      <c r="C1" s="56"/>
+      <c r="D1" s="56"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B2" t="s">
-        <v>653</v>
-      </c>
-      <c r="C2" s="37" t="s">
-        <v>655</v>
-      </c>
-      <c r="D2" s="37" t="s">
-        <v>657</v>
+        <v>652</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>654</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>656</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="B3" t="s">
-        <v>654</v>
-      </c>
-      <c r="C3" s="37" t="s">
-        <v>656</v>
-      </c>
-      <c r="D3" s="37" t="s">
-        <v>658</v>
+        <v>653</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>655</v>
+      </c>
+      <c r="D3" s="35" t="s">
+        <v>657</v>
       </c>
     </row>
   </sheetData>
@@ -3900,42 +3898,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="40" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="63" t="s">
-        <v>261</v>
-      </c>
-      <c r="C1" s="64"/>
-      <c r="D1" s="64"/>
+      <c r="A1" s="38" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="61" t="s">
+        <v>260</v>
+      </c>
+      <c r="C1" s="62"/>
+      <c r="D1" s="62"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="41">
-        <v>0</v>
-      </c>
-      <c r="B2" s="42" t="s">
-        <v>305</v>
+      <c r="A2" s="39">
+        <v>0</v>
+      </c>
+      <c r="B2" s="40" t="s">
+        <v>304</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="41">
-        <v>1</v>
-      </c>
-      <c r="B3" s="42" t="s">
-        <v>730</v>
+      <c r="A3" s="39">
+        <v>1</v>
+      </c>
+      <c r="B3" s="40" t="s">
+        <v>729</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="41">
+      <c r="A4" s="39">
         <v>2</v>
       </c>
-      <c r="B4" s="42" t="s">
-        <v>735</v>
+      <c r="B4" s="40" t="s">
+        <v>734</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3946,7 +3944,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3954,7 +3952,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3962,7 +3960,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3973,7 +3971,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3981,7 +3979,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3989,7 +3987,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -4000,7 +3998,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>739</v>
+        <v>738</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4011,7 +4009,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4019,7 +4017,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4035,7 +4033,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4043,7 +4041,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4067,7 +4065,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4075,7 +4073,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4083,7 +4081,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4099,7 +4097,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4123,7 +4121,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4131,7 +4129,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4139,7 +4137,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4147,7 +4145,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4155,7 +4153,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4163,7 +4161,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4203,7 +4201,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4211,7 +4209,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4243,7 +4241,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4251,7 +4249,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4259,7 +4257,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4267,7 +4265,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4283,7 +4281,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4291,7 +4289,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4299,7 +4297,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4307,7 +4305,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4315,7 +4313,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4323,7 +4321,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4331,7 +4329,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4339,7 +4337,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4347,7 +4345,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4355,7 +4353,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4363,7 +4361,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4371,7 +4369,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4379,7 +4377,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4387,7 +4385,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4395,7 +4393,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4403,7 +4401,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4411,7 +4409,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4419,7 +4417,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4427,7 +4425,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4435,7 +4433,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -4443,7 +4441,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4451,7 +4449,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4459,7 +4457,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4467,7 +4465,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -4475,7 +4473,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -4483,7 +4481,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -4491,7 +4489,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4499,7 +4497,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4507,7 +4505,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4515,7 +4513,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4523,7 +4521,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4531,7 +4529,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4539,7 +4537,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4547,7 +4545,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4555,7 +4553,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -4563,7 +4561,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4571,7 +4569,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4579,7 +4577,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4587,7 +4585,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4595,7 +4593,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4603,7 +4601,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4611,7 +4609,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4619,7 +4617,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4627,7 +4625,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -4635,7 +4633,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4643,7 +4641,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4651,7 +4649,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4659,7 +4657,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4675,7 +4673,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4683,7 +4681,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4691,7 +4689,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4699,7 +4697,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4707,7 +4705,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4715,7 +4713,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4723,7 +4721,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4731,7 +4729,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4739,7 +4737,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4747,7 +4745,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4755,7 +4753,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -4763,7 +4761,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -4771,7 +4769,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4779,7 +4777,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4787,7 +4785,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4795,7 +4793,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4803,7 +4801,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -4811,7 +4809,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4819,7 +4817,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4827,7 +4825,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4835,7 +4833,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4843,7 +4841,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4851,7 +4849,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -4859,7 +4857,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4867,7 +4865,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4875,7 +4873,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4883,7 +4881,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -4891,7 +4889,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -4899,7 +4897,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4907,7 +4905,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4915,7 +4913,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4923,7 +4921,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4931,7 +4929,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -4939,7 +4937,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4947,7 +4945,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4955,7 +4953,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -4963,7 +4961,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4971,7 +4969,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -4979,7 +4977,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -4987,7 +4985,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -4995,7 +4993,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -5003,7 +5001,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -5011,7 +5009,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -5019,7 +5017,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -5027,7 +5025,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -5035,7 +5033,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -5043,7 +5041,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -5051,7 +5049,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -5059,7 +5057,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -5067,7 +5065,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -5075,7 +5073,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -5083,7 +5081,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -5091,7 +5089,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5099,7 +5097,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -5107,7 +5105,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -5115,7 +5113,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -5123,7 +5121,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -5131,7 +5129,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -5139,7 +5137,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -5147,7 +5145,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -5155,7 +5153,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -5166,7 +5164,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -5174,7 +5172,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -5182,7 +5180,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -5190,7 +5188,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -5198,7 +5196,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -5206,7 +5204,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -5214,7 +5212,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -5222,7 +5220,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -5230,7 +5228,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -5238,7 +5236,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -5246,7 +5244,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -5254,7 +5252,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -5262,7 +5260,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -5270,7 +5268,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -5278,7 +5276,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -5286,7 +5284,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -5294,7 +5292,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -5302,7 +5300,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -5310,7 +5308,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -5318,7 +5316,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -5326,7 +5324,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -5334,7 +5332,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -5342,7 +5340,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -5350,7 +5348,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5358,7 +5356,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -5366,7 +5364,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -5374,7 +5372,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -5382,7 +5380,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -5390,7 +5388,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -5398,7 +5396,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5406,7 +5404,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -5414,7 +5412,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -5430,7 +5428,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5438,7 +5436,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5446,7 +5444,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -5454,7 +5452,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -5462,7 +5460,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -5470,7 +5468,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -5478,7 +5476,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -5486,7 +5484,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -5494,7 +5492,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -5502,7 +5500,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -5510,7 +5508,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -5518,7 +5516,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5526,7 +5524,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -5534,7 +5532,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -5542,7 +5540,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5550,7 +5548,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -5558,7 +5556,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5566,7 +5564,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5574,7 +5572,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -5582,7 +5580,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -5590,7 +5588,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -5598,7 +5596,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -5606,7 +5604,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -5614,7 +5612,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -5622,7 +5620,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -5630,7 +5628,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5638,7 +5636,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -5646,7 +5644,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -5654,7 +5652,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -5662,7 +5660,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -5670,7 +5668,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -5678,7 +5676,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -5686,7 +5684,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -5702,7 +5700,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -5710,7 +5708,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -5718,7 +5716,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5734,7 +5732,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -5742,7 +5740,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -5750,7 +5748,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -5758,7 +5756,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -5766,7 +5764,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5774,7 +5772,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -5782,7 +5780,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -5790,7 +5788,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -5798,7 +5796,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5806,7 +5804,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5814,7 +5812,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -5822,7 +5820,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -5830,7 +5828,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -5838,7 +5836,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -5846,7 +5844,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -5854,7 +5852,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -5865,7 +5863,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -5873,7 +5871,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -5881,7 +5879,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -5889,7 +5887,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -5897,7 +5895,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -5905,7 +5903,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -5913,7 +5911,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -5921,7 +5919,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -5929,7 +5927,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -5937,7 +5935,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -5945,7 +5943,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -5953,7 +5951,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -5961,7 +5959,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -5969,7 +5967,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -5977,7 +5975,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -5985,7 +5983,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -5993,7 +5991,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -6001,7 +5999,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -6009,7 +6007,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -6017,7 +6015,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -6025,7 +6023,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -6033,7 +6031,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -6041,7 +6039,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -6049,7 +6047,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -6057,7 +6055,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -6065,7 +6063,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -6073,7 +6071,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -6081,7 +6079,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -6089,7 +6087,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -6097,7 +6095,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -6105,7 +6103,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -6113,7 +6111,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -6121,7 +6119,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -6129,7 +6127,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -6137,7 +6135,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -6145,7 +6143,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -6153,7 +6151,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -6161,7 +6159,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -6169,7 +6167,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -6177,7 +6175,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -6185,7 +6183,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -6193,7 +6191,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -6201,7 +6199,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -6209,7 +6207,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -6217,7 +6215,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -6225,7 +6223,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -6233,7 +6231,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -6241,7 +6239,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -6249,7 +6247,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -6257,7 +6255,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -6265,7 +6263,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -6273,7 +6271,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -6281,7 +6279,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -6297,7 +6295,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -6305,7 +6303,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -6313,7 +6311,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -6321,7 +6319,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -6329,7 +6327,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -6337,7 +6335,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -6345,7 +6343,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -6353,7 +6351,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -6361,7 +6359,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6369,7 +6367,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -6377,7 +6375,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -6385,7 +6383,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -6393,7 +6391,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -6401,7 +6399,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -6409,7 +6407,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -6417,7 +6415,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -6425,7 +6423,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -6433,7 +6431,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -6441,7 +6439,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -6449,7 +6447,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -6457,7 +6455,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -6465,7 +6463,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -6473,7 +6471,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -6481,7 +6479,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -6497,7 +6495,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -6505,7 +6503,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -6513,7 +6511,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -6521,7 +6519,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -6532,7 +6530,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -6540,7 +6538,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -6548,7 +6546,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -6559,7 +6557,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -6567,7 +6565,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -6575,7 +6573,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -6583,7 +6581,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -6591,7 +6589,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -6599,7 +6597,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -6607,7 +6605,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -6615,7 +6613,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -6623,7 +6621,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -6631,7 +6629,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -6639,7 +6637,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -6647,7 +6645,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -6655,7 +6653,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -6663,7 +6661,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -6679,7 +6677,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -6687,7 +6685,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -6695,7 +6693,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -6703,7 +6701,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -6719,7 +6717,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -6735,7 +6733,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -6743,7 +6741,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -6751,7 +6749,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -6759,7 +6757,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -6775,7 +6773,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -6783,7 +6781,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -6791,7 +6789,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -6799,7 +6797,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -6807,7 +6805,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -6815,7 +6813,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -6823,7 +6821,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -6831,7 +6829,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -6839,7 +6837,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -6847,7 +6845,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -6855,7 +6853,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -6863,7 +6861,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -6887,7 +6885,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -6895,7 +6893,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -6903,7 +6901,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -6911,7 +6909,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -6919,7 +6917,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -6927,7 +6925,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -6935,7 +6933,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -6943,7 +6941,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -6951,7 +6949,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -6959,7 +6957,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -6970,7 +6968,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -6978,7 +6976,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -6986,7 +6984,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -6994,7 +6992,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -7002,7 +7000,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -7010,7 +7008,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>571</v>
+        <v>570</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -7018,7 +7016,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -7026,7 +7024,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -7034,7 +7032,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -7042,7 +7040,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -7050,7 +7048,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -7074,7 +7072,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -7082,7 +7080,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -7090,7 +7088,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -7098,7 +7096,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -7106,7 +7104,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -7114,7 +7112,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -7122,7 +7120,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -7130,7 +7128,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -7138,7 +7136,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -7146,7 +7144,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -7154,7 +7152,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -7162,7 +7160,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -7170,7 +7168,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -7178,7 +7176,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -7186,7 +7184,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -7194,7 +7192,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -7202,7 +7200,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -7210,7 +7208,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -7218,7 +7216,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -7226,7 +7224,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -7234,7 +7232,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -7242,7 +7240,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -7250,7 +7248,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -7258,7 +7256,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -7266,7 +7264,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -7274,7 +7272,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -7282,7 +7280,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -7290,7 +7288,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -7298,7 +7296,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -7306,7 +7304,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -7314,7 +7312,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -7322,7 +7320,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -7330,7 +7328,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -7338,7 +7336,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -7346,7 +7344,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -7354,7 +7352,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -7362,7 +7360,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -7370,7 +7368,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -7378,7 +7376,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -7386,7 +7384,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -7394,7 +7392,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -7402,7 +7400,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -7410,7 +7408,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -7418,7 +7416,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -7426,7 +7424,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -7434,7 +7432,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -7442,7 +7440,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B441">
         <v>0</v>
@@ -7450,7 +7448,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -7458,7 +7456,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B443">
         <v>0</v>
@@ -7466,7 +7464,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -7495,7 +7493,7 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
@@ -7545,469 +7543,469 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>123</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>124</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="E1" s="30" t="s">
+        <v>192</v>
+      </c>
+    </row>
+    <row r="2" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A2" s="35" t="s">
+        <v>180</v>
+      </c>
+      <c r="B2" s="45" t="s">
+        <v>672</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D2" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="3" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A3" s="20" t="s">
+        <v>181</v>
+      </c>
+      <c r="B3" s="46" t="s">
+        <v>673</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D3" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="35" t="s">
+        <v>117</v>
+      </c>
+      <c r="B4" s="45" t="s">
+        <v>674</v>
+      </c>
+      <c r="C4" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D4" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="5" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="20" t="s">
+        <v>176</v>
+      </c>
+      <c r="B5" s="46" t="s">
+        <v>675</v>
+      </c>
+      <c r="C5" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D5" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="35" t="s">
+        <v>178</v>
+      </c>
+      <c r="B6" s="45" t="s">
+        <v>676</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D6" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="20" t="s">
+        <v>177</v>
+      </c>
+      <c r="B7" s="46" t="s">
+        <v>677</v>
+      </c>
+      <c r="C7" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D7" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="35" t="s">
+        <v>121</v>
+      </c>
+      <c r="B8" s="45" t="s">
+        <v>678</v>
+      </c>
+      <c r="C8" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D8" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="9" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="20" t="s">
+        <v>120</v>
+      </c>
+      <c r="B9" s="46" t="s">
+        <v>679</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D9" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A10" s="35" t="s">
+        <v>122</v>
+      </c>
+      <c r="B10" s="45" t="s">
+        <v>680</v>
+      </c>
+      <c r="C10" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D10" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="11" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A11" s="20" t="s">
+        <v>129</v>
+      </c>
+      <c r="B11" s="46" t="s">
+        <v>681</v>
+      </c>
+      <c r="C11" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D11" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="12" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A12" s="35" t="s">
         <v>125</v>
       </c>
-      <c r="E1" s="32" t="s">
-        <v>193</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="37" t="s">
-        <v>181</v>
-      </c>
-      <c r="B2" s="47" t="s">
-        <v>673</v>
-      </c>
-      <c r="C2" s="37" t="s">
+      <c r="B12" s="45" t="s">
+        <v>682</v>
+      </c>
+      <c r="C12" s="35" t="s">
         <v>74</v>
       </c>
-      <c r="D2" s="37" t="s">
+      <c r="D12" s="35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="22" t="s">
+    <row r="13" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A13" s="20" t="s">
+        <v>198</v>
+      </c>
+      <c r="B13" s="46" t="s">
+        <v>683</v>
+      </c>
+      <c r="C13" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D13" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="14" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A14" s="35" t="s">
+        <v>184</v>
+      </c>
+      <c r="B14" s="45" t="s">
+        <v>684</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D14" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="15" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A15" s="20" t="s">
+        <v>185</v>
+      </c>
+      <c r="B15" s="46" t="s">
+        <v>685</v>
+      </c>
+      <c r="C15" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D15" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="16" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A16" s="35" t="s">
+        <v>186</v>
+      </c>
+      <c r="B16" s="45" t="s">
+        <v>686</v>
+      </c>
+      <c r="C16" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D16" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A17" s="20" t="s">
+        <v>702</v>
+      </c>
+      <c r="B17" s="46" t="s">
+        <v>705</v>
+      </c>
+      <c r="C17" s="20" t="s">
+        <v>74</v>
+      </c>
+      <c r="D17" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A18" s="48" t="s">
+        <v>689</v>
+      </c>
+      <c r="B18" s="49" t="s">
+        <v>690</v>
+      </c>
+      <c r="C18" s="35" t="s">
+        <v>74</v>
+      </c>
+      <c r="D18" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A19" s="29" t="s">
         <v>182</v>
       </c>
-      <c r="B3" s="48" t="s">
-        <v>674</v>
-      </c>
-      <c r="C3" s="22" t="s">
+      <c r="B19" s="47" t="s">
+        <v>692</v>
+      </c>
+      <c r="C19" s="29" t="s">
         <v>74</v>
       </c>
-      <c r="D3" s="22" t="s">
+    </row>
+    <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A20" s="29" t="s">
+        <v>644</v>
+      </c>
+      <c r="B20" s="47" t="s">
+        <v>687</v>
+      </c>
+      <c r="C20" s="29" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="37" t="s">
+    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A21" s="29" t="s">
+        <v>658</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>659</v>
+      </c>
+      <c r="C21" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A22" s="34" t="s">
+        <v>183</v>
+      </c>
+      <c r="B22" s="34" t="s">
+        <v>693</v>
+      </c>
+      <c r="C22" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A23" s="29" t="s">
+        <v>188</v>
+      </c>
+      <c r="B23" s="29" t="s">
+        <v>694</v>
+      </c>
+      <c r="C23" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="34" t="s">
+        <v>189</v>
+      </c>
+      <c r="B24" s="34" t="s">
+        <v>695</v>
+      </c>
+      <c r="C24" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B25" s="29" t="s">
+        <v>696</v>
+      </c>
+      <c r="C25" s="29" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="34" t="s">
+        <v>140</v>
+      </c>
+      <c r="B26" s="34" t="s">
+        <v>697</v>
+      </c>
+      <c r="C26" s="34" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A27" s="50" t="s">
         <v>118</v>
       </c>
-      <c r="B4" s="47" t="s">
-        <v>675</v>
-      </c>
-      <c r="C4" s="37" t="s">
+      <c r="B27" s="50" t="s">
+        <v>698</v>
+      </c>
+      <c r="C27" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D4" s="37" t="s">
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="50" t="s">
+        <v>119</v>
+      </c>
+      <c r="B28" s="50" t="s">
+        <v>699</v>
+      </c>
+      <c r="C28" s="50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="22" t="s">
-        <v>177</v>
-      </c>
-      <c r="B5" s="48" t="s">
-        <v>676</v>
-      </c>
-      <c r="C5" s="22" t="s">
+    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A29" s="50" t="s">
+        <v>710</v>
+      </c>
+      <c r="B29" s="50" t="s">
+        <v>711</v>
+      </c>
+      <c r="C29" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D5" s="22" t="s">
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A30" s="50" t="s">
+        <v>714</v>
+      </c>
+      <c r="B30" s="50" t="s">
+        <v>713</v>
+      </c>
+      <c r="C30" s="50" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="37" t="s">
-        <v>179</v>
-      </c>
-      <c r="B6" s="47" t="s">
-        <v>677</v>
-      </c>
-      <c r="C6" s="37" t="s">
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="50" t="s">
+        <v>715</v>
+      </c>
+      <c r="B31" s="50" t="s">
+        <v>716</v>
+      </c>
+      <c r="C31" s="50" t="s">
         <v>74</v>
       </c>
-      <c r="D6" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="22" t="s">
-        <v>178</v>
-      </c>
-      <c r="B7" s="48" t="s">
-        <v>678</v>
-      </c>
-      <c r="C7" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D7" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="37" t="s">
-        <v>122</v>
-      </c>
-      <c r="B8" s="47" t="s">
-        <v>679</v>
-      </c>
-      <c r="C8" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D8" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="22" t="s">
-        <v>121</v>
-      </c>
-      <c r="B9" s="48" t="s">
-        <v>680</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D9" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="37" t="s">
-        <v>123</v>
-      </c>
-      <c r="B10" s="47" t="s">
-        <v>681</v>
-      </c>
-      <c r="C10" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D10" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="22" t="s">
-        <v>130</v>
-      </c>
-      <c r="B11" s="48" t="s">
-        <v>682</v>
-      </c>
-      <c r="C11" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D11" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="37" t="s">
-        <v>126</v>
-      </c>
-      <c r="B12" s="47" t="s">
-        <v>683</v>
-      </c>
-      <c r="C12" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D12" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="22" t="s">
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A32" s="31" t="s">
+        <v>89</v>
+      </c>
+      <c r="B32" s="32" t="s">
+        <v>669</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A33" s="31" t="s">
+        <v>649</v>
+      </c>
+      <c r="B33" s="32" t="s">
+        <v>670</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A34" s="36" t="s">
         <v>199</v>
       </c>
-      <c r="B13" s="48" t="s">
-        <v>684</v>
-      </c>
-      <c r="C13" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D13" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="37" t="s">
-        <v>185</v>
-      </c>
-      <c r="B14" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D14" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="22" t="s">
-        <v>186</v>
-      </c>
-      <c r="B15" s="48" t="s">
-        <v>686</v>
-      </c>
-      <c r="C15" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D15" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="37" t="s">
-        <v>187</v>
-      </c>
-      <c r="B16" s="47" t="s">
-        <v>687</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D16" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="22" t="s">
-        <v>703</v>
-      </c>
-      <c r="B17" s="48" t="s">
-        <v>706</v>
-      </c>
-      <c r="C17" s="22" t="s">
-        <v>74</v>
-      </c>
-      <c r="D17" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="37" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="50" t="s">
-        <v>690</v>
-      </c>
-      <c r="B18" s="51" t="s">
+      <c r="B34" s="37" t="s">
+        <v>742</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A35" s="32" t="s">
+        <v>200</v>
+      </c>
+      <c r="B35" s="32" t="s">
+        <v>700</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A36" s="50" t="s">
+        <v>712</v>
+      </c>
+      <c r="B36" s="50" t="s">
+        <v>701</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A37" s="32" t="s">
+        <v>194</v>
+      </c>
+      <c r="B37" s="32" t="s">
+        <v>195</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A38" s="36" t="s">
+        <v>148</v>
+      </c>
+      <c r="B38" s="36" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A39" s="36" t="s">
+        <v>708</v>
+      </c>
+      <c r="B39" s="36" t="s">
+        <v>709</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A40" s="31" t="s">
+        <v>688</v>
+      </c>
+      <c r="B40" s="32" t="s">
         <v>691</v>
-      </c>
-      <c r="C18" s="37" t="s">
-        <v>74</v>
-      </c>
-      <c r="D18" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="31" t="s">
-        <v>183</v>
-      </c>
-      <c r="B19" s="49" t="s">
-        <v>693</v>
-      </c>
-      <c r="C19" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="31" t="s">
-        <v>645</v>
-      </c>
-      <c r="B20" s="49" t="s">
-        <v>688</v>
-      </c>
-      <c r="C20" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="31" t="s">
-        <v>659</v>
-      </c>
-      <c r="B21" s="31" t="s">
-        <v>660</v>
-      </c>
-      <c r="C21" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="36" t="s">
-        <v>184</v>
-      </c>
-      <c r="B22" s="36" t="s">
-        <v>694</v>
-      </c>
-      <c r="C22" s="36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="31" t="s">
-        <v>189</v>
-      </c>
-      <c r="B23" s="31" t="s">
-        <v>695</v>
-      </c>
-      <c r="C23" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="36" t="s">
-        <v>190</v>
-      </c>
-      <c r="B24" s="36" t="s">
-        <v>696</v>
-      </c>
-      <c r="C24" s="36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="31" t="s">
-        <v>191</v>
-      </c>
-      <c r="B25" s="31" t="s">
-        <v>697</v>
-      </c>
-      <c r="C25" s="31" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="36" t="s">
-        <v>141</v>
-      </c>
-      <c r="B26" s="36" t="s">
-        <v>698</v>
-      </c>
-      <c r="C26" s="36" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="52" t="s">
-        <v>119</v>
-      </c>
-      <c r="B27" s="52" t="s">
-        <v>699</v>
-      </c>
-      <c r="C27" s="52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="52" t="s">
-        <v>120</v>
-      </c>
-      <c r="B28" s="52" t="s">
-        <v>700</v>
-      </c>
-      <c r="C28" s="52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="52" t="s">
-        <v>711</v>
-      </c>
-      <c r="B29" s="52" t="s">
-        <v>712</v>
-      </c>
-      <c r="C29" s="52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="52" t="s">
-        <v>715</v>
-      </c>
-      <c r="B30" s="52" t="s">
-        <v>714</v>
-      </c>
-      <c r="C30" s="52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="52" t="s">
-        <v>716</v>
-      </c>
-      <c r="B31" s="52" t="s">
-        <v>717</v>
-      </c>
-      <c r="C31" s="52" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="33" t="s">
-        <v>89</v>
-      </c>
-      <c r="B32" s="34" t="s">
-        <v>670</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="33" t="s">
-        <v>650</v>
-      </c>
-      <c r="B33" s="34" t="s">
-        <v>671</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="38" t="s">
-        <v>200</v>
-      </c>
-      <c r="B34" s="39" t="s">
-        <v>743</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B35" s="34" t="s">
-        <v>701</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="52" t="s">
-        <v>713</v>
-      </c>
-      <c r="B36" s="52" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="34" t="s">
-        <v>195</v>
-      </c>
-      <c r="B37" s="34" t="s">
-        <v>196</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="38" t="s">
-        <v>149</v>
-      </c>
-      <c r="B38" s="38" t="s">
-        <v>150</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="38" t="s">
-        <v>709</v>
-      </c>
-      <c r="B39" s="38" t="s">
-        <v>710</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="33" t="s">
-        <v>689</v>
-      </c>
-      <c r="B40" s="34" t="s">
-        <v>692</v>
       </c>
     </row>
   </sheetData>
@@ -8035,186 +8033,186 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>151</v>
-      </c>
-      <c r="C1" s="46" t="s">
-        <v>584</v>
+        <v>150</v>
+      </c>
+      <c r="C1" s="44" t="s">
+        <v>583</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>649</v>
-      </c>
-      <c r="C2" s="22" t="s">
+        <v>648</v>
+      </c>
+      <c r="C2" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>156</v>
+        <v>155</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>163</v>
+      </c>
+      <c r="C3" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="25" t="s">
+        <v>159</v>
+      </c>
+      <c r="B4" s="26" t="s">
         <v>164</v>
       </c>
-      <c r="C3" s="22" t="s">
+      <c r="C4" s="35" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="27" t="s">
-        <v>160</v>
-      </c>
-      <c r="B4" s="28" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="35" t="s">
+        <v>574</v>
+      </c>
+      <c r="B5" s="35" t="s">
+        <v>576</v>
+      </c>
+      <c r="C5" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="25" t="s">
+        <v>218</v>
+      </c>
+      <c r="B6" s="26" t="s">
+        <v>216</v>
+      </c>
+      <c r="C6" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="25" t="s">
+        <v>157</v>
+      </c>
+      <c r="B7" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C7" s="35" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="41" t="s">
+        <v>151</v>
+      </c>
+      <c r="B8" s="42" t="s">
         <v>165</v>
       </c>
-      <c r="C4" s="37" t="s">
+      <c r="C8" s="20" t="s">
         <v>74</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="37" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="41" t="s">
+        <v>660</v>
+      </c>
+      <c r="B9" s="42" t="s">
+        <v>661</v>
+      </c>
+      <c r="C9" s="20" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A10" s="41" t="s">
+        <v>572</v>
+      </c>
+      <c r="B10" s="42" t="s">
         <v>575</v>
       </c>
-      <c r="B5" s="37" t="s">
-        <v>577</v>
-      </c>
-      <c r="C5" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="27" t="s">
-        <v>219</v>
-      </c>
-      <c r="B6" s="28" t="s">
-        <v>217</v>
-      </c>
-      <c r="C6" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="27" t="s">
-        <v>158</v>
-      </c>
-      <c r="B7" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C7" s="37" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="43" t="s">
-        <v>152</v>
-      </c>
-      <c r="B8" s="44" t="s">
-        <v>166</v>
-      </c>
-      <c r="C8" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="43" t="s">
-        <v>661</v>
-      </c>
-      <c r="B9" s="44" t="s">
-        <v>662</v>
-      </c>
-      <c r="C9" s="22" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="43" t="s">
-        <v>573</v>
-      </c>
-      <c r="B10" s="44" t="s">
-        <v>576</v>
-      </c>
-      <c r="C10" s="22" t="s">
+      <c r="C10" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>214</v>
-      </c>
-      <c r="C11" s="22" t="s">
+        <v>213</v>
+      </c>
+      <c r="C11" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>155</v>
-      </c>
-      <c r="C12" s="22" t="s">
+        <v>154</v>
+      </c>
+      <c r="C12" s="20" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="37" t="s">
-        <v>213</v>
-      </c>
-      <c r="B13" s="37" t="s">
+      <c r="A13" s="35" t="s">
+        <v>212</v>
+      </c>
+      <c r="B13" s="35" t="s">
+        <v>214</v>
+      </c>
+      <c r="C13" s="35" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A14" s="35" t="s">
+        <v>662</v>
+      </c>
+      <c r="B14" s="35" t="s">
+        <v>663</v>
+      </c>
+      <c r="C14" s="35" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A15" s="35" t="s">
+        <v>573</v>
+      </c>
+      <c r="B15" s="35" t="s">
+        <v>575</v>
+      </c>
+      <c r="C15" s="35" t="s">
+        <v>556</v>
+      </c>
+    </row>
+    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A16" s="43" t="s">
+        <v>211</v>
+      </c>
+      <c r="B16" s="43" t="s">
         <v>215</v>
       </c>
-      <c r="C13" s="37" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="37" t="s">
-        <v>663</v>
-      </c>
-      <c r="B14" s="37" t="s">
-        <v>664</v>
-      </c>
-      <c r="C14" s="37" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="37" t="s">
-        <v>574</v>
-      </c>
-      <c r="B15" s="37" t="s">
-        <v>576</v>
-      </c>
-      <c r="C15" s="37" t="s">
-        <v>557</v>
-      </c>
-    </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="45" t="s">
-        <v>212</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>216</v>
-      </c>
-      <c r="C16" s="37" t="s">
-        <v>557</v>
+      <c r="C16" s="35" t="s">
+        <v>556</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="27" t="s">
-        <v>218</v>
-      </c>
-      <c r="B17" s="28" t="s">
-        <v>155</v>
-      </c>
-      <c r="C17" s="37" t="s">
-        <v>557</v>
+      <c r="A17" s="25" t="s">
+        <v>217</v>
+      </c>
+      <c r="B17" s="26" t="s">
+        <v>154</v>
+      </c>
+      <c r="C17" s="35" t="s">
+        <v>556</v>
       </c>
     </row>
   </sheetData>
@@ -8257,7 +8255,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8297,7 +8295,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8353,7 +8351,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -8470,42 +8468,42 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>131</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>132</v>
       </c>
-      <c r="B30" s="20" t="s">
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A31" s="20" t="s">
         <v>133</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="22" t="s">
-        <v>134</v>
-      </c>
-      <c r="B31" s="21" t="s">
-        <v>210</v>
+      <c r="B31" s="19" t="s">
+        <v>209</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>135</v>
-      </c>
-      <c r="B32" s="20" t="s">
-        <v>209</v>
+        <v>134</v>
+      </c>
+      <c r="B32" s="18" t="s">
+        <v>208</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="22" t="s">
-        <v>202</v>
-      </c>
-      <c r="B33" s="21" t="s">
-        <v>207</v>
+      <c r="A33" s="20" t="s">
+        <v>201</v>
+      </c>
+      <c r="B33" s="19" t="s">
+        <v>206</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>203</v>
-      </c>
-      <c r="B34" s="20" t="s">
-        <v>208</v>
+        <v>202</v>
+      </c>
+      <c r="B34" s="18" t="s">
+        <v>207</v>
       </c>
     </row>
   </sheetData>
@@ -8533,37 +8531,37 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>112</v>
+        <v>111</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -8573,12 +8571,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
     </row>
   </sheetData>
@@ -8626,11 +8624,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="65" t="s">
+      <c r="A1" s="63" t="s">
         <v>88</v>
       </c>
-      <c r="B1" s="65"/>
-      <c r="C1" s="65"/>
+      <c r="B1" s="63"/>
+      <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/UnitTest/test_config.xlsx
+++ b/UnitTest/test_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\UnitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4A1F8D6F-76B4-435B-A835-6908DC1D6EFE}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6730CAA5-97AE-4C0C-935E-9607DE1E8475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="30936" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="881" uniqueCount="746">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="745">
   <si>
     <t>Название</t>
   </si>
@@ -236,9 +236,6 @@
   </si>
   <si>
     <t>Макс длина названия дисциплин</t>
-  </si>
-  <si>
-    <t>Размер рёбер</t>
   </si>
   <si>
     <t>Индекс</t>
@@ -2290,7 +2287,7 @@
     <t xml:space="preserve"> {0,1}(.{1,}?)(;|$)</t>
   </si>
   <si>
-    <t>(L + R) * K</t>
+    <t>10 * (L + R) * K</t>
   </si>
 </sst>
 </file>
@@ -2677,6 +2674,12 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2687,12 +2690,6 @@
       <alignment horizontal="left" vertical="top" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -3026,10 +3023,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J80"/>
+  <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A13" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="B14" sqref="B14"/>
+    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="D79" sqref="D79"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3041,19 +3038,19 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>82</v>
+      </c>
+      <c r="B1" s="58" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="56" t="s">
-        <v>84</v>
-      </c>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
-      <c r="F1" s="56"/>
-      <c r="G1" s="56"/>
-      <c r="H1" s="56"/>
-      <c r="I1" s="56"/>
-      <c r="J1" s="56"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
+      <c r="F1" s="58"/>
+      <c r="G1" s="58"/>
+      <c r="H1" s="58"/>
+      <c r="I1" s="58"/>
+      <c r="J1" s="58"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="59" t="s">
@@ -3069,7 +3066,7 @@
         <v>57</v>
       </c>
       <c r="E2" t="s">
-        <v>645</v>
+        <v>644</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -3084,301 +3081,301 @@
         <v>60</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>646</v>
+        <v>645</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="B4" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>90</v>
+        <v>89</v>
       </c>
       <c r="B5" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>162</v>
+        <v>161</v>
       </c>
       <c r="B6" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>210</v>
+        <v>209</v>
       </c>
       <c r="B7" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="53" t="s">
-        <v>112</v>
+      <c r="A8" s="55" t="s">
+        <v>111</v>
       </c>
       <c r="B8" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="53"/>
+      <c r="A9" s="55"/>
       <c r="B9" s="21" t="s">
-        <v>135</v>
+        <v>134</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="53" t="s">
+      <c r="A10" s="55" t="s">
+        <v>159</v>
+      </c>
+      <c r="B10" s="27" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A11" s="55"/>
+      <c r="B11" s="21" t="s">
         <v>160</v>
       </c>
-      <c r="B10" s="27" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="53"/>
-      <c r="B11" s="21" t="s">
-        <v>161</v>
-      </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="53" t="s">
-        <v>128</v>
+      <c r="A12" s="55" t="s">
+        <v>127</v>
       </c>
       <c r="B12" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="53"/>
+      <c r="A13" s="55"/>
       <c r="B13" s="9" t="s">
-        <v>636</v>
+        <v>635</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>139</v>
+        <v>138</v>
       </c>
       <c r="B14" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>79</v>
+        <v>78</v>
       </c>
       <c r="B15" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>77</v>
+        <v>76</v>
       </c>
       <c r="B16" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>666</v>
+        <v>665</v>
       </c>
       <c r="B17" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>741</v>
+        <v>740</v>
       </c>
       <c r="B18" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>425</v>
+        <v>424</v>
       </c>
       <c r="B19" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>584</v>
+        <v>583</v>
       </c>
       <c r="B20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>637</v>
+        <v>636</v>
       </c>
       <c r="B21" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>704</v>
+        <v>703</v>
       </c>
       <c r="B22" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="53" t="s">
+      <c r="A23" s="55" t="s">
+        <v>637</v>
+      </c>
+      <c r="B23" t="s">
+        <v>555</v>
+      </c>
+      <c r="C23" t="s">
+        <v>555</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A24" s="55"/>
+      <c r="B24" s="9" t="s">
         <v>638</v>
       </c>
-      <c r="B23" t="s">
-        <v>556</v>
-      </c>
-      <c r="C23" t="s">
-        <v>556</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="53"/>
-      <c r="B24" s="9" t="s">
+      <c r="C24" s="9" t="s">
+        <v>641</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A25" s="55" t="s">
+        <v>174</v>
+      </c>
+      <c r="B25" t="s">
+        <v>73</v>
+      </c>
+      <c r="C25" t="s">
+        <v>73</v>
+      </c>
+      <c r="D25" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A26" s="55"/>
+      <c r="B26" s="9" t="s">
         <v>639</v>
       </c>
-      <c r="C24" s="9" t="s">
-        <v>642</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="53" t="s">
-        <v>175</v>
-      </c>
-      <c r="B25" t="s">
-        <v>74</v>
-      </c>
-      <c r="C25" t="s">
-        <v>74</v>
-      </c>
-      <c r="D25" t="s">
-        <v>74</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="53"/>
-      <c r="B26" s="9" t="s">
+      <c r="C26" s="9" t="s">
         <v>640</v>
       </c>
-      <c r="C26" s="9" t="s">
-        <v>641</v>
-      </c>
       <c r="D26" s="9" t="s">
-        <v>743</v>
+        <v>742</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="53" t="s">
+      <c r="A27" s="55" t="s">
+        <v>166</v>
+      </c>
+      <c r="B27" t="s">
+        <v>170</v>
+      </c>
+      <c r="C27" t="s">
+        <v>169</v>
+      </c>
+      <c r="D27" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A28" s="55"/>
+      <c r="B28" s="9" t="s">
         <v>167</v>
       </c>
-      <c r="B27" t="s">
-        <v>171</v>
-      </c>
-      <c r="C27" t="s">
-        <v>170</v>
-      </c>
-      <c r="D27" t="s">
+      <c r="C28" s="9" t="s">
+        <v>168</v>
+      </c>
+      <c r="D28" s="9" t="s">
         <v>172</v>
       </c>
     </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="53"/>
-      <c r="B28" s="9" t="s">
-        <v>168</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>169</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>173</v>
-      </c>
-    </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="53"/>
+      <c r="A29" s="55"/>
       <c r="B29" s="9" t="s">
-        <v>166</v>
+        <v>165</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="53" t="s">
-        <v>179</v>
+      <c r="A30" s="55" t="s">
+        <v>178</v>
       </c>
       <c r="B30" s="23" t="s">
+        <v>183</v>
+      </c>
+      <c r="C30" s="23" t="s">
         <v>184</v>
       </c>
-      <c r="C30" s="23" t="s">
+      <c r="D30" s="23" t="s">
         <v>185</v>
       </c>
-      <c r="D30" s="23" t="s">
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A31" s="55"/>
+      <c r="B31" s="9" t="s">
         <v>186</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="53"/>
-      <c r="B31" s="9" t="s">
-        <v>187</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="57" t="s">
-        <v>76</v>
-      </c>
-      <c r="B32" s="58"/>
-      <c r="C32" s="58"/>
+      <c r="A32" s="53" t="s">
+        <v>75</v>
+      </c>
+      <c r="B32" s="54"/>
+      <c r="C32" s="54"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="57" t="s">
-        <v>78</v>
-      </c>
-      <c r="B33" s="58"/>
-      <c r="C33" s="58"/>
+      <c r="A33" s="53" t="s">
+        <v>77</v>
+      </c>
+      <c r="B33" s="54"/>
+      <c r="C33" s="54"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="53" t="s">
+      <c r="A34" s="55" t="s">
+        <v>144</v>
+      </c>
+      <c r="B34" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A35" s="55"/>
+      <c r="B35" s="9" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A36" s="55" t="s">
         <v>145</v>
       </c>
-      <c r="B34" t="s">
+      <c r="B36" t="s">
         <v>739</v>
       </c>
     </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="53"/>
-      <c r="B35" s="9" t="s">
-        <v>75</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="53" t="s">
-        <v>146</v>
-      </c>
-      <c r="B36" t="s">
-        <v>740</v>
-      </c>
-    </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="53"/>
+      <c r="A37" s="55"/>
       <c r="B37" s="9" t="s">
-        <v>75</v>
+        <v>74</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>264</v>
+        <v>263</v>
       </c>
       <c r="B38" s="5">
         <v>2</v>
@@ -3394,26 +3391,26 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
-        <v>64</v>
-      </c>
-      <c r="B40" s="5">
-        <v>10</v>
+        <v>68</v>
+      </c>
+      <c r="B40" t="s">
+        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
-        <v>69</v>
+        <v>70</v>
       </c>
       <c r="B41" t="s">
-        <v>70</v>
+        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>71</v>
+        <v>716</v>
       </c>
       <c r="B42" t="s">
-        <v>72</v>
+        <v>720</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
@@ -3426,195 +3423,195 @@
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>718</v>
+        <v>722</v>
       </c>
       <c r="B44" t="s">
-        <v>722</v>
+        <v>723</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>723</v>
+        <v>99</v>
       </c>
       <c r="B45" t="s">
-        <v>724</v>
+        <v>743</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="15" t="s">
-        <v>100</v>
+      <c r="A46" s="55" t="s">
+        <v>141</v>
       </c>
       <c r="B46" t="s">
-        <v>744</v>
+        <v>155</v>
+      </c>
+      <c r="C46" t="s">
+        <v>667</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="53" t="s">
+      <c r="A47" s="55"/>
+      <c r="B47" s="9" t="s">
+        <v>140</v>
+      </c>
+      <c r="C47" s="9" t="s">
+        <v>666</v>
+      </c>
+    </row>
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="22" t="s">
         <v>142</v>
       </c>
-      <c r="B47" t="s">
-        <v>156</v>
-      </c>
-      <c r="C47" t="s">
-        <v>668</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="53"/>
-      <c r="B48" s="9" t="s">
-        <v>141</v>
-      </c>
-      <c r="C48" s="9" t="s">
-        <v>667</v>
+      <c r="B48" s="23" t="s">
+        <v>143</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="22" t="s">
-        <v>143</v>
+      <c r="A49" s="51" t="s">
+        <v>727</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>144</v>
+        <v>726</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="51" t="s">
-        <v>728</v>
-      </c>
-      <c r="B50" s="23" t="s">
-        <v>727</v>
+      <c r="A50" s="15" t="s">
+        <v>81</v>
+      </c>
+      <c r="B50" s="5">
+        <v>2</v>
       </c>
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>82</v>
+        <v>570</v>
       </c>
       <c r="B51" s="5">
-        <v>2</v>
+        <v>3</v>
       </c>
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>571</v>
-      </c>
-      <c r="B52" s="5">
-        <v>3</v>
+        <v>260</v>
+      </c>
+      <c r="B52" s="13" t="s">
+        <v>113</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>261</v>
+        <v>702</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>114</v>
+        <v>146</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
-        <v>703</v>
+        <v>663</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>147</v>
+        <v>664</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>664</v>
+        <v>718</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>665</v>
+        <v>719</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
-        <v>719</v>
-      </c>
-      <c r="B56" s="13" t="s">
-        <v>720</v>
+        <v>90</v>
+      </c>
+      <c r="B56" s="5" t="s">
+        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>91</v>
+        <v>151</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>92</v>
+        <v>152</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>152</v>
+        <v>103</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>153</v>
+        <v>102</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
-        <v>104</v>
+        <v>114</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>103</v>
+        <v>115</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>115</v>
+        <v>190</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>116</v>
+        <v>86</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>191</v>
+        <v>261</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>87</v>
+        <v>262</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
-        <v>262</v>
-      </c>
-      <c r="B62" s="5" t="s">
-        <v>263</v>
+        <v>670</v>
+      </c>
+      <c r="B62" s="52">
+        <v>4</v>
       </c>
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>671</v>
-      </c>
-      <c r="B63" s="52">
-        <v>4</v>
+        <v>724</v>
+      </c>
+      <c r="B63" s="28">
+        <v>0.05</v>
       </c>
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>725</v>
-      </c>
-      <c r="B64" s="28">
-        <v>0.05</v>
+        <v>192</v>
+      </c>
+      <c r="B64" s="5">
+        <v>6</v>
       </c>
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>193</v>
+        <v>93</v>
       </c>
       <c r="B65" s="5">
-        <v>6</v>
+        <v>5</v>
       </c>
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>94</v>
-      </c>
-      <c r="B66" s="5">
-        <v>5</v>
+        <v>98</v>
+      </c>
+      <c r="B66" s="28">
+        <v>1E-3</v>
       </c>
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>99</v>
+        <v>112</v>
       </c>
       <c r="B67" s="28">
         <v>1E-3</v>
@@ -3622,128 +3619,120 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>113</v>
+        <v>725</v>
       </c>
       <c r="B68" s="28">
-        <v>1E-3</v>
+        <v>0.05</v>
       </c>
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>726</v>
-      </c>
-      <c r="B69" s="28">
-        <v>0.05</v>
+        <v>173</v>
+      </c>
+      <c r="B69" s="13">
+        <v>40</v>
       </c>
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="15" t="s">
-        <v>174</v>
-      </c>
-      <c r="B70" s="13">
-        <v>40</v>
-      </c>
+      <c r="A70" s="60" t="s">
+        <v>126</v>
+      </c>
+      <c r="B70" s="60"/>
+      <c r="C70" s="60"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="60" t="s">
-        <v>127</v>
-      </c>
-      <c r="B71" s="60"/>
-      <c r="C71" s="60"/>
+      <c r="A71" s="15" t="s">
+        <v>125</v>
+      </c>
+      <c r="B71" s="13" t="s">
+        <v>73</v>
+      </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>126</v>
-      </c>
-      <c r="B72" s="13" t="s">
-        <v>74</v>
+        <v>62</v>
+      </c>
+      <c r="B72" t="s">
+        <v>576</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B73" t="s">
-        <v>577</v>
+        <v>129</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>61</v>
+        <v>136</v>
       </c>
       <c r="B74" t="s">
-        <v>130</v>
+        <v>137</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="15" t="s">
-        <v>137</v>
-      </c>
-      <c r="B75" t="s">
-        <v>138</v>
-      </c>
-    </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A76" s="57" t="s">
-        <v>86</v>
-      </c>
-      <c r="B76" s="58"/>
-      <c r="C76" s="58"/>
-    </row>
-    <row r="77" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="54" t="s">
-        <v>136</v>
-      </c>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
+      <c r="A75" s="53" t="s">
+        <v>85</v>
+      </c>
+      <c r="B75" s="54"/>
+      <c r="C75" s="54"/>
+    </row>
+    <row r="76" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A76" s="56" t="s">
+        <v>135</v>
+      </c>
+      <c r="B76" s="56"/>
+      <c r="C76" s="56"/>
+      <c r="D76" s="11"/>
+      <c r="E76" s="11"/>
+    </row>
+    <row r="77" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A77" s="57" t="s">
+        <v>97</v>
+      </c>
+      <c r="B77" s="57"/>
+      <c r="C77" s="57"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
     </row>
-    <row r="78" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A78" s="55" t="s">
-        <v>98</v>
-      </c>
-      <c r="B78" s="55"/>
-      <c r="C78" s="55"/>
-      <c r="D78" s="11"/>
-      <c r="E78" s="11"/>
+    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
+        <v>705</v>
+      </c>
+      <c r="B78" s="14" t="s">
+        <v>744</v>
+      </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
         <v>706</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>745</v>
-      </c>
-    </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A80" s="15" t="s">
-        <v>707</v>
-      </c>
-      <c r="B80" s="14" t="s">
-        <v>745</v>
+        <v>744</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
-    <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A77:C77"/>
-    <mergeCell ref="A78:C78"/>
     <mergeCell ref="B1:J1"/>
-    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A75:C75"/>
     <mergeCell ref="A2:A3"/>
     <mergeCell ref="A36:A37"/>
     <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A71:C71"/>
-    <mergeCell ref="A47:A48"/>
+    <mergeCell ref="A70:C70"/>
+    <mergeCell ref="A46:A47"/>
     <mergeCell ref="A8:A9"/>
     <mergeCell ref="A10:A11"/>
     <mergeCell ref="A27:A29"/>
     <mergeCell ref="A25:A26"/>
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:C32"/>
+    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3765,12 +3754,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>85</v>
+        <v>84</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
     </row>
   </sheetData>
@@ -3793,29 +3782,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
-        <v>85</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
-      <c r="E1" s="56"/>
+      <c r="A1" s="58" t="s">
+        <v>84</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
+      <c r="E1" s="58"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>68</v>
+        <v>67</v>
       </c>
       <c r="B2" t="s">
-        <v>65</v>
+        <v>64</v>
       </c>
       <c r="C2" t="s">
-        <v>585</v>
+        <v>584</v>
       </c>
       <c r="D2" t="s">
+        <v>79</v>
+      </c>
+      <c r="E2" t="s">
         <v>80</v>
-      </c>
-      <c r="E2" t="s">
-        <v>81</v>
       </c>
     </row>
   </sheetData>
@@ -3840,39 +3829,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="56" t="s">
-        <v>647</v>
-      </c>
-      <c r="B1" s="56"/>
-      <c r="C1" s="56"/>
-      <c r="D1" s="56"/>
+      <c r="A1" s="58" t="s">
+        <v>646</v>
+      </c>
+      <c r="B1" s="58"/>
+      <c r="C1" s="58"/>
+      <c r="D1" s="58"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>650</v>
+        <v>649</v>
       </c>
       <c r="B2" t="s">
-        <v>652</v>
+        <v>651</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>654</v>
+        <v>653</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>656</v>
+        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>651</v>
+        <v>650</v>
       </c>
       <c r="B3" t="s">
-        <v>653</v>
+        <v>652</v>
       </c>
       <c r="C3" s="35" t="s">
-        <v>655</v>
+        <v>654</v>
       </c>
       <c r="D3" s="35" t="s">
-        <v>657</v>
+        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -3902,7 +3891,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>260</v>
+        <v>259</v>
       </c>
       <c r="C1" s="62"/>
       <c r="D1" s="62"/>
@@ -3912,7 +3901,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>304</v>
+        <v>303</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3920,7 +3909,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>729</v>
+        <v>728</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3928,12 +3917,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>734</v>
+        <v>733</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>730</v>
+        <v>729</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3944,7 +3933,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>731</v>
+        <v>730</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3952,7 +3941,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>732</v>
+        <v>731</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3960,7 +3949,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>733</v>
+        <v>732</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3971,7 +3960,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>735</v>
+        <v>734</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3979,7 +3968,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>736</v>
+        <v>735</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3987,7 +3976,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>737</v>
+        <v>736</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3998,7 +3987,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>738</v>
+        <v>737</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4009,7 +3998,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>256</v>
+        <v>255</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4017,7 +4006,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>220</v>
+        <v>219</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4033,7 +4022,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>221</v>
+        <v>220</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4041,7 +4030,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>222</v>
+        <v>221</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4065,7 +4054,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>223</v>
+        <v>222</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4073,7 +4062,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>224</v>
+        <v>223</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4081,7 +4070,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>225</v>
+        <v>224</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4097,7 +4086,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>226</v>
+        <v>225</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4121,7 +4110,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>227</v>
+        <v>226</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4129,7 +4118,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>228</v>
+        <v>227</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4137,7 +4126,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>229</v>
+        <v>228</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4145,7 +4134,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>230</v>
+        <v>229</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4153,7 +4142,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>231</v>
+        <v>230</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4161,7 +4150,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>232</v>
+        <v>231</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4201,7 +4190,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>265</v>
+        <v>264</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4209,7 +4198,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>233</v>
+        <v>232</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4241,7 +4230,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>234</v>
+        <v>233</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4249,7 +4238,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>266</v>
+        <v>265</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4257,7 +4246,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>235</v>
+        <v>234</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4265,7 +4254,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>236</v>
+        <v>235</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4281,7 +4270,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>237</v>
+        <v>236</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4289,7 +4278,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>238</v>
+        <v>237</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4297,7 +4286,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>239</v>
+        <v>238</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4305,7 +4294,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>240</v>
+        <v>239</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4313,7 +4302,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>241</v>
+        <v>240</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4321,7 +4310,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>242</v>
+        <v>241</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4329,7 +4318,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>243</v>
+        <v>242</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4337,7 +4326,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>244</v>
+        <v>243</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4345,7 +4334,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>245</v>
+        <v>244</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4353,7 +4342,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>246</v>
+        <v>245</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4361,7 +4350,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>247</v>
+        <v>246</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4369,7 +4358,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>248</v>
+        <v>247</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4377,7 +4366,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>249</v>
+        <v>248</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4385,7 +4374,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>250</v>
+        <v>249</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4393,7 +4382,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>251</v>
+        <v>250</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4401,7 +4390,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>252</v>
+        <v>251</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4409,7 +4398,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>253</v>
+        <v>252</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4417,7 +4406,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>254</v>
+        <v>253</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4425,7 +4414,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>267</v>
+        <v>266</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4433,7 +4422,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>255</v>
+        <v>254</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -4441,7 +4430,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>268</v>
+        <v>267</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4449,7 +4438,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>257</v>
+        <v>256</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4457,7 +4446,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4465,7 +4454,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -4473,7 +4462,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -4481,7 +4470,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -4489,7 +4478,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>258</v>
+        <v>257</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4497,7 +4486,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>259</v>
+        <v>258</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4505,7 +4494,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>269</v>
+        <v>268</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4513,7 +4502,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>270</v>
+        <v>269</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4521,7 +4510,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>271</v>
+        <v>270</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4529,7 +4518,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>272</v>
+        <v>271</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4537,7 +4526,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>273</v>
+        <v>272</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4545,7 +4534,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>274</v>
+        <v>273</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4553,7 +4542,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>275</v>
+        <v>274</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -4561,7 +4550,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>276</v>
+        <v>275</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4569,7 +4558,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>277</v>
+        <v>276</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4577,7 +4566,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>278</v>
+        <v>277</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4585,7 +4574,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>279</v>
+        <v>278</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4593,7 +4582,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>280</v>
+        <v>279</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4601,7 +4590,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>281</v>
+        <v>280</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4609,7 +4598,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>282</v>
+        <v>281</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4617,7 +4606,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>283</v>
+        <v>282</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4625,7 +4614,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>284</v>
+        <v>283</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -4633,7 +4622,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>285</v>
+        <v>284</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4641,7 +4630,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>286</v>
+        <v>285</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4649,7 +4638,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>287</v>
+        <v>286</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4657,7 +4646,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>288</v>
+        <v>287</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4673,7 +4662,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>289</v>
+        <v>288</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4681,7 +4670,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>290</v>
+        <v>289</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4689,7 +4678,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>291</v>
+        <v>290</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4697,7 +4686,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>292</v>
+        <v>291</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4705,7 +4694,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>293</v>
+        <v>292</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4713,7 +4702,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>294</v>
+        <v>293</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4721,7 +4710,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>295</v>
+        <v>294</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4729,7 +4718,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>296</v>
+        <v>295</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4737,7 +4726,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>297</v>
+        <v>296</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4745,7 +4734,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>298</v>
+        <v>297</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4753,7 +4742,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>299</v>
+        <v>298</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -4761,7 +4750,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>300</v>
+        <v>299</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -4769,7 +4758,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>301</v>
+        <v>300</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4777,7 +4766,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>302</v>
+        <v>301</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4785,7 +4774,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>303</v>
+        <v>302</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4793,7 +4782,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>305</v>
+        <v>304</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4801,7 +4790,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>306</v>
+        <v>305</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -4809,7 +4798,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>307</v>
+        <v>306</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4817,7 +4806,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>308</v>
+        <v>307</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4825,7 +4814,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>309</v>
+        <v>308</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4833,7 +4822,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>310</v>
+        <v>309</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4841,7 +4830,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>311</v>
+        <v>310</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4849,7 +4838,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>312</v>
+        <v>311</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -4857,7 +4846,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>313</v>
+        <v>312</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4865,7 +4854,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>314</v>
+        <v>313</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4873,7 +4862,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>315</v>
+        <v>314</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4881,7 +4870,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>316</v>
+        <v>315</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -4889,7 +4878,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>317</v>
+        <v>316</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -4897,7 +4886,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>318</v>
+        <v>317</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4905,7 +4894,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>319</v>
+        <v>318</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4913,7 +4902,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>320</v>
+        <v>319</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4921,7 +4910,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>321</v>
+        <v>320</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4929,7 +4918,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>322</v>
+        <v>321</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -4937,7 +4926,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>323</v>
+        <v>322</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4945,7 +4934,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>324</v>
+        <v>323</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4953,7 +4942,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>325</v>
+        <v>324</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -4961,7 +4950,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>326</v>
+        <v>325</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4969,7 +4958,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>327</v>
+        <v>326</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -4977,7 +4966,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>328</v>
+        <v>327</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -4985,7 +4974,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>329</v>
+        <v>328</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -4993,7 +4982,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>330</v>
+        <v>329</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -5001,7 +4990,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>331</v>
+        <v>330</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -5009,7 +4998,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>332</v>
+        <v>331</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -5017,7 +5006,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>333</v>
+        <v>332</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -5025,7 +5014,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>334</v>
+        <v>333</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -5033,7 +5022,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>335</v>
+        <v>334</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -5041,7 +5030,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>336</v>
+        <v>335</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -5049,7 +5038,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>337</v>
+        <v>336</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -5057,7 +5046,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>338</v>
+        <v>337</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -5065,7 +5054,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>339</v>
+        <v>338</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -5073,7 +5062,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>340</v>
+        <v>339</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -5081,7 +5070,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>341</v>
+        <v>340</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -5089,7 +5078,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>342</v>
+        <v>341</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5097,7 +5086,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>343</v>
+        <v>342</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -5105,7 +5094,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>344</v>
+        <v>343</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -5113,7 +5102,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>345</v>
+        <v>344</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -5121,7 +5110,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>346</v>
+        <v>345</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -5129,7 +5118,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>347</v>
+        <v>346</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -5137,7 +5126,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>348</v>
+        <v>347</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -5145,7 +5134,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>349</v>
+        <v>348</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -5153,7 +5142,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -5164,7 +5153,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>351</v>
+        <v>350</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -5172,7 +5161,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>352</v>
+        <v>351</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -5180,7 +5169,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>353</v>
+        <v>352</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -5188,7 +5177,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -5196,7 +5185,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -5204,7 +5193,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>356</v>
+        <v>355</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -5212,7 +5201,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>357</v>
+        <v>356</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -5220,7 +5209,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>358</v>
+        <v>357</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -5228,7 +5217,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>359</v>
+        <v>358</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -5236,7 +5225,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>360</v>
+        <v>359</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -5244,7 +5233,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>361</v>
+        <v>360</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -5252,7 +5241,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>362</v>
+        <v>361</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -5260,7 +5249,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>363</v>
+        <v>362</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -5268,7 +5257,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>364</v>
+        <v>363</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -5276,7 +5265,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>365</v>
+        <v>364</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -5284,7 +5273,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>366</v>
+        <v>365</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -5292,7 +5281,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>367</v>
+        <v>366</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -5300,7 +5289,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>368</v>
+        <v>367</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -5308,7 +5297,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>369</v>
+        <v>368</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -5316,7 +5305,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -5324,7 +5313,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>370</v>
+        <v>369</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -5332,7 +5321,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>371</v>
+        <v>370</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -5340,7 +5329,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>372</v>
+        <v>371</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -5348,7 +5337,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>373</v>
+        <v>372</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5356,7 +5345,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>374</v>
+        <v>373</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -5364,7 +5353,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>375</v>
+        <v>374</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -5372,7 +5361,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>376</v>
+        <v>375</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -5380,7 +5369,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>377</v>
+        <v>376</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -5388,7 +5377,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>378</v>
+        <v>377</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -5396,7 +5385,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>379</v>
+        <v>378</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5404,7 +5393,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>380</v>
+        <v>379</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -5412,7 +5401,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>381</v>
+        <v>380</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -5428,7 +5417,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>382</v>
+        <v>381</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5436,7 +5425,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>383</v>
+        <v>382</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5444,7 +5433,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>384</v>
+        <v>383</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -5452,7 +5441,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>385</v>
+        <v>384</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -5460,7 +5449,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>386</v>
+        <v>385</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -5468,7 +5457,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>387</v>
+        <v>386</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -5476,7 +5465,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>388</v>
+        <v>387</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -5484,7 +5473,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -5492,7 +5481,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>390</v>
+        <v>389</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -5500,7 +5489,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>391</v>
+        <v>390</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -5508,7 +5497,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -5516,7 +5505,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>393</v>
+        <v>392</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5524,7 +5513,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>394</v>
+        <v>393</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -5532,7 +5521,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>395</v>
+        <v>394</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -5540,7 +5529,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>396</v>
+        <v>395</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5548,7 +5537,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>397</v>
+        <v>396</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -5556,7 +5545,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>398</v>
+        <v>397</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5564,7 +5553,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>399</v>
+        <v>398</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5572,7 +5561,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>400</v>
+        <v>399</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -5580,7 +5569,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>401</v>
+        <v>400</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -5588,7 +5577,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>402</v>
+        <v>401</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -5596,7 +5585,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>403</v>
+        <v>402</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -5604,7 +5593,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>404</v>
+        <v>403</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -5612,7 +5601,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>405</v>
+        <v>404</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -5620,7 +5609,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>406</v>
+        <v>405</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -5628,7 +5617,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>407</v>
+        <v>406</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5636,7 +5625,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>408</v>
+        <v>407</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -5644,7 +5633,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>409</v>
+        <v>408</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -5652,7 +5641,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -5660,7 +5649,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>411</v>
+        <v>410</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -5668,7 +5657,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>412</v>
+        <v>411</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -5676,7 +5665,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -5684,7 +5673,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>414</v>
+        <v>413</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -5700,7 +5689,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>415</v>
+        <v>414</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -5708,7 +5697,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>416</v>
+        <v>415</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -5716,7 +5705,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>417</v>
+        <v>416</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5732,7 +5721,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>418</v>
+        <v>417</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -5740,7 +5729,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>426</v>
+        <v>425</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -5748,7 +5737,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>427</v>
+        <v>426</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -5756,7 +5745,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>428</v>
+        <v>427</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -5764,7 +5753,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>429</v>
+        <v>428</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5772,7 +5761,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -5780,7 +5769,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>431</v>
+        <v>430</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -5788,7 +5777,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -5796,7 +5785,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>433</v>
+        <v>432</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5804,7 +5793,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>434</v>
+        <v>433</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5812,7 +5801,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>435</v>
+        <v>434</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -5820,7 +5809,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>436</v>
+        <v>435</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -5828,7 +5817,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>437</v>
+        <v>436</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -5836,7 +5825,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>438</v>
+        <v>437</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -5844,7 +5833,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>439</v>
+        <v>438</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -5852,7 +5841,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>440</v>
+        <v>439</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -5863,7 +5852,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -5871,7 +5860,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>442</v>
+        <v>441</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -5879,7 +5868,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>443</v>
+        <v>442</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -5887,7 +5876,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>444</v>
+        <v>443</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -5895,7 +5884,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>445</v>
+        <v>444</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -5903,7 +5892,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>446</v>
+        <v>445</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -5911,7 +5900,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>447</v>
+        <v>446</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -5919,7 +5908,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>448</v>
+        <v>447</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -5927,7 +5916,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>449</v>
+        <v>448</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -5935,7 +5924,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>450</v>
+        <v>449</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -5943,7 +5932,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>451</v>
+        <v>450</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -5951,7 +5940,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>452</v>
+        <v>451</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -5959,7 +5948,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>453</v>
+        <v>452</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -5967,7 +5956,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>454</v>
+        <v>453</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -5975,7 +5964,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>455</v>
+        <v>454</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -5983,7 +5972,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>456</v>
+        <v>455</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -5991,7 +5980,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>457</v>
+        <v>456</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -5999,7 +5988,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>458</v>
+        <v>457</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -6007,7 +5996,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>459</v>
+        <v>458</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -6015,7 +6004,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>460</v>
+        <v>459</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -6023,7 +6012,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -6031,7 +6020,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -6039,7 +6028,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>463</v>
+        <v>462</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -6047,7 +6036,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>464</v>
+        <v>463</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -6055,7 +6044,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>465</v>
+        <v>464</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -6063,7 +6052,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>466</v>
+        <v>465</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -6071,7 +6060,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>467</v>
+        <v>466</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -6079,7 +6068,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>468</v>
+        <v>467</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -6087,7 +6076,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -6095,7 +6084,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>470</v>
+        <v>469</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -6103,7 +6092,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>471</v>
+        <v>470</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -6111,7 +6100,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>472</v>
+        <v>471</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -6119,7 +6108,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>473</v>
+        <v>472</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -6127,7 +6116,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>474</v>
+        <v>473</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -6135,7 +6124,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>475</v>
+        <v>474</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -6143,7 +6132,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>419</v>
+        <v>418</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -6151,7 +6140,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>420</v>
+        <v>419</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -6159,7 +6148,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>421</v>
+        <v>420</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -6167,7 +6156,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>422</v>
+        <v>421</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -6175,7 +6164,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>423</v>
+        <v>422</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -6183,7 +6172,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>424</v>
+        <v>423</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -6191,7 +6180,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>476</v>
+        <v>475</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -6199,7 +6188,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>477</v>
+        <v>476</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -6207,7 +6196,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>478</v>
+        <v>477</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -6215,7 +6204,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>479</v>
+        <v>478</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -6223,7 +6212,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>480</v>
+        <v>479</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -6231,7 +6220,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>481</v>
+        <v>480</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -6239,7 +6228,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>482</v>
+        <v>481</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -6247,7 +6236,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>483</v>
+        <v>482</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -6255,7 +6244,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>484</v>
+        <v>483</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -6263,7 +6252,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>485</v>
+        <v>484</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -6271,7 +6260,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>486</v>
+        <v>485</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -6279,7 +6268,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>487</v>
+        <v>486</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -6295,7 +6284,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>488</v>
+        <v>487</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -6303,7 +6292,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>489</v>
+        <v>488</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -6311,7 +6300,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>490</v>
+        <v>489</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -6319,7 +6308,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>491</v>
+        <v>490</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -6327,7 +6316,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>492</v>
+        <v>491</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -6335,7 +6324,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>493</v>
+        <v>492</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -6343,7 +6332,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>494</v>
+        <v>493</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -6351,7 +6340,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>495</v>
+        <v>494</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -6359,7 +6348,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6367,7 +6356,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -6375,7 +6364,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>498</v>
+        <v>497</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -6383,7 +6372,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -6391,7 +6380,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -6399,7 +6388,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>501</v>
+        <v>500</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -6407,7 +6396,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -6415,7 +6404,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -6423,7 +6412,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>504</v>
+        <v>503</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -6431,7 +6420,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>505</v>
+        <v>504</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -6439,7 +6428,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -6447,7 +6436,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>507</v>
+        <v>506</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -6455,7 +6444,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>508</v>
+        <v>507</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -6463,7 +6452,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>509</v>
+        <v>508</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -6471,7 +6460,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>510</v>
+        <v>509</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -6479,7 +6468,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>511</v>
+        <v>510</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -6495,7 +6484,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>512</v>
+        <v>511</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -6503,7 +6492,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>513</v>
+        <v>512</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -6511,7 +6500,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>514</v>
+        <v>513</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -6519,7 +6508,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>515</v>
+        <v>514</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -6530,7 +6519,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>516</v>
+        <v>515</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -6538,7 +6527,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>517</v>
+        <v>516</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -6546,7 +6535,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>518</v>
+        <v>517</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -6557,7 +6546,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>519</v>
+        <v>518</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -6565,7 +6554,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>520</v>
+        <v>519</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -6573,7 +6562,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>521</v>
+        <v>520</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -6581,7 +6570,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>522</v>
+        <v>521</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -6589,7 +6578,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>523</v>
+        <v>522</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -6597,7 +6586,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>524</v>
+        <v>523</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -6605,7 +6594,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>525</v>
+        <v>524</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -6613,7 +6602,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>526</v>
+        <v>525</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -6621,7 +6610,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>527</v>
+        <v>526</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -6629,7 +6618,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>528</v>
+        <v>527</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -6637,7 +6626,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>529</v>
+        <v>528</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -6645,7 +6634,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>530</v>
+        <v>529</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -6653,7 +6642,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>531</v>
+        <v>530</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -6661,7 +6650,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>532</v>
+        <v>531</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -6677,7 +6666,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>533</v>
+        <v>532</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -6685,7 +6674,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>534</v>
+        <v>533</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -6693,7 +6682,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>535</v>
+        <v>534</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -6701,7 +6690,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>536</v>
+        <v>535</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -6717,7 +6706,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>537</v>
+        <v>536</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -6733,7 +6722,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>538</v>
+        <v>537</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -6741,7 +6730,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>539</v>
+        <v>538</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -6749,7 +6738,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>540</v>
+        <v>539</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -6757,7 +6746,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>541</v>
+        <v>540</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -6773,7 +6762,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>542</v>
+        <v>541</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -6781,7 +6770,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>543</v>
+        <v>542</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -6789,7 +6778,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>544</v>
+        <v>543</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -6797,7 +6786,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>545</v>
+        <v>544</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -6805,7 +6794,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>546</v>
+        <v>545</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -6813,7 +6802,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>547</v>
+        <v>546</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -6821,7 +6810,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>548</v>
+        <v>547</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -6829,7 +6818,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>549</v>
+        <v>548</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -6837,7 +6826,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>550</v>
+        <v>549</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -6845,7 +6834,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>551</v>
+        <v>550</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -6853,7 +6842,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>552</v>
+        <v>551</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -6861,7 +6850,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>553</v>
+        <v>552</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -6885,7 +6874,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>554</v>
+        <v>553</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -6893,7 +6882,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>555</v>
+        <v>554</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -6901,7 +6890,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>557</v>
+        <v>556</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -6909,7 +6898,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>558</v>
+        <v>557</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -6917,7 +6906,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>559</v>
+        <v>558</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -6925,7 +6914,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>560</v>
+        <v>559</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -6933,7 +6922,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>561</v>
+        <v>560</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -6941,7 +6930,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>562</v>
+        <v>561</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -6949,7 +6938,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>563</v>
+        <v>562</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -6957,7 +6946,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>564</v>
+        <v>563</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -6968,7 +6957,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>565</v>
+        <v>564</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -6976,7 +6965,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>566</v>
+        <v>565</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -6984,7 +6973,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>567</v>
+        <v>566</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -6992,7 +6981,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>568</v>
+        <v>567</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -7000,7 +6989,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>569</v>
+        <v>568</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -7008,7 +6997,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>570</v>
+        <v>569</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -7016,7 +7005,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>578</v>
+        <v>577</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -7024,7 +7013,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>579</v>
+        <v>578</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -7032,7 +7021,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>580</v>
+        <v>579</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -7040,7 +7029,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>581</v>
+        <v>580</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -7048,7 +7037,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>582</v>
+        <v>581</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -7072,7 +7061,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>586</v>
+        <v>585</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -7080,7 +7069,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>587</v>
+        <v>586</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -7088,7 +7077,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>588</v>
+        <v>587</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -7096,7 +7085,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>589</v>
+        <v>588</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -7104,7 +7093,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>590</v>
+        <v>589</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -7112,7 +7101,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>591</v>
+        <v>590</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -7120,7 +7109,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>592</v>
+        <v>591</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -7128,7 +7117,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>593</v>
+        <v>592</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -7136,7 +7125,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>594</v>
+        <v>593</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -7144,7 +7133,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>595</v>
+        <v>594</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -7152,7 +7141,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>596</v>
+        <v>595</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -7160,7 +7149,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>597</v>
+        <v>596</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -7168,7 +7157,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>598</v>
+        <v>597</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -7176,7 +7165,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>599</v>
+        <v>598</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -7184,7 +7173,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>600</v>
+        <v>599</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -7192,7 +7181,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>601</v>
+        <v>600</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -7200,7 +7189,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>602</v>
+        <v>601</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -7208,7 +7197,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>603</v>
+        <v>602</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -7216,7 +7205,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>604</v>
+        <v>603</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -7224,7 +7213,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>605</v>
+        <v>604</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -7232,7 +7221,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>606</v>
+        <v>605</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -7240,7 +7229,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>607</v>
+        <v>606</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -7248,7 +7237,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>608</v>
+        <v>607</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -7256,7 +7245,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>609</v>
+        <v>608</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -7264,7 +7253,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>610</v>
+        <v>609</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -7272,7 +7261,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>611</v>
+        <v>610</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -7280,7 +7269,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>612</v>
+        <v>611</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -7288,7 +7277,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>613</v>
+        <v>612</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -7296,7 +7285,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>614</v>
+        <v>613</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -7304,7 +7293,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>615</v>
+        <v>614</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -7312,7 +7301,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>616</v>
+        <v>615</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -7320,7 +7309,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>617</v>
+        <v>616</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -7328,7 +7317,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>618</v>
+        <v>617</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -7336,7 +7325,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>619</v>
+        <v>618</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -7344,7 +7333,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>620</v>
+        <v>619</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -7352,7 +7341,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>621</v>
+        <v>620</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -7360,7 +7349,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>622</v>
+        <v>621</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -7368,7 +7357,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>623</v>
+        <v>622</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -7376,7 +7365,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>624</v>
+        <v>623</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -7384,7 +7373,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>625</v>
+        <v>624</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -7392,7 +7381,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>626</v>
+        <v>625</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -7400,7 +7389,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>627</v>
+        <v>626</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -7408,7 +7397,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>628</v>
+        <v>627</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -7416,7 +7405,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>629</v>
+        <v>628</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -7424,7 +7413,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>630</v>
+        <v>629</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -7432,7 +7421,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>631</v>
+        <v>630</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -7440,7 +7429,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>632</v>
+        <v>631</v>
       </c>
       <c r="B441">
         <v>0</v>
@@ -7448,7 +7437,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>633</v>
+        <v>632</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -7456,7 +7445,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>634</v>
+        <v>633</v>
       </c>
       <c r="B443">
         <v>0</v>
@@ -7464,7 +7453,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>635</v>
+        <v>634</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -7493,27 +7482,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>97</v>
+        <v>96</v>
       </c>
     </row>
   </sheetData>
@@ -7543,469 +7532,469 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
       <c r="C1" s="16" t="s">
+        <v>122</v>
+      </c>
+      <c r="D1" s="17" t="s">
         <v>123</v>
       </c>
-      <c r="D1" s="17" t="s">
-        <v>124</v>
-      </c>
       <c r="E1" s="30" t="s">
-        <v>192</v>
+        <v>191</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
-        <v>180</v>
+        <v>179</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>672</v>
+        <v>671</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>181</v>
+        <v>180</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>673</v>
+        <v>672</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
-        <v>117</v>
+        <v>116</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>674</v>
+        <v>673</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>176</v>
+        <v>175</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>675</v>
+        <v>674</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
-        <v>178</v>
+        <v>177</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>676</v>
+        <v>675</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
-        <v>177</v>
+        <v>176</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>677</v>
+        <v>676</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
-        <v>121</v>
+        <v>120</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>678</v>
+        <v>677</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>120</v>
+        <v>119</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>679</v>
+        <v>678</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
-        <v>122</v>
+        <v>121</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>680</v>
+        <v>679</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
-        <v>129</v>
+        <v>128</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>681</v>
+        <v>680</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
-        <v>125</v>
+        <v>124</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>682</v>
+        <v>681</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>198</v>
+        <v>197</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>683</v>
+        <v>682</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
-        <v>184</v>
+        <v>183</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>684</v>
+        <v>683</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>185</v>
+        <v>184</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>685</v>
+        <v>684</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
-        <v>186</v>
+        <v>185</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>686</v>
+        <v>685</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
-        <v>702</v>
+        <v>701</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>705</v>
+        <v>704</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
+        <v>688</v>
+      </c>
+      <c r="B18" s="49" t="s">
         <v>689</v>
       </c>
-      <c r="B18" s="49" t="s">
-        <v>690</v>
-      </c>
       <c r="C18" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
-        <v>182</v>
+        <v>181</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>692</v>
+        <v>691</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
-        <v>644</v>
+        <v>643</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>687</v>
+        <v>686</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
+        <v>657</v>
+      </c>
+      <c r="B21" s="29" t="s">
         <v>658</v>
       </c>
-      <c r="B21" s="29" t="s">
-        <v>659</v>
-      </c>
       <c r="C21" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>183</v>
+        <v>182</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>693</v>
+        <v>692</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>188</v>
+        <v>187</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>694</v>
+        <v>693</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>189</v>
+        <v>188</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>695</v>
+        <v>694</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
-        <v>190</v>
+        <v>189</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>696</v>
+        <v>695</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>140</v>
+        <v>139</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>697</v>
+        <v>696</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
-        <v>118</v>
+        <v>117</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>698</v>
+        <v>697</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
-        <v>119</v>
+        <v>118</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>699</v>
+        <v>698</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="s">
+        <v>709</v>
+      </c>
+      <c r="B29" s="50" t="s">
         <v>710</v>
       </c>
-      <c r="B29" s="50" t="s">
-        <v>711</v>
-      </c>
       <c r="C29" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
-        <v>714</v>
+        <v>713</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>713</v>
+        <v>712</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="s">
+        <v>714</v>
+      </c>
+      <c r="B31" s="50" t="s">
         <v>715</v>
       </c>
-      <c r="B31" s="50" t="s">
-        <v>716</v>
-      </c>
       <c r="C31" s="50" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>669</v>
+        <v>668</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>649</v>
+        <v>648</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>670</v>
+        <v>669</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
-        <v>199</v>
+        <v>198</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>742</v>
+        <v>741</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
-        <v>200</v>
+        <v>199</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>700</v>
+        <v>699</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
-        <v>712</v>
+        <v>711</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>701</v>
+        <v>700</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
+        <v>193</v>
+      </c>
+      <c r="B37" s="32" t="s">
         <v>194</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>195</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="36" t="s">
+        <v>147</v>
+      </c>
+      <c r="B38" s="36" t="s">
         <v>148</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>149</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
+        <v>707</v>
+      </c>
+      <c r="B39" s="36" t="s">
         <v>708</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>709</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
-        <v>688</v>
+        <v>687</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>691</v>
+        <v>690</v>
       </c>
     </row>
   </sheetData>
@@ -8033,186 +8022,186 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>583</v>
+        <v>582</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>643</v>
+        <v>642</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>648</v>
+        <v>647</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>155</v>
+        <v>154</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>163</v>
+        <v>162</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>159</v>
+        <v>158</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>164</v>
+        <v>163</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>574</v>
+        <v>573</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>576</v>
+        <v>575</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>218</v>
+        <v>217</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>216</v>
+        <v>215</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>157</v>
+        <v>156</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
-        <v>151</v>
+        <v>150</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>165</v>
+        <v>164</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
+        <v>659</v>
+      </c>
+      <c r="B9" s="42" t="s">
         <v>660</v>
       </c>
-      <c r="B9" s="42" t="s">
-        <v>661</v>
-      </c>
       <c r="C9" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
-        <v>572</v>
+        <v>571</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>219</v>
+        <v>218</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>213</v>
+        <v>212</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>158</v>
+        <v>157</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
-        <v>212</v>
+        <v>211</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>214</v>
+        <v>213</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
+        <v>661</v>
+      </c>
+      <c r="B14" s="35" t="s">
         <v>662</v>
       </c>
-      <c r="B14" s="35" t="s">
-        <v>663</v>
-      </c>
       <c r="C14" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>573</v>
+        <v>572</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>575</v>
+        <v>574</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
-        <v>211</v>
+        <v>210</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>215</v>
+        <v>214</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>217</v>
+        <v>216</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>154</v>
+        <v>153</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>556</v>
+        <v>555</v>
       </c>
     </row>
   </sheetData>
@@ -8255,7 +8244,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>205</v>
+        <v>204</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8295,7 +8284,7 @@
         <v>12</v>
       </c>
       <c r="B8" s="2" t="s">
-        <v>204</v>
+        <v>203</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
@@ -8351,7 +8340,7 @@
         <v>25</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>203</v>
+        <v>202</v>
       </c>
     </row>
     <row r="16" spans="1:2" x14ac:dyDescent="0.3">
@@ -8468,42 +8457,42 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
+        <v>130</v>
+      </c>
+      <c r="B30" s="18" t="s">
         <v>131</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>132</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" s="20" t="s">
-        <v>133</v>
+        <v>132</v>
       </c>
       <c r="B31" s="19" t="s">
-        <v>209</v>
+        <v>208</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>134</v>
+        <v>133</v>
       </c>
       <c r="B32" s="18" t="s">
-        <v>208</v>
+        <v>207</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="20" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="B33" s="19" t="s">
-        <v>206</v>
+        <v>205</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>202</v>
+        <v>201</v>
       </c>
       <c r="B34" s="18" t="s">
-        <v>207</v>
+        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -8531,37 +8520,37 @@
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>108</v>
+        <v>107</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>109</v>
+        <v>108</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>110</v>
+        <v>109</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>111</v>
+        <v>110</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
@@ -8571,12 +8560,12 @@
     </row>
     <row r="10" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>196</v>
+        <v>195</v>
       </c>
     </row>
     <row r="11" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>197</v>
+        <v>196</v>
       </c>
     </row>
   </sheetData>
@@ -8625,20 +8614,20 @@
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>64</v>
+      </c>
+      <c r="B2" t="s">
         <v>65</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>66</v>
-      </c>
-      <c r="C2" t="s">
-        <v>67</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">

--- a/UnitTest/test_config.xlsx
+++ b/UnitTest/test_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\UnitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6730CAA5-97AE-4C0C-935E-9607DE1E8475}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AE9CE0-8A23-4673-BEBB-EDF434381318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="20964" yWindow="3816" windowWidth="22344" windowHeight="12660" firstSheet="5" activeTab="6" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="880" uniqueCount="745">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="749">
   <si>
     <t>Название</t>
   </si>
@@ -71,9 +71,6 @@
   </si>
   <si>
     <t>Проф деят</t>
-  </si>
-  <si>
-    <t>Теория и практика  эффективного речевого общения</t>
   </si>
   <si>
     <t>Эффектив реч общ</t>
@@ -371,15 +368,6 @@
   </si>
   <si>
     <t>Технологическая (проектно-технологическая) практика</t>
-  </si>
-  <si>
-    <t>Модуль 1. Производственно-технологический</t>
-  </si>
-  <si>
-    <t>Модуль 2. Организационно-управленческий</t>
-  </si>
-  <si>
-    <t>Выполнение и защита выпускной квалификационной работы (Final certification)</t>
   </si>
   <si>
     <t>Если у предмета несколько групп компетенций, учитывать пересечение дважды (для 100% суммы)</t>
@@ -550,9 +538,6 @@
     <t>Competence</t>
   </si>
   <si>
-    <t>Указание подстроки, для определения основной дисциплины, дисциплины по выбору или факультатива (если не опознано, то считается основной дисциплиной по умолчанию)</t>
-  </si>
-  <si>
     <t>Определение вида дисциплины</t>
   </si>
   <si>
@@ -640,9 +625,6 @@
     <t>comp</t>
   </si>
   <si>
-    <t>Технологическая (проектно-технологическая) практика (Field Internship II)</t>
-  </si>
-  <si>
     <t>Командный проект по разработке программного обеспечения</t>
   </si>
   <si>
@@ -2288,6 +2270,36 @@
   </si>
   <si>
     <t>10 * (L + R) * K</t>
+  </si>
+  <si>
+    <t>Указание подстроки, для определения основной дисциплины, дисциплины по выбору или факультатива (если не опознано, то считается основной дисциплиной по умолчанию, если есть оба тега, то берется тот, что встретился первее)</t>
+  </si>
+  <si>
+    <t>Название (только прописные буквы и без первого символа)</t>
+  </si>
+  <si>
+    <t>ащита выпускной квалификационной работы</t>
+  </si>
+  <si>
+    <t>реддипломная</t>
+  </si>
+  <si>
+    <t>ехнологическая (проектно-технологическая) практика</t>
+  </si>
+  <si>
+    <t>роизводственно-технологический</t>
+  </si>
+  <si>
+    <t>рганизационно-управленческий</t>
+  </si>
+  <si>
+    <t>рикладная физическая культура и спорт</t>
+  </si>
+  <si>
+    <t>омандный проект по разработке программного обеспечения</t>
+  </si>
+  <si>
+    <t>дача государственного экзамена</t>
   </si>
 </sst>
 </file>
@@ -2674,15 +2686,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
     </xf>
@@ -2692,8 +2695,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -3025,8 +3037,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J79"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A55" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="D79" sqref="D79"/>
+    <sheetView zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A25" sqref="A25:D29"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3038,344 +3050,344 @@
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" s="8" t="s">
+        <v>81</v>
+      </c>
+      <c r="B1" s="55" t="s">
         <v>82</v>
       </c>
-      <c r="B1" s="58" t="s">
-        <v>83</v>
-      </c>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
-      <c r="F1" s="58"/>
-      <c r="G1" s="58"/>
-      <c r="H1" s="58"/>
-      <c r="I1" s="58"/>
-      <c r="J1" s="58"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
+      <c r="F1" s="55"/>
+      <c r="G1" s="55"/>
+      <c r="H1" s="55"/>
+      <c r="I1" s="55"/>
+      <c r="J1" s="55"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="59" t="s">
+      <c r="A2" s="58" t="s">
+        <v>53</v>
+      </c>
+      <c r="B2" t="s">
         <v>54</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>55</v>
       </c>
-      <c r="C2" t="s">
+      <c r="D2" t="s">
         <v>56</v>
       </c>
-      <c r="D2" t="s">
+      <c r="E2" t="s">
+        <v>638</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
+      <c r="A3" s="58"/>
+      <c r="B3" s="9" t="s">
         <v>57</v>
       </c>
-      <c r="E2" t="s">
-        <v>644</v>
-      </c>
-    </row>
-    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="59"/>
-      <c r="B3" s="9" t="s">
+      <c r="C3" s="9" t="s">
         <v>58</v>
       </c>
-      <c r="C3" s="9" t="s">
+      <c r="D3" s="9" t="s">
         <v>59</v>
       </c>
-      <c r="D3" s="9" t="s">
-        <v>60</v>
-      </c>
       <c r="E3" s="9" t="s">
-        <v>645</v>
+        <v>639</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="15" t="s">
-        <v>72</v>
+        <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="24" t="s">
-        <v>89</v>
+        <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="24" t="s">
-        <v>161</v>
+        <v>157</v>
       </c>
       <c r="B6" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="15" t="s">
-        <v>209</v>
+        <v>203</v>
       </c>
       <c r="B7" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="55" t="s">
-        <v>111</v>
+      <c r="A8" s="59" t="s">
+        <v>107</v>
       </c>
       <c r="B8" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C8" s="21"/>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="55"/>
+      <c r="A9" s="59"/>
       <c r="B9" s="21" t="s">
-        <v>134</v>
+        <v>130</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="55" t="s">
-        <v>159</v>
+      <c r="A10" s="59" t="s">
+        <v>155</v>
       </c>
       <c r="B10" s="27" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="55"/>
+      <c r="A11" s="59"/>
       <c r="B11" s="21" t="s">
-        <v>160</v>
+        <v>156</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="55" t="s">
-        <v>127</v>
+      <c r="A12" s="59" t="s">
+        <v>123</v>
       </c>
       <c r="B12" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="55"/>
+      <c r="A13" s="59"/>
       <c r="B13" s="9" t="s">
-        <v>635</v>
+        <v>629</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="15" t="s">
-        <v>138</v>
+        <v>134</v>
       </c>
       <c r="B14" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="15" t="s">
-        <v>78</v>
+        <v>77</v>
       </c>
       <c r="B15" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="15" t="s">
-        <v>76</v>
+        <v>75</v>
       </c>
       <c r="B16" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A17" s="15" t="s">
-        <v>665</v>
+        <v>659</v>
       </c>
       <c r="B17" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="18" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>740</v>
+        <v>734</v>
       </c>
       <c r="B18" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A19" s="15" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="B19" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A20" s="15" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="B20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="15" t="s">
-        <v>636</v>
+        <v>630</v>
       </c>
       <c r="B21" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="15" t="s">
-        <v>703</v>
+        <v>697</v>
       </c>
       <c r="B22" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="55" t="s">
-        <v>637</v>
+      <c r="A23" s="59" t="s">
+        <v>631</v>
       </c>
       <c r="B23" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="C23" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="55"/>
+      <c r="A24" s="59"/>
       <c r="B24" s="9" t="s">
-        <v>638</v>
+        <v>632</v>
       </c>
       <c r="C24" s="9" t="s">
-        <v>641</v>
+        <v>635</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="55" t="s">
-        <v>174</v>
+      <c r="A25" s="59" t="s">
+        <v>169</v>
       </c>
       <c r="B25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="C25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D25" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="55"/>
+      <c r="A26" s="59"/>
       <c r="B26" s="9" t="s">
-        <v>639</v>
+        <v>633</v>
       </c>
       <c r="C26" s="9" t="s">
-        <v>640</v>
+        <v>634</v>
       </c>
       <c r="D26" s="9" t="s">
-        <v>742</v>
+        <v>736</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="55" t="s">
+      <c r="A27" s="59" t="s">
+        <v>161</v>
+      </c>
+      <c r="B27" t="s">
         <v>166</v>
       </c>
-      <c r="B27" t="s">
-        <v>170</v>
-      </c>
       <c r="C27" t="s">
-        <v>169</v>
+        <v>165</v>
       </c>
       <c r="D27" t="s">
-        <v>171</v>
+        <v>164</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="55"/>
+      <c r="A28" s="59"/>
       <c r="B28" s="9" t="s">
         <v>167</v>
       </c>
       <c r="C28" s="9" t="s">
-        <v>168</v>
+        <v>162</v>
       </c>
       <c r="D28" s="9" t="s">
-        <v>172</v>
+        <v>163</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="55"/>
+      <c r="A29" s="59"/>
       <c r="B29" s="9" t="s">
-        <v>165</v>
+        <v>739</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="55" t="s">
+      <c r="A30" s="59" t="s">
+        <v>173</v>
+      </c>
+      <c r="B30" s="23" t="s">
         <v>178</v>
       </c>
-      <c r="B30" s="23" t="s">
-        <v>183</v>
-      </c>
       <c r="C30" s="23" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="D30" s="23" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="55"/>
+      <c r="A31" s="59"/>
       <c r="B31" s="9" t="s">
-        <v>186</v>
+        <v>181</v>
       </c>
       <c r="C31" s="9"/>
       <c r="D31" s="9"/>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="53" t="s">
-        <v>75</v>
-      </c>
-      <c r="B32" s="54"/>
-      <c r="C32" s="54"/>
+      <c r="A32" s="56" t="s">
+        <v>74</v>
+      </c>
+      <c r="B32" s="57"/>
+      <c r="C32" s="57"/>
     </row>
     <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="53" t="s">
-        <v>77</v>
-      </c>
-      <c r="B33" s="54"/>
-      <c r="C33" s="54"/>
+      <c r="A33" s="56" t="s">
+        <v>76</v>
+      </c>
+      <c r="B33" s="57"/>
+      <c r="C33" s="57"/>
     </row>
     <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="55" t="s">
-        <v>144</v>
+      <c r="A34" s="59" t="s">
+        <v>140</v>
       </c>
       <c r="B34" t="s">
-        <v>738</v>
+        <v>732</v>
       </c>
     </row>
     <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="55"/>
+      <c r="A35" s="59"/>
       <c r="B35" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="55" t="s">
-        <v>145</v>
+      <c r="A36" s="59" t="s">
+        <v>141</v>
       </c>
       <c r="B36" t="s">
-        <v>739</v>
+        <v>733</v>
       </c>
     </row>
     <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="55"/>
+      <c r="A37" s="59"/>
       <c r="B37" s="9" t="s">
-        <v>74</v>
+        <v>73</v>
       </c>
     </row>
     <row r="38" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A38" s="33" t="s">
-        <v>263</v>
+        <v>257</v>
       </c>
       <c r="B38" s="5">
         <v>2</v>
@@ -3383,7 +3395,7 @@
     </row>
     <row r="39" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A39" s="15" t="s">
-        <v>63</v>
+        <v>62</v>
       </c>
       <c r="B39" s="5">
         <v>15</v>
@@ -3391,91 +3403,91 @@
     </row>
     <row r="40" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A40" s="15" t="s">
+        <v>67</v>
+      </c>
+      <c r="B40" t="s">
         <v>68</v>
-      </c>
-      <c r="B40" t="s">
-        <v>69</v>
       </c>
     </row>
     <row r="41" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A41" s="15" t="s">
+        <v>69</v>
+      </c>
+      <c r="B41" t="s">
         <v>70</v>
-      </c>
-      <c r="B41" t="s">
-        <v>71</v>
       </c>
     </row>
     <row r="42" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A42" s="15" t="s">
-        <v>716</v>
+        <v>710</v>
       </c>
       <c r="B42" t="s">
-        <v>720</v>
+        <v>714</v>
       </c>
     </row>
     <row r="43" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A43" s="15" t="s">
-        <v>717</v>
+        <v>711</v>
       </c>
       <c r="B43" t="s">
-        <v>721</v>
+        <v>715</v>
       </c>
     </row>
     <row r="44" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A44" s="15" t="s">
-        <v>722</v>
+        <v>716</v>
       </c>
       <c r="B44" t="s">
-        <v>723</v>
+        <v>717</v>
       </c>
     </row>
     <row r="45" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A45" s="15" t="s">
-        <v>99</v>
+        <v>98</v>
       </c>
       <c r="B45" t="s">
-        <v>743</v>
+        <v>737</v>
       </c>
     </row>
     <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="55" t="s">
-        <v>141</v>
+      <c r="A46" s="59" t="s">
+        <v>137</v>
       </c>
       <c r="B46" t="s">
-        <v>155</v>
+        <v>151</v>
       </c>
       <c r="C46" t="s">
-        <v>667</v>
+        <v>661</v>
       </c>
     </row>
     <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="55"/>
+      <c r="A47" s="59"/>
       <c r="B47" s="9" t="s">
-        <v>140</v>
+        <v>136</v>
       </c>
       <c r="C47" s="9" t="s">
-        <v>666</v>
+        <v>660</v>
       </c>
     </row>
     <row r="48" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A48" s="22" t="s">
-        <v>142</v>
+        <v>138</v>
       </c>
       <c r="B48" s="23" t="s">
-        <v>143</v>
+        <v>139</v>
       </c>
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" s="51" t="s">
-        <v>727</v>
+        <v>721</v>
       </c>
       <c r="B49" s="23" t="s">
-        <v>726</v>
+        <v>720</v>
       </c>
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" s="15" t="s">
-        <v>81</v>
+        <v>80</v>
       </c>
       <c r="B50" s="5">
         <v>2</v>
@@ -3483,7 +3495,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" s="15" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="B51" s="5">
         <v>3</v>
@@ -3491,87 +3503,87 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" s="15" t="s">
-        <v>260</v>
+        <v>254</v>
       </c>
       <c r="B52" s="13" t="s">
-        <v>113</v>
+        <v>109</v>
       </c>
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" s="15" t="s">
-        <v>702</v>
+        <v>696</v>
       </c>
       <c r="B53" s="13" t="s">
-        <v>146</v>
+        <v>142</v>
       </c>
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" s="15" t="s">
-        <v>663</v>
+        <v>657</v>
       </c>
       <c r="B54" s="13" t="s">
-        <v>664</v>
+        <v>658</v>
       </c>
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" s="15" t="s">
-        <v>718</v>
+        <v>712</v>
       </c>
       <c r="B55" s="13" t="s">
-        <v>719</v>
+        <v>713</v>
       </c>
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B56" s="5" t="s">
         <v>90</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>91</v>
       </c>
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" s="15" t="s">
-        <v>151</v>
+        <v>147</v>
       </c>
       <c r="B57" s="5" t="s">
-        <v>152</v>
+        <v>148</v>
       </c>
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" s="15" t="s">
-        <v>103</v>
+        <v>102</v>
       </c>
       <c r="B58" s="5" t="s">
-        <v>102</v>
+        <v>101</v>
       </c>
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" s="15" t="s">
-        <v>114</v>
+        <v>110</v>
       </c>
       <c r="B59" s="5" t="s">
-        <v>115</v>
+        <v>111</v>
       </c>
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" s="15" t="s">
-        <v>190</v>
+        <v>185</v>
       </c>
       <c r="B60" s="5" t="s">
-        <v>86</v>
+        <v>85</v>
       </c>
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" s="15" t="s">
-        <v>261</v>
+        <v>255</v>
       </c>
       <c r="B61" s="5" t="s">
-        <v>262</v>
+        <v>256</v>
       </c>
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" s="15" t="s">
-        <v>670</v>
+        <v>664</v>
       </c>
       <c r="B62" s="52">
         <v>4</v>
@@ -3579,7 +3591,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" s="15" t="s">
-        <v>724</v>
+        <v>718</v>
       </c>
       <c r="B63" s="28">
         <v>0.05</v>
@@ -3587,7 +3599,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" s="15" t="s">
-        <v>192</v>
+        <v>187</v>
       </c>
       <c r="B64" s="5">
         <v>6</v>
@@ -3595,7 +3607,7 @@
     </row>
     <row r="65" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A65" s="15" t="s">
-        <v>93</v>
+        <v>92</v>
       </c>
       <c r="B65" s="5">
         <v>5</v>
@@ -3603,7 +3615,7 @@
     </row>
     <row r="66" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A66" s="15" t="s">
-        <v>98</v>
+        <v>97</v>
       </c>
       <c r="B66" s="28">
         <v>1E-3</v>
@@ -3611,7 +3623,7 @@
     </row>
     <row r="67" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A67" s="15" t="s">
-        <v>112</v>
+        <v>108</v>
       </c>
       <c r="B67" s="28">
         <v>1E-3</v>
@@ -3619,7 +3631,7 @@
     </row>
     <row r="68" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A68" s="15" t="s">
-        <v>725</v>
+        <v>719</v>
       </c>
       <c r="B68" s="28">
         <v>0.05</v>
@@ -3627,7 +3639,7 @@
     </row>
     <row r="69" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A69" s="15" t="s">
-        <v>173</v>
+        <v>168</v>
       </c>
       <c r="B69" s="13">
         <v>40</v>
@@ -3635,86 +3647,90 @@
     </row>
     <row r="70" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A70" s="60" t="s">
-        <v>126</v>
+        <v>122</v>
       </c>
       <c r="B70" s="60"/>
       <c r="C70" s="60"/>
     </row>
     <row r="71" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A71" s="15" t="s">
-        <v>125</v>
+        <v>121</v>
       </c>
       <c r="B71" s="13" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="72" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A72" s="15" t="s">
-        <v>62</v>
+        <v>61</v>
       </c>
       <c r="B72" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
     </row>
     <row r="73" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A73" s="15" t="s">
-        <v>61</v>
+        <v>60</v>
       </c>
       <c r="B73" t="s">
-        <v>129</v>
+        <v>125</v>
       </c>
     </row>
     <row r="74" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A74" s="15" t="s">
-        <v>136</v>
+        <v>132</v>
       </c>
       <c r="B74" t="s">
-        <v>137</v>
+        <v>133</v>
       </c>
     </row>
     <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="53" t="s">
-        <v>85</v>
-      </c>
-      <c r="B75" s="54"/>
-      <c r="C75" s="54"/>
+      <c r="A75" s="56" t="s">
+        <v>84</v>
+      </c>
+      <c r="B75" s="57"/>
+      <c r="C75" s="57"/>
     </row>
     <row r="76" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="56" t="s">
-        <v>135</v>
-      </c>
-      <c r="B76" s="56"/>
-      <c r="C76" s="56"/>
+      <c r="A76" s="53" t="s">
+        <v>131</v>
+      </c>
+      <c r="B76" s="53"/>
+      <c r="C76" s="53"/>
       <c r="D76" s="11"/>
       <c r="E76" s="11"/>
     </row>
     <row r="77" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="57" t="s">
-        <v>97</v>
-      </c>
-      <c r="B77" s="57"/>
-      <c r="C77" s="57"/>
+      <c r="A77" s="54" t="s">
+        <v>96</v>
+      </c>
+      <c r="B77" s="54"/>
+      <c r="C77" s="54"/>
       <c r="D77" s="11"/>
       <c r="E77" s="11"/>
     </row>
     <row r="78" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A78" s="15" t="s">
-        <v>705</v>
+        <v>699</v>
       </c>
       <c r="B78" s="14" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
     <row r="79" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A79" s="15" t="s">
-        <v>706</v>
+        <v>700</v>
       </c>
       <c r="B79" s="14" t="s">
-        <v>744</v>
+        <v>738</v>
       </c>
     </row>
   </sheetData>
   <mergeCells count="18">
+    <mergeCell ref="A12:A13"/>
+    <mergeCell ref="A23:A24"/>
+    <mergeCell ref="A76:C76"/>
+    <mergeCell ref="A77:C77"/>
     <mergeCell ref="B1:J1"/>
     <mergeCell ref="A75:C75"/>
     <mergeCell ref="A2:A3"/>
@@ -3729,10 +3745,6 @@
     <mergeCell ref="A30:A31"/>
     <mergeCell ref="A32:C32"/>
     <mergeCell ref="A33:C33"/>
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3754,12 +3766,12 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="10" t="s">
-        <v>84</v>
+        <v>83</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
     </row>
   </sheetData>
@@ -3782,29 +3794,29 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
-        <v>84</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
-      <c r="E1" s="58"/>
+      <c r="A1" s="55" t="s">
+        <v>83</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
+      <c r="E1" s="55"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>67</v>
+        <v>66</v>
       </c>
       <c r="B2" t="s">
-        <v>64</v>
+        <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="D2" t="s">
+        <v>78</v>
+      </c>
+      <c r="E2" t="s">
         <v>79</v>
-      </c>
-      <c r="E2" t="s">
-        <v>80</v>
       </c>
     </row>
   </sheetData>
@@ -3829,39 +3841,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="58" t="s">
-        <v>646</v>
-      </c>
-      <c r="B1" s="58"/>
-      <c r="C1" s="58"/>
-      <c r="D1" s="58"/>
+      <c r="A1" s="55" t="s">
+        <v>640</v>
+      </c>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
+      <c r="D1" s="55"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>643</v>
+      </c>
+      <c r="B2" t="s">
+        <v>645</v>
+      </c>
+      <c r="C2" s="35" t="s">
+        <v>647</v>
+      </c>
+      <c r="D2" s="35" t="s">
         <v>649</v>
-      </c>
-      <c r="B2" t="s">
-        <v>651</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>653</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>655</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
+        <v>644</v>
+      </c>
+      <c r="B3" t="s">
+        <v>646</v>
+      </c>
+      <c r="C3" s="35" t="s">
+        <v>648</v>
+      </c>
+      <c r="D3" s="35" t="s">
         <v>650</v>
-      </c>
-      <c r="B3" t="s">
-        <v>652</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>654</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>656</v>
       </c>
     </row>
   </sheetData>
@@ -3876,8 +3888,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB27DC44-D357-46E3-9C3E-84D17CC4B47E}">
   <dimension ref="A1:D444"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A5" sqref="A5:XFD5"/>
+    <sheetView topLeftCell="A40" workbookViewId="0">
+      <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3891,7 +3903,7 @@
         <v>0</v>
       </c>
       <c r="B1" s="61" t="s">
-        <v>259</v>
+        <v>253</v>
       </c>
       <c r="C1" s="62"/>
       <c r="D1" s="62"/>
@@ -3901,7 +3913,7 @@
         <v>0</v>
       </c>
       <c r="B2" s="40" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
@@ -3909,7 +3921,7 @@
         <v>1</v>
       </c>
       <c r="B3" s="40" t="s">
-        <v>728</v>
+        <v>722</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
@@ -3917,12 +3929,12 @@
         <v>2</v>
       </c>
       <c r="B4" s="40" t="s">
-        <v>733</v>
+        <v>727</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>729</v>
+        <v>723</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3933,7 +3945,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>730</v>
+        <v>724</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3941,7 +3953,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>731</v>
+        <v>725</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3949,7 +3961,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>732</v>
+        <v>726</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3960,7 +3972,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>734</v>
+        <v>728</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3968,7 +3980,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>735</v>
+        <v>729</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3976,7 +3988,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>736</v>
+        <v>730</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3987,7 +3999,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>737</v>
+        <v>731</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -3998,7 +4010,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>255</v>
+        <v>249</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4006,7 +4018,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>219</v>
+        <v>213</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4014,7 +4026,7 @@
     </row>
     <row r="16" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B16">
         <v>0</v>
@@ -4022,7 +4034,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>220</v>
+        <v>214</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4030,7 +4042,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>221</v>
+        <v>215</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4054,7 +4066,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>222</v>
+        <v>216</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4062,7 +4074,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>223</v>
+        <v>217</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4070,7 +4082,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>224</v>
+        <v>218</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4086,7 +4098,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>225</v>
+        <v>219</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4094,7 +4106,7 @@
     </row>
     <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
-        <v>12</v>
+        <v>11</v>
       </c>
       <c r="B26">
         <v>1</v>
@@ -4102,7 +4114,7 @@
     </row>
     <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
-        <v>11</v>
+        <v>10</v>
       </c>
       <c r="B27">
         <v>0</v>
@@ -4110,7 +4122,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>226</v>
+        <v>220</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4118,7 +4130,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>227</v>
+        <v>221</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4126,7 +4138,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>228</v>
+        <v>222</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4134,7 +4146,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>229</v>
+        <v>223</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4142,7 +4154,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>230</v>
+        <v>224</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4150,7 +4162,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>231</v>
+        <v>225</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4158,7 +4170,7 @@
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
-        <v>48</v>
+        <v>47</v>
       </c>
       <c r="B34">
         <v>1</v>
@@ -4166,7 +4178,7 @@
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B35">
         <v>1</v>
@@ -4174,7 +4186,7 @@
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
-        <v>25</v>
+        <v>24</v>
       </c>
       <c r="B36">
         <v>0</v>
@@ -4182,7 +4194,7 @@
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B37">
         <v>0</v>
@@ -4190,7 +4202,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>264</v>
+        <v>258</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4198,7 +4210,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>232</v>
+        <v>226</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4206,7 +4218,7 @@
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B40">
         <v>1</v>
@@ -4214,7 +4226,7 @@
     </row>
     <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B41">
         <v>1</v>
@@ -4222,7 +4234,7 @@
     </row>
     <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="B42">
         <v>1</v>
@@ -4230,7 +4242,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>233</v>
+        <v>227</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4238,7 +4250,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>265</v>
+        <v>259</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4246,7 +4258,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>234</v>
+        <v>228</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4254,7 +4266,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>235</v>
+        <v>229</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4262,7 +4274,7 @@
     </row>
     <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="B47">
         <v>1</v>
@@ -4270,7 +4282,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>236</v>
+        <v>230</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4278,7 +4290,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>237</v>
+        <v>231</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4286,7 +4298,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>238</v>
+        <v>232</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4294,7 +4306,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>239</v>
+        <v>233</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4302,7 +4314,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>240</v>
+        <v>234</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4310,7 +4322,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>241</v>
+        <v>235</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4318,7 +4330,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>242</v>
+        <v>236</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4326,7 +4338,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>243</v>
+        <v>237</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4334,7 +4346,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>244</v>
+        <v>238</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4342,7 +4354,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>245</v>
+        <v>239</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4350,7 +4362,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>246</v>
+        <v>240</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4358,7 +4370,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>247</v>
+        <v>241</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4366,7 +4378,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>248</v>
+        <v>242</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4374,7 +4386,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>249</v>
+        <v>243</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4382,7 +4394,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>250</v>
+        <v>244</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4390,7 +4402,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>251</v>
+        <v>245</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4398,7 +4410,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>252</v>
+        <v>246</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4406,7 +4418,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>253</v>
+        <v>247</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4414,7 +4426,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>266</v>
+        <v>260</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4422,7 +4434,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>254</v>
+        <v>248</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -4430,7 +4442,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>267</v>
+        <v>261</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4438,7 +4450,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>256</v>
+        <v>250</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4446,7 +4458,7 @@
     </row>
     <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
-        <v>107</v>
+        <v>106</v>
       </c>
       <c r="B70">
         <v>1</v>
@@ -4454,7 +4466,7 @@
     </row>
     <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
-        <v>106</v>
+        <v>105</v>
       </c>
       <c r="B71">
         <v>1</v>
@@ -4462,7 +4474,7 @@
     </row>
     <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
-        <v>105</v>
+        <v>104</v>
       </c>
       <c r="B72">
         <v>1</v>
@@ -4470,7 +4482,7 @@
     </row>
     <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
-        <v>104</v>
+        <v>103</v>
       </c>
       <c r="B73">
         <v>1</v>
@@ -4478,7 +4490,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>257</v>
+        <v>251</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4486,7 +4498,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>258</v>
+        <v>252</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4494,7 +4506,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>268</v>
+        <v>262</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4502,7 +4514,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>269</v>
+        <v>263</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4510,7 +4522,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>270</v>
+        <v>264</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4518,7 +4530,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4526,7 +4538,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4534,7 +4546,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4542,7 +4554,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -4550,7 +4562,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4558,7 +4570,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4566,7 +4578,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4574,7 +4586,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4582,7 +4594,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4590,7 +4602,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4598,7 +4610,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4606,7 +4618,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4614,7 +4626,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -4622,7 +4634,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4630,7 +4642,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4638,7 +4650,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4646,7 +4658,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4662,7 +4674,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4670,7 +4682,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4678,7 +4690,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4686,7 +4698,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4694,7 +4706,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4702,7 +4714,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4710,7 +4722,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4718,7 +4730,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4726,7 +4738,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4734,7 +4746,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4742,7 +4754,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -4750,7 +4762,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -4758,7 +4770,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4766,7 +4778,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4774,7 +4786,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4782,7 +4794,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4790,7 +4802,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -4798,7 +4810,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4806,7 +4818,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4814,7 +4826,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4822,7 +4834,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4830,7 +4842,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4838,7 +4850,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -4846,7 +4858,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4854,7 +4866,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4862,7 +4874,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4870,7 +4882,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -4878,7 +4890,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -4886,7 +4898,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4894,7 +4906,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4902,7 +4914,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4910,7 +4922,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4918,7 +4930,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -4926,7 +4938,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4934,7 +4946,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4942,7 +4954,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -4950,7 +4962,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4958,7 +4970,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -4966,7 +4978,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -4974,7 +4986,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -4982,7 +4994,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -4990,7 +5002,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -4998,7 +5010,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -5006,7 +5018,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -5014,7 +5026,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -5022,7 +5034,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -5030,7 +5042,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -5038,7 +5050,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -5046,7 +5058,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -5054,7 +5066,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -5062,7 +5074,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -5070,7 +5082,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -5078,7 +5090,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5086,7 +5098,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -5094,7 +5106,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -5102,7 +5114,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -5110,7 +5122,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -5118,7 +5130,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -5126,7 +5138,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -5134,7 +5146,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -5142,7 +5154,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -5153,7 +5165,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -5161,7 +5173,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -5169,7 +5181,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -5177,7 +5189,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -5185,7 +5197,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -5193,7 +5205,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -5201,7 +5213,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -5209,7 +5221,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -5217,7 +5229,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -5225,7 +5237,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -5233,7 +5245,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -5241,7 +5253,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -5249,7 +5261,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -5257,7 +5269,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -5265,7 +5277,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -5273,7 +5285,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -5281,7 +5293,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -5289,7 +5301,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -5297,7 +5309,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -5305,7 +5317,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>196</v>
+        <v>190</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -5313,7 +5325,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -5321,7 +5333,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -5329,7 +5341,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -5337,7 +5349,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5345,7 +5357,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -5353,7 +5365,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -5361,7 +5373,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -5369,7 +5381,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -5377,7 +5389,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -5385,7 +5397,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5393,7 +5405,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>379</v>
+        <v>373</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -5401,7 +5413,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>380</v>
+        <v>374</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -5409,7 +5421,7 @@
     </row>
     <row r="190" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A190" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B190">
         <v>0</v>
@@ -5417,7 +5429,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5425,7 +5437,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5433,7 +5445,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -5441,7 +5453,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -5449,7 +5461,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -5457,7 +5469,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -5465,7 +5477,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -5473,7 +5485,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -5481,7 +5493,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -5489,7 +5501,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -5497,7 +5509,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -5505,7 +5517,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5513,7 +5525,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -5521,7 +5533,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -5529,7 +5541,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5537,7 +5549,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -5545,7 +5557,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5553,7 +5565,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5561,7 +5573,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -5569,7 +5581,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -5577,7 +5589,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -5585,7 +5597,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -5593,7 +5605,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -5601,7 +5613,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -5609,7 +5621,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -5617,7 +5629,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5625,7 +5637,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -5633,7 +5645,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -5641,7 +5653,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -5649,7 +5661,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -5657,7 +5669,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -5665,7 +5677,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -5673,7 +5685,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -5681,7 +5693,7 @@
     </row>
     <row r="224" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A224" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B224">
         <v>1</v>
@@ -5689,7 +5701,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -5697,7 +5709,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -5705,7 +5717,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5713,7 +5725,7 @@
     </row>
     <row r="228" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A228" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="B228">
         <v>1</v>
@@ -5721,7 +5733,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -5729,7 +5741,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -5737,7 +5749,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -5745,7 +5757,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -5753,7 +5765,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5761,7 +5773,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -5769,7 +5781,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -5777,7 +5789,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -5785,7 +5797,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5793,7 +5805,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5801,7 +5813,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -5809,7 +5821,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -5817,7 +5829,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -5825,7 +5837,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -5833,7 +5845,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -5841,7 +5853,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -5852,7 +5864,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -5860,7 +5872,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -5868,7 +5880,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -5876,7 +5888,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -5884,7 +5896,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -5892,7 +5904,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -5900,7 +5912,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -5908,7 +5920,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -5916,7 +5928,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -5924,7 +5936,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -5932,7 +5944,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -5940,7 +5952,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -5948,7 +5960,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -5956,7 +5968,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -5964,7 +5976,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -5972,7 +5984,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -5980,7 +5992,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -5988,7 +6000,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -5996,7 +6008,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -6004,7 +6016,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -6012,7 +6024,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -6020,7 +6032,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -6028,7 +6040,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -6036,7 +6048,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -6044,7 +6056,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -6052,7 +6064,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -6060,7 +6072,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -6068,7 +6080,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -6076,7 +6088,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -6084,7 +6096,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -6092,7 +6104,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -6100,7 +6112,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -6108,7 +6120,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -6116,7 +6128,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -6124,7 +6136,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -6132,7 +6144,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -6140,7 +6152,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>419</v>
+        <v>413</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -6148,7 +6160,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>420</v>
+        <v>414</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -6156,7 +6168,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -6164,7 +6176,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -6172,7 +6184,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -6180,7 +6192,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -6188,7 +6200,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -6196,7 +6208,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -6204,7 +6216,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -6212,7 +6224,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -6220,7 +6232,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -6228,7 +6240,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -6236,7 +6248,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -6244,7 +6256,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -6252,7 +6264,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -6260,7 +6272,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -6268,7 +6280,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -6276,7 +6288,7 @@
     </row>
     <row r="298" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A298" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="B298">
         <v>1</v>
@@ -6284,7 +6296,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -6292,7 +6304,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -6300,7 +6312,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -6308,7 +6320,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -6316,7 +6328,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -6324,7 +6336,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -6332,7 +6344,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -6340,7 +6352,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -6348,7 +6360,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6356,7 +6368,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -6364,7 +6376,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -6372,7 +6384,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -6380,7 +6392,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -6388,7 +6400,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -6396,7 +6408,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -6404,7 +6416,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -6412,7 +6424,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -6420,7 +6432,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -6428,7 +6440,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -6436,7 +6448,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -6444,7 +6456,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -6452,7 +6464,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -6460,7 +6472,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -6468,7 +6480,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -6476,7 +6488,7 @@
     </row>
     <row r="323" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A323" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="B323">
         <v>1</v>
@@ -6484,7 +6496,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -6492,7 +6504,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -6500,7 +6512,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -6508,7 +6520,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -6519,7 +6531,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -6527,7 +6539,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -6535,7 +6547,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -6546,7 +6558,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -6554,7 +6566,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -6562,7 +6574,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -6570,7 +6582,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -6578,7 +6590,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -6586,7 +6598,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -6594,7 +6606,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -6602,7 +6614,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -6610,7 +6622,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -6618,7 +6630,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -6626,7 +6638,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -6634,7 +6646,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -6642,7 +6654,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -6650,7 +6662,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -6658,7 +6670,7 @@
     </row>
     <row r="345" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A345" t="s">
-        <v>13</v>
+        <v>12</v>
       </c>
       <c r="B345">
         <v>1</v>
@@ -6666,7 +6678,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -6674,7 +6686,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -6682,7 +6694,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -6690,7 +6702,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -6698,7 +6710,7 @@
     </row>
     <row r="350" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A350" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="B350">
         <v>1</v>
@@ -6706,7 +6718,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -6714,7 +6726,7 @@
     </row>
     <row r="352" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A352" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="B352">
         <v>1</v>
@@ -6722,7 +6734,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -6730,7 +6742,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -6738,7 +6750,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -6746,7 +6758,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -6754,7 +6766,7 @@
     </row>
     <row r="357" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A357" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B357">
         <v>1</v>
@@ -6762,7 +6774,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -6770,7 +6782,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -6778,7 +6790,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -6786,7 +6798,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -6794,7 +6806,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -6802,7 +6814,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -6810,7 +6822,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -6818,7 +6830,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -6826,7 +6838,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -6834,7 +6846,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -6842,7 +6854,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -6850,7 +6862,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -6858,7 +6870,7 @@
     </row>
     <row r="370" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A370" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="B370">
         <v>1</v>
@@ -6866,7 +6878,7 @@
     </row>
     <row r="371" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A371" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="B371">
         <v>1</v>
@@ -6874,7 +6886,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -6882,7 +6894,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -6890,7 +6902,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -6898,7 +6910,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -6906,7 +6918,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -6914,7 +6926,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -6922,7 +6934,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -6930,7 +6942,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -6938,7 +6950,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -6946,7 +6958,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>563</v>
+        <v>557</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -6957,7 +6969,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>564</v>
+        <v>558</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -6965,7 +6977,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -6973,7 +6985,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -6981,7 +6993,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -6989,7 +7001,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -6997,7 +7009,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -7005,7 +7017,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -7013,7 +7025,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -7021,7 +7033,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -7029,7 +7041,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -7037,7 +7049,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -7045,7 +7057,7 @@
     </row>
     <row r="393" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A393" t="s">
-        <v>15</v>
+        <v>14</v>
       </c>
       <c r="B393">
         <v>1</v>
@@ -7053,7 +7065,7 @@
     </row>
     <row r="394" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A394" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="B394">
         <v>1</v>
@@ -7061,7 +7073,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -7069,7 +7081,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -7077,7 +7089,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -7085,7 +7097,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -7093,7 +7105,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -7101,7 +7113,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -7109,7 +7121,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -7117,7 +7129,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -7125,7 +7137,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -7133,7 +7145,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -7141,7 +7153,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -7149,7 +7161,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -7157,7 +7169,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -7165,7 +7177,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -7173,7 +7185,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -7181,7 +7193,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -7189,7 +7201,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -7197,7 +7209,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -7205,7 +7217,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -7213,7 +7225,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -7221,7 +7233,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -7229,7 +7241,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -7237,7 +7249,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -7245,7 +7257,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -7253,7 +7265,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -7261,7 +7273,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -7269,7 +7281,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -7277,7 +7289,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -7285,7 +7297,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -7293,7 +7305,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -7301,7 +7313,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -7309,7 +7321,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -7317,7 +7329,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -7325,7 +7337,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -7333,7 +7345,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -7341,7 +7353,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -7349,7 +7361,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -7357,7 +7369,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -7365,7 +7377,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -7373,7 +7385,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -7381,7 +7393,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>625</v>
+        <v>619</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -7389,7 +7401,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>626</v>
+        <v>620</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -7397,7 +7409,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -7405,7 +7417,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>628</v>
+        <v>622</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -7413,7 +7425,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>629</v>
+        <v>623</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -7421,7 +7433,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>630</v>
+        <v>624</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -7429,7 +7441,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>631</v>
+        <v>625</v>
       </c>
       <c r="B441">
         <v>0</v>
@@ -7437,7 +7449,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>632</v>
+        <v>626</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -7445,7 +7457,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>633</v>
+        <v>627</v>
       </c>
       <c r="B443">
         <v>0</v>
@@ -7453,7 +7465,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>634</v>
+        <v>628</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -7482,27 +7494,27 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A1" s="12" t="s">
-        <v>100</v>
+        <v>99</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A2" s="12" t="s">
-        <v>92</v>
+        <v>91</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A3" s="12" t="s">
-        <v>94</v>
+        <v>93</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A4" s="12" t="s">
-        <v>95</v>
+        <v>94</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.45">
       <c r="A5" s="12" t="s">
-        <v>96</v>
+        <v>95</v>
       </c>
     </row>
   </sheetData>
@@ -7532,469 +7544,469 @@
         <v>0</v>
       </c>
       <c r="B1" s="8" t="s">
-        <v>101</v>
+        <v>100</v>
       </c>
       <c r="C1" s="16" t="s">
-        <v>122</v>
+        <v>118</v>
       </c>
       <c r="D1" s="17" t="s">
-        <v>123</v>
+        <v>119</v>
       </c>
       <c r="E1" s="30" t="s">
-        <v>191</v>
+        <v>186</v>
       </c>
     </row>
     <row r="2" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A2" s="35" t="s">
-        <v>179</v>
+        <v>174</v>
       </c>
       <c r="B2" s="45" t="s">
-        <v>671</v>
+        <v>665</v>
       </c>
       <c r="C2" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D2" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A3" s="20" t="s">
-        <v>180</v>
+        <v>175</v>
       </c>
       <c r="B3" s="46" t="s">
-        <v>672</v>
+        <v>666</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D3" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A4" s="35" t="s">
-        <v>116</v>
+        <v>112</v>
       </c>
       <c r="B4" s="45" t="s">
-        <v>673</v>
+        <v>667</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D4" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A5" s="20" t="s">
-        <v>175</v>
+        <v>170</v>
       </c>
       <c r="B5" s="46" t="s">
-        <v>674</v>
+        <v>668</v>
       </c>
       <c r="C5" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D5" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A6" s="35" t="s">
-        <v>177</v>
+        <v>172</v>
       </c>
       <c r="B6" s="45" t="s">
-        <v>675</v>
+        <v>669</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D6" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A7" s="20" t="s">
-        <v>176</v>
+        <v>171</v>
       </c>
       <c r="B7" s="46" t="s">
-        <v>676</v>
+        <v>670</v>
       </c>
       <c r="C7" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D7" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A8" s="35" t="s">
-        <v>120</v>
+        <v>116</v>
       </c>
       <c r="B8" s="45" t="s">
-        <v>677</v>
+        <v>671</v>
       </c>
       <c r="C8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D8" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A9" s="20" t="s">
-        <v>119</v>
+        <v>115</v>
       </c>
       <c r="B9" s="46" t="s">
-        <v>678</v>
+        <v>672</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D9" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A10" s="35" t="s">
-        <v>121</v>
+        <v>117</v>
       </c>
       <c r="B10" s="45" t="s">
-        <v>679</v>
+        <v>673</v>
       </c>
       <c r="C10" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D10" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A11" s="20" t="s">
-        <v>128</v>
+        <v>124</v>
       </c>
       <c r="B11" s="46" t="s">
-        <v>680</v>
+        <v>674</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D11" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A12" s="35" t="s">
-        <v>124</v>
+        <v>120</v>
       </c>
       <c r="B12" s="45" t="s">
-        <v>681</v>
+        <v>675</v>
       </c>
       <c r="C12" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D12" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A13" s="20" t="s">
-        <v>197</v>
+        <v>191</v>
       </c>
       <c r="B13" s="46" t="s">
-        <v>682</v>
+        <v>676</v>
       </c>
       <c r="C13" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D13" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="14" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A14" s="35" t="s">
-        <v>183</v>
+        <v>178</v>
       </c>
       <c r="B14" s="45" t="s">
-        <v>683</v>
+        <v>677</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D14" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="15" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A15" s="20" t="s">
-        <v>184</v>
+        <v>179</v>
       </c>
       <c r="B15" s="46" t="s">
-        <v>684</v>
+        <v>678</v>
       </c>
       <c r="C15" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D15" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="16" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A16" s="35" t="s">
-        <v>185</v>
+        <v>180</v>
       </c>
       <c r="B16" s="45" t="s">
-        <v>685</v>
+        <v>679</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D16" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="17" spans="1:4" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A17" s="20" t="s">
-        <v>701</v>
+        <v>695</v>
       </c>
       <c r="B17" s="46" t="s">
-        <v>704</v>
+        <v>698</v>
       </c>
       <c r="C17" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D17" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="18" spans="1:4" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A18" s="48" t="s">
-        <v>688</v>
+        <v>682</v>
       </c>
       <c r="B18" s="49" t="s">
-        <v>689</v>
+        <v>683</v>
       </c>
       <c r="C18" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
       <c r="D18" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A19" s="29" t="s">
-        <v>181</v>
+        <v>176</v>
       </c>
       <c r="B19" s="47" t="s">
-        <v>691</v>
+        <v>685</v>
       </c>
       <c r="C19" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
       <c r="A20" s="29" t="s">
-        <v>643</v>
+        <v>637</v>
       </c>
       <c r="B20" s="47" t="s">
-        <v>686</v>
+        <v>680</v>
       </c>
       <c r="C20" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="21" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A21" s="29" t="s">
-        <v>657</v>
+        <v>651</v>
       </c>
       <c r="B21" s="29" t="s">
-        <v>658</v>
+        <v>652</v>
       </c>
       <c r="C21" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="22" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A22" s="34" t="s">
-        <v>182</v>
+        <v>177</v>
       </c>
       <c r="B22" s="34" t="s">
-        <v>692</v>
+        <v>686</v>
       </c>
       <c r="C22" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="23" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A23" s="29" t="s">
-        <v>187</v>
+        <v>182</v>
       </c>
       <c r="B23" s="29" t="s">
-        <v>693</v>
+        <v>687</v>
       </c>
       <c r="C23" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A24" s="34" t="s">
-        <v>188</v>
+        <v>183</v>
       </c>
       <c r="B24" s="34" t="s">
-        <v>694</v>
+        <v>688</v>
       </c>
       <c r="C24" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="25" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A25" s="29" t="s">
-        <v>189</v>
+        <v>184</v>
       </c>
       <c r="B25" s="29" t="s">
-        <v>695</v>
+        <v>689</v>
       </c>
       <c r="C25" s="29" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="26" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A26" s="34" t="s">
-        <v>139</v>
+        <v>135</v>
       </c>
       <c r="B26" s="34" t="s">
-        <v>696</v>
+        <v>690</v>
       </c>
       <c r="C26" s="34" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="27" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A27" s="50" t="s">
-        <v>117</v>
+        <v>113</v>
       </c>
       <c r="B27" s="50" t="s">
-        <v>697</v>
+        <v>691</v>
       </c>
       <c r="C27" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="28" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A28" s="50" t="s">
-        <v>118</v>
+        <v>114</v>
       </c>
       <c r="B28" s="50" t="s">
-        <v>698</v>
+        <v>692</v>
       </c>
       <c r="C28" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A29" s="50" t="s">
-        <v>709</v>
+        <v>703</v>
       </c>
       <c r="B29" s="50" t="s">
-        <v>710</v>
+        <v>704</v>
       </c>
       <c r="C29" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A30" s="50" t="s">
-        <v>713</v>
+        <v>707</v>
       </c>
       <c r="B30" s="50" t="s">
-        <v>712</v>
+        <v>706</v>
       </c>
       <c r="C30" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="31" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A31" s="50" t="s">
-        <v>714</v>
+        <v>708</v>
       </c>
       <c r="B31" s="50" t="s">
-        <v>715</v>
+        <v>709</v>
       </c>
       <c r="C31" s="50" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="32" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A32" s="31" t="s">
-        <v>88</v>
+        <v>87</v>
       </c>
       <c r="B32" s="32" t="s">
-        <v>668</v>
+        <v>662</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" s="31" t="s">
-        <v>648</v>
+        <v>642</v>
       </c>
       <c r="B33" s="32" t="s">
-        <v>669</v>
+        <v>663</v>
       </c>
     </row>
     <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" s="36" t="s">
-        <v>198</v>
+        <v>192</v>
       </c>
       <c r="B34" s="37" t="s">
-        <v>741</v>
+        <v>735</v>
       </c>
     </row>
     <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" s="32" t="s">
-        <v>199</v>
+        <v>193</v>
       </c>
       <c r="B35" s="32" t="s">
-        <v>699</v>
+        <v>693</v>
       </c>
     </row>
     <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" s="50" t="s">
-        <v>711</v>
+        <v>705</v>
       </c>
       <c r="B36" s="50" t="s">
-        <v>700</v>
+        <v>694</v>
       </c>
     </row>
     <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" s="32" t="s">
-        <v>193</v>
+        <v>188</v>
       </c>
       <c r="B37" s="32" t="s">
-        <v>194</v>
+        <v>189</v>
       </c>
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" s="36" t="s">
-        <v>147</v>
+        <v>143</v>
       </c>
       <c r="B38" s="36" t="s">
-        <v>148</v>
+        <v>144</v>
       </c>
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" s="36" t="s">
-        <v>707</v>
+        <v>701</v>
       </c>
       <c r="B39" s="36" t="s">
-        <v>708</v>
+        <v>702</v>
       </c>
     </row>
     <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" s="31" t="s">
-        <v>687</v>
+        <v>681</v>
       </c>
       <c r="B40" s="32" t="s">
-        <v>690</v>
+        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -8022,186 +8034,186 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>149</v>
+        <v>145</v>
       </c>
       <c r="C1" s="44" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>642</v>
+        <v>636</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>647</v>
+        <v>641</v>
       </c>
       <c r="C2" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>154</v>
+        <v>150</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>162</v>
+        <v>158</v>
       </c>
       <c r="C3" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" s="25" t="s">
-        <v>158</v>
+        <v>154</v>
       </c>
       <c r="B4" s="26" t="s">
-        <v>163</v>
+        <v>159</v>
       </c>
       <c r="C4" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" s="35" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="B5" s="35" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="C5" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="6" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A6" s="25" t="s">
-        <v>217</v>
+        <v>211</v>
       </c>
       <c r="B6" s="26" t="s">
-        <v>215</v>
+        <v>209</v>
       </c>
       <c r="C6" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A7" s="25" t="s">
-        <v>156</v>
+        <v>152</v>
       </c>
       <c r="B7" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C7" s="35" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A8" s="41" t="s">
-        <v>150</v>
+        <v>146</v>
       </c>
       <c r="B8" s="42" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
       <c r="C8" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="9" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A9" s="41" t="s">
-        <v>659</v>
+        <v>653</v>
       </c>
       <c r="B9" s="42" t="s">
-        <v>660</v>
+        <v>654</v>
       </c>
       <c r="C9" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A10" s="41" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="B10" s="42" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C10" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>218</v>
+        <v>212</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>212</v>
+        <v>206</v>
       </c>
       <c r="C11" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>157</v>
+        <v>153</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C12" s="20" t="s">
-        <v>73</v>
+        <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A13" s="35" t="s">
-        <v>211</v>
+        <v>205</v>
       </c>
       <c r="B13" s="35" t="s">
-        <v>213</v>
+        <v>207</v>
       </c>
       <c r="C13" s="35" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A14" s="35" t="s">
-        <v>661</v>
+        <v>655</v>
       </c>
       <c r="B14" s="35" t="s">
-        <v>662</v>
+        <v>656</v>
       </c>
       <c r="C14" s="35" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A15" s="35" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="B15" s="35" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="C15" s="35" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A16" s="43" t="s">
-        <v>210</v>
+        <v>204</v>
       </c>
       <c r="B16" s="43" t="s">
-        <v>214</v>
+        <v>208</v>
       </c>
       <c r="C16" s="35" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A17" s="25" t="s">
-        <v>216</v>
+        <v>210</v>
       </c>
       <c r="B17" s="26" t="s">
-        <v>153</v>
+        <v>149</v>
       </c>
       <c r="C17" s="35" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
     </row>
   </sheetData>
@@ -8212,10 +8224,10 @@
 
 <file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{20D30513-835A-4AE6-857E-98ABAAAB41D8}">
-  <dimension ref="A1:B34"/>
+  <dimension ref="A1:B33"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B1" sqref="B1"/>
+      <selection activeCell="L19" sqref="L19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8244,7 +8256,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>204</v>
+        <v>198</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8264,235 +8276,227 @@
       </c>
     </row>
     <row r="6" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A6" s="1" t="s">
+      <c r="A6" s="3" t="s">
+        <v>10</v>
+      </c>
+      <c r="B6" s="4" t="s">
         <v>9</v>
       </c>
-      <c r="B6" s="2" t="s">
-        <v>10</v>
-      </c>
     </row>
     <row r="7" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A7" s="3" t="s">
+      <c r="A7" s="1" t="s">
         <v>11</v>
       </c>
-      <c r="B7" s="4" t="s">
-        <v>10</v>
+      <c r="B7" s="2" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A8" s="1" t="s">
+      <c r="A8" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="B8" s="2" t="s">
-        <v>203</v>
+      <c r="B8" s="4" t="s">
+        <v>13</v>
       </c>
     </row>
     <row r="9" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A9" s="3" t="s">
-        <v>13</v>
-      </c>
-      <c r="B9" s="4" t="s">
+      <c r="A9" s="1" t="s">
         <v>14</v>
       </c>
+      <c r="B9" s="2" t="s">
+        <v>15</v>
+      </c>
     </row>
     <row r="10" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A10" s="1" t="s">
-        <v>15</v>
-      </c>
-      <c r="B10" s="2" t="s">
+      <c r="A10" s="3" t="s">
         <v>16</v>
       </c>
+      <c r="B10" s="4" t="s">
+        <v>17</v>
+      </c>
     </row>
     <row r="11" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A11" s="3" t="s">
-        <v>17</v>
-      </c>
-      <c r="B11" s="4" t="s">
+      <c r="A11" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="B11" s="2" t="s">
+        <v>19</v>
+      </c>
     </row>
     <row r="12" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A12" s="1" t="s">
-        <v>19</v>
-      </c>
-      <c r="B12" s="2" t="s">
+      <c r="A12" s="3" t="s">
         <v>20</v>
       </c>
+      <c r="B12" s="4" t="s">
+        <v>21</v>
+      </c>
     </row>
     <row r="13" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A13" s="3" t="s">
-        <v>21</v>
-      </c>
-      <c r="B13" s="4" t="s">
+      <c r="A13" s="1" t="s">
         <v>22</v>
       </c>
+      <c r="B13" s="2" t="s">
+        <v>23</v>
+      </c>
     </row>
     <row r="14" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A14" s="1" t="s">
-        <v>23</v>
-      </c>
-      <c r="B14" s="2" t="s">
+      <c r="A14" s="3" t="s">
         <v>24</v>
       </c>
+      <c r="B14" s="4" t="s">
+        <v>196</v>
+      </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A15" s="3" t="s">
+      <c r="A15" s="1" t="s">
         <v>25</v>
       </c>
-      <c r="B15" s="4" t="s">
+      <c r="B15" s="2" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A16" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A17" s="1" t="s">
+        <v>29</v>
+      </c>
+      <c r="B17" s="2" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A18" s="3" t="s">
+        <v>31</v>
+      </c>
+      <c r="B18" s="4" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A19" s="1" t="s">
+        <v>33</v>
+      </c>
+      <c r="B19" s="2" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A20" s="3" t="s">
+        <v>35</v>
+      </c>
+      <c r="B20" s="4" t="s">
+        <v>36</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A21" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B21" s="2" t="s">
+        <v>38</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A22" s="3" t="s">
+        <v>39</v>
+      </c>
+      <c r="B22" s="4" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A23" s="1" t="s">
+        <v>41</v>
+      </c>
+      <c r="B23" s="2" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A24" s="3" t="s">
+        <v>43</v>
+      </c>
+      <c r="B24" s="4" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A25" s="1" t="s">
+        <v>45</v>
+      </c>
+      <c r="B25" s="2" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A26" s="3" t="s">
+        <v>47</v>
+      </c>
+      <c r="B26" s="4" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A27" s="1" t="s">
+        <v>49</v>
+      </c>
+      <c r="B27" s="2" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A28" s="3" t="s">
+        <v>51</v>
+      </c>
+      <c r="B28" s="4" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A29" t="s">
+        <v>126</v>
+      </c>
+      <c r="B29" s="18" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="20" t="s">
+        <v>128</v>
+      </c>
+      <c r="B30" s="19" t="s">
         <v>202</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A16" s="1" t="s">
-        <v>26</v>
-      </c>
-      <c r="B16" s="2" t="s">
-        <v>27</v>
-      </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A17" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="B17" s="4" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A18" s="1" t="s">
-        <v>30</v>
-      </c>
-      <c r="B18" s="2" t="s">
-        <v>31</v>
-      </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A19" s="3" t="s">
-        <v>32</v>
-      </c>
-      <c r="B19" s="4" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A20" s="1" t="s">
-        <v>34</v>
-      </c>
-      <c r="B20" s="2" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A21" s="3" t="s">
-        <v>36</v>
-      </c>
-      <c r="B21" s="4" t="s">
-        <v>37</v>
-      </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A22" s="1" t="s">
-        <v>38</v>
-      </c>
-      <c r="B22" s="2" t="s">
-        <v>39</v>
-      </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A23" s="3" t="s">
-        <v>40</v>
-      </c>
-      <c r="B23" s="4" t="s">
-        <v>41</v>
-      </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A24" s="1" t="s">
-        <v>42</v>
-      </c>
-      <c r="B24" s="2" t="s">
-        <v>43</v>
-      </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A25" s="3" t="s">
-        <v>44</v>
-      </c>
-      <c r="B25" s="4" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A26" s="1" t="s">
-        <v>46</v>
-      </c>
-      <c r="B26" s="2" t="s">
-        <v>47</v>
-      </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A27" s="3" t="s">
-        <v>48</v>
-      </c>
-      <c r="B27" s="4" t="s">
-        <v>49</v>
-      </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A28" s="1" t="s">
-        <v>50</v>
-      </c>
-      <c r="B28" s="2" t="s">
-        <v>51</v>
-      </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A29" s="3" t="s">
-        <v>52</v>
-      </c>
-      <c r="B29" s="4" t="s">
-        <v>53</v>
-      </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" t="s">
-        <v>130</v>
-      </c>
-      <c r="B30" s="18" t="s">
-        <v>131</v>
-      </c>
-    </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A31" s="20" t="s">
-        <v>132</v>
-      </c>
-      <c r="B31" s="19" t="s">
-        <v>208</v>
+      <c r="A31" t="s">
+        <v>129</v>
+      </c>
+      <c r="B31" s="18" t="s">
+        <v>201</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" t="s">
-        <v>133</v>
-      </c>
-      <c r="B32" s="18" t="s">
-        <v>207</v>
+      <c r="A32" s="20" t="s">
+        <v>194</v>
+      </c>
+      <c r="B32" s="19" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="20" t="s">
+      <c r="A33" t="s">
+        <v>195</v>
+      </c>
+      <c r="B33" s="18" t="s">
         <v>200</v>
-      </c>
-      <c r="B33" s="19" t="s">
-        <v>205</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" t="s">
-        <v>201</v>
-      </c>
-      <c r="B34" s="18" t="s">
-        <v>206</v>
       </c>
     </row>
   </sheetData>
@@ -8502,70 +8506,60 @@
 
 <file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
-  <dimension ref="A1:A11"/>
+  <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A43" sqref="A43"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="1" max="1" width="28.09765625" customWidth="1"/>
+    <col min="1" max="1" width="62" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>0</v>
+        <v>740</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>104</v>
+        <v>741</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>105</v>
+        <v>742</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>106</v>
+        <v>743</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>107</v>
+        <v>744</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>108</v>
+        <v>745</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>109</v>
+        <v>746</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>110</v>
+        <v>747</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>26</v>
-      </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A10" t="s">
-        <v>195</v>
-      </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
-      <c r="A11" t="s">
-        <v>196</v>
+        <v>748</v>
       </c>
     </row>
   </sheetData>
@@ -8614,25 +8608,25 @@
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
       <c r="A1" s="63" t="s">
-        <v>87</v>
+        <v>86</v>
       </c>
       <c r="B1" s="63"/>
       <c r="C1" s="63"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
+        <v>63</v>
+      </c>
+      <c r="B2" t="s">
         <v>64</v>
       </c>
-      <c r="B2" t="s">
+      <c r="C2" t="s">
         <v>65</v>
-      </c>
-      <c r="C2" t="s">
-        <v>66</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="C3" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
     </row>
   </sheetData>

--- a/UnitTest/test_config.xlsx
+++ b/UnitTest/test_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\UnitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{35AE9CE0-8A23-4673-BEBB-EDF434381318}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DF2824-80B7-48B9-A43C-9195FC477ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="20964" yWindow="3816" windowWidth="22344" windowHeight="12660" firstSheet="5" activeTab="6" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29868" yWindow="-108" windowWidth="29976" windowHeight="17496" firstSheet="1" activeTab="4" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="876" uniqueCount="749">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="770">
   <si>
     <t>Название</t>
   </si>
@@ -404,9 +404,6 @@
   </si>
   <si>
     <t>Выводить в общих сведениях</t>
-  </si>
-  <si>
-    <t>Выводить в подробных сведениях</t>
   </si>
   <si>
     <t>Минимальное оставное дерево</t>
@@ -598,9 +595,6 @@
     <t>Количество факультативов</t>
   </si>
   <si>
-    <t>Перевод на другой язык указан во вкладке "Параметры вывода", для УП целиком перевод в орандевых строках и начинается со знака !</t>
-  </si>
-  <si>
     <t>!Количество основных дисциплин</t>
   </si>
   <si>
@@ -1747,9 +1741,6 @@
     <t>Системы дистанционного зондирования Земли</t>
   </si>
   <si>
-    <t>Индикатор находится на глубине X=</t>
-  </si>
-  <si>
     <t>Кол-во дисциплин компетенции</t>
   </si>
   <si>
@@ -2050,90 +2041,6 @@
     <t>Количество квартилей</t>
   </si>
   <si>
-    <t>Credits_total</t>
-  </si>
-  <si>
-    <t>Vertices_total</t>
-  </si>
-  <si>
-    <t>Course_credits_max</t>
-  </si>
-  <si>
-    <t>Course_credits_min</t>
-  </si>
-  <si>
-    <t>Edge_weight_max</t>
-  </si>
-  <si>
-    <t>Edge_weight_min</t>
-  </si>
-  <si>
-    <t>Graph_diameter_weighted</t>
-  </si>
-  <si>
-    <t>Graph_diameter</t>
-  </si>
-  <si>
-    <t>Connected_components_num</t>
-  </si>
-  <si>
-    <t>Spanning_tree_max</t>
-  </si>
-  <si>
-    <t>Spanning_tree_min</t>
-  </si>
-  <si>
-    <t>Graph_density</t>
-  </si>
-  <si>
-    <t>Course_compulsory_total</t>
-  </si>
-  <si>
-    <t>Course_optional_total</t>
-  </si>
-  <si>
-    <t>Course_elective_total</t>
-  </si>
-  <si>
-    <t>UGSN_code</t>
-  </si>
-  <si>
-    <t>Суффикс после вывода квартиля распределения весов рёбер</t>
-  </si>
-  <si>
-    <t>Количество рёбер указанного квартиля</t>
-  </si>
-  <si>
-    <t>Rib_on</t>
-  </si>
-  <si>
-    <t>quartile</t>
-  </si>
-  <si>
-    <t>Total_credit_in_the_curriculum</t>
-  </si>
-  <si>
-    <t>Total_amount_in_the_curriculum</t>
-  </si>
-  <si>
-    <t>Total_amount_of_basic</t>
-  </si>
-  <si>
-    <t>Total_amoun_of_optional</t>
-  </si>
-  <si>
-    <t>Total_amount_of_elective</t>
-  </si>
-  <si>
-    <t xml:space="preserve">Credit_on_competence </t>
-  </si>
-  <si>
-    <t>Max_value:</t>
-  </si>
-  <si>
-    <t>Min_value:</t>
-  </si>
-  <si>
     <t>All_courses</t>
   </si>
   <si>
@@ -2300,6 +2207,162 @@
   </si>
   <si>
     <t>дача государственного экзамена</t>
+  </si>
+  <si>
+    <t>UGSN code</t>
+  </si>
+  <si>
+    <t>Total credit curriculum</t>
+  </si>
+  <si>
+    <t>!ЗЕ основных дисциплин</t>
+  </si>
+  <si>
+    <t>Basic credits curriculum</t>
+  </si>
+  <si>
+    <t>!ЗЕ дисциплин по выбору</t>
+  </si>
+  <si>
+    <t>Optional credits curriculum</t>
+  </si>
+  <si>
+    <t>!ЗЕ факультативов</t>
+  </si>
+  <si>
+    <t>Elective credits curriculum</t>
+  </si>
+  <si>
+    <t>Total amount curriculum</t>
+  </si>
+  <si>
+    <t>Total amount of basic</t>
+  </si>
+  <si>
+    <t>Total amoun of optional</t>
+  </si>
+  <si>
+    <t>Total amount of elective</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Credit on competence </t>
+  </si>
+  <si>
+    <t>Суффикс после вывода квартиля</t>
+  </si>
+  <si>
+    <t>_quar</t>
+  </si>
+  <si>
+    <t>Credits total</t>
+  </si>
+  <si>
+    <t>ЗЕ факультативов</t>
+  </si>
+  <si>
+    <t>Credits of elective</t>
+  </si>
+  <si>
+    <t>ЗЕ основных дисциплин</t>
+  </si>
+  <si>
+    <t>Credits of basic</t>
+  </si>
+  <si>
+    <t>ЗЕ дисциплин по выбору</t>
+  </si>
+  <si>
+    <t>Credits of optional</t>
+  </si>
+  <si>
+    <t>Vertices total</t>
+  </si>
+  <si>
+    <t>Course basic total</t>
+  </si>
+  <si>
+    <t>Course optional total</t>
+  </si>
+  <si>
+    <t>Course elective total</t>
+  </si>
+  <si>
+    <t>Course credits max</t>
+  </si>
+  <si>
+    <t>Course credits min</t>
+  </si>
+  <si>
+    <t>Edge weight max</t>
+  </si>
+  <si>
+    <t>Edge weight min</t>
+  </si>
+  <si>
+    <t>Graph diameter weighted</t>
+  </si>
+  <si>
+    <t>Graph diameter</t>
+  </si>
+  <si>
+    <t>Connected components num</t>
+  </si>
+  <si>
+    <t>Spanning tree max</t>
+  </si>
+  <si>
+    <t>Spanning tree min</t>
+  </si>
+  <si>
+    <t>Graph density</t>
+  </si>
+  <si>
+    <t>Коэффициент кластеризации (Глобальный)</t>
+  </si>
+  <si>
+    <t>Global clustering coefficient</t>
+  </si>
+  <si>
+    <t>Количество рёбер указанного квартиля для всей выборки</t>
+  </si>
+  <si>
+    <t>Global_rib_on</t>
+  </si>
+  <si>
+    <t>Локальное количество рёбер указанного квартиля</t>
+  </si>
+  <si>
+    <t>Local_rib_on</t>
+  </si>
+  <si>
+    <t>Max value:</t>
+  </si>
+  <si>
+    <t>Min value:</t>
+  </si>
+  <si>
+    <t>Перевод на другой язык указан во вкладке "Параметры вывода", для УП целиком перевод в оранжевых строках и начинается со знака !</t>
+  </si>
+  <si>
+    <t>Делить ЗЕ у компетенции на кол-во дисциплин в компетенции</t>
+  </si>
+  <si>
+    <t>Названия видов дисциплин при выводе ЗЕ</t>
+  </si>
+  <si>
+    <t>С++ не поддерживает наименованные группы. Иначе было бы: названия групп: N - название компетенции, C - номер компетенции , I - номер индикатора ((?&lt;N&gt;\w{1,}).{0,}-(?&lt;C&gt;.{1,})\.(?&lt;I&gt;.{0,}))</t>
+  </si>
+  <si>
+    <t>Индексы групп регулярного выражения</t>
+  </si>
+  <si>
+    <t>1 2 3</t>
+  </si>
+  <si>
+    <t>2 3 1</t>
+  </si>
+  <si>
+    <t>Нумерование групп (сначала указывается номер группы названия компетенции, далее номер компетенции, далее номер индикатора)</t>
   </si>
 </sst>
 </file>
@@ -2309,7 +2372,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="0.000"/>
   </numFmts>
-  <fonts count="11" x14ac:knownFonts="1">
+  <fonts count="14" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -2396,8 +2459,34 @@
       <charset val="204"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF00B050"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <color rgb="FF7030A0"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="12"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="204"/>
+      <scheme val="minor"/>
+    </font>
   </fonts>
-  <fills count="15">
+  <fills count="12">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2455,24 +2544,6 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="8" tint="0.79998168889431442"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFD8D8D8"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor rgb="FFFBE4D5"/>
-        <bgColor indexed="64"/>
-      </patternFill>
-    </fill>
-    <fill>
-      <patternFill patternType="solid">
-        <fgColor theme="0" tint="-4.9989318521683403E-2"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -2584,7 +2655,7 @@
     <xf numFmtId="0" fontId="8" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="9" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="64">
+  <cellXfs count="72">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -2613,12 +2684,6 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="3" borderId="3" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
@@ -2627,7 +2692,6 @@
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="7" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
@@ -2648,9 +2712,6 @@
     <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="2" fontId="0" fillId="10" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2666,24 +2727,17 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="7" fillId="0" borderId="7" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="11" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="7" fillId="12" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="13" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="7" fillId="13" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="14" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="11" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
@@ -2704,9 +2758,6 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -2719,6 +2770,38 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="6" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="9" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="2" fontId="0" fillId="8" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3035,10 +3118,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
-  <dimension ref="A1:J79"/>
+  <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A25" sqref="A25:D29"/>
+    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="E64" sqref="E64"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3052,20 +3135,20 @@
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="55" t="s">
+      <c r="B1" s="48" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
-      <c r="F1" s="55"/>
-      <c r="G1" s="55"/>
-      <c r="H1" s="55"/>
-      <c r="I1" s="55"/>
-      <c r="J1" s="55"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
+      <c r="F1" s="48"/>
+      <c r="G1" s="48"/>
+      <c r="H1" s="48"/>
+      <c r="I1" s="48"/>
+      <c r="J1" s="48"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="58" t="s">
+      <c r="A2" s="51" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -3078,11 +3161,11 @@
         <v>56</v>
       </c>
       <c r="E2" t="s">
-        <v>638</v>
+        <v>635</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="58"/>
+      <c r="A3" s="51"/>
       <c r="B3" s="9" t="s">
         <v>57</v>
       </c>
@@ -3093,658 +3176,707 @@
         <v>59</v>
       </c>
       <c r="E3" s="9" t="s">
-        <v>639</v>
+        <v>636</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="15" t="s">
+      <c r="A4" s="68" t="s">
         <v>71</v>
       </c>
       <c r="B4" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="24" t="s">
+      <c r="A5" s="69" t="s">
         <v>88</v>
       </c>
       <c r="B5" t="s">
-        <v>549</v>
+        <v>547</v>
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="24" t="s">
-        <v>157</v>
+      <c r="A6" s="69" t="s">
+        <v>156</v>
       </c>
       <c r="B6" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="15" t="s">
-        <v>203</v>
+      <c r="A7" s="68" t="s">
+        <v>75</v>
       </c>
       <c r="B7" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="59" t="s">
-        <v>107</v>
+      <c r="A8" s="68" t="s">
+        <v>656</v>
       </c>
       <c r="B8" t="s">
-        <v>72</v>
-      </c>
-      <c r="C8" s="21"/>
+        <v>547</v>
+      </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="59"/>
-      <c r="B9" s="21" t="s">
-        <v>130</v>
+      <c r="A9" s="70" t="s">
+        <v>139</v>
+      </c>
+      <c r="B9" t="s">
+        <v>701</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="59" t="s">
-        <v>155</v>
-      </c>
-      <c r="B10" s="27" t="s">
-        <v>72</v>
+      <c r="A10" s="70"/>
+      <c r="B10" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="59"/>
-      <c r="B11" s="21" t="s">
-        <v>156</v>
+      <c r="A11" s="70" t="s">
+        <v>140</v>
+      </c>
+      <c r="B11" t="s">
+        <v>702</v>
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="59" t="s">
-        <v>123</v>
-      </c>
-      <c r="B12" t="s">
-        <v>72</v>
+      <c r="A12" s="70"/>
+      <c r="B12" s="9" t="s">
+        <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="59"/>
-      <c r="B13" s="9" t="s">
-        <v>629</v>
+      <c r="A13" s="68" t="s">
+        <v>67</v>
+      </c>
+      <c r="B13" t="s">
+        <v>68</v>
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="15" t="s">
-        <v>134</v>
+      <c r="A14" s="68" t="s">
+        <v>69</v>
       </c>
       <c r="B14" t="s">
-        <v>72</v>
+        <v>70</v>
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="15" t="s">
-        <v>77</v>
+      <c r="A15" s="68" t="s">
+        <v>679</v>
       </c>
       <c r="B15" t="s">
-        <v>549</v>
+        <v>683</v>
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="15" t="s">
-        <v>75</v>
+      <c r="A16" s="68" t="s">
+        <v>680</v>
       </c>
       <c r="B16" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A17" s="15" t="s">
-        <v>659</v>
+        <v>684</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="68" t="s">
+        <v>685</v>
       </c>
       <c r="B17" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" x14ac:dyDescent="0.3">
+        <v>686</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A18" s="15" t="s">
-        <v>734</v>
+        <v>201</v>
       </c>
       <c r="B18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="19" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A19" s="15" t="s">
-        <v>418</v>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="71" t="s">
+        <v>763</v>
       </c>
       <c r="B19" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="20" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A20" s="15" t="s">
-        <v>577</v>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="45" t="s">
+        <v>107</v>
       </c>
       <c r="B20" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="15" t="s">
+      <c r="C20" s="19"/>
+    </row>
+    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A21" s="45"/>
+      <c r="B21" s="19" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A22" s="45" t="s">
+        <v>154</v>
+      </c>
+      <c r="B22" s="24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A23" s="45"/>
+      <c r="B23" s="19" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A24" s="45" t="s">
+        <v>122</v>
+      </c>
+      <c r="B24" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A25" s="45"/>
+      <c r="B25" s="9" t="s">
+        <v>626</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A26" s="15" t="s">
+        <v>133</v>
+      </c>
+      <c r="B26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A27" s="15" t="s">
+        <v>77</v>
+      </c>
+      <c r="B27" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A28" s="15" t="s">
+        <v>703</v>
+      </c>
+      <c r="B28" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A29" s="15" t="s">
+        <v>416</v>
+      </c>
+      <c r="B29" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A30" s="15" t="s">
+        <v>574</v>
+      </c>
+      <c r="B30" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A31" s="15" t="s">
+        <v>627</v>
+      </c>
+      <c r="B31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A32" s="15" t="s">
+        <v>666</v>
+      </c>
+      <c r="B32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A33" s="45" t="s">
+        <v>628</v>
+      </c>
+      <c r="B33" t="s">
+        <v>547</v>
+      </c>
+      <c r="C33" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A34" s="45"/>
+      <c r="B34" s="9" t="s">
+        <v>629</v>
+      </c>
+      <c r="C34" s="9" t="s">
+        <v>632</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A35" s="45" t="s">
+        <v>168</v>
+      </c>
+      <c r="B35" t="s">
+        <v>72</v>
+      </c>
+      <c r="C35" t="s">
+        <v>72</v>
+      </c>
+      <c r="D35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A36" s="45"/>
+      <c r="B36" s="9" t="s">
         <v>630</v>
       </c>
-      <c r="B21" t="s">
+      <c r="C36" s="9" t="s">
+        <v>631</v>
+      </c>
+      <c r="D36" s="9" t="s">
+        <v>705</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A37" s="67" t="s">
+        <v>160</v>
+      </c>
+      <c r="B37" t="s">
+        <v>165</v>
+      </c>
+      <c r="C37" t="s">
+        <v>164</v>
+      </c>
+      <c r="D37" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A38" s="67"/>
+      <c r="B38" s="9" t="s">
+        <v>166</v>
+      </c>
+      <c r="C38" s="9" t="s">
+        <v>161</v>
+      </c>
+      <c r="D38" s="9" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A39" s="67"/>
+      <c r="B39" s="9" t="s">
+        <v>708</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A40" s="67" t="s">
+        <v>172</v>
+      </c>
+      <c r="B40" s="21" t="s">
+        <v>179</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="D40" s="21" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A41" s="67"/>
+      <c r="B41" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="C41" s="9"/>
+      <c r="D41" s="9"/>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A42" s="67" t="s">
+        <v>764</v>
+      </c>
+      <c r="B42" t="s">
+        <v>734</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="D42" s="21" t="s">
+        <v>738</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A43" s="67"/>
+      <c r="B43" s="9" t="s">
+        <v>762</v>
+      </c>
+      <c r="C43" s="9"/>
+      <c r="D43" s="9"/>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A44" s="49" t="s">
+        <v>74</v>
+      </c>
+      <c r="B44" s="50"/>
+      <c r="C44" s="50"/>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A45" s="49" t="s">
+        <v>76</v>
+      </c>
+      <c r="B45" s="50"/>
+      <c r="C45" s="50"/>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A46" s="30" t="s">
+        <v>255</v>
+      </c>
+      <c r="B46" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A47" s="15" t="s">
+        <v>62</v>
+      </c>
+      <c r="B47" s="5">
+        <v>15</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A48" s="15" t="s">
+        <v>98</v>
+      </c>
+      <c r="B48" t="s">
+        <v>706</v>
+      </c>
+    </row>
+    <row r="49" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A49" s="45" t="s">
+        <v>136</v>
+      </c>
+      <c r="B49" t="s">
+        <v>150</v>
+      </c>
+      <c r="C49" t="s">
+        <v>658</v>
+      </c>
+    </row>
+    <row r="50" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A50" s="45"/>
+      <c r="B50" s="9" t="s">
+        <v>135</v>
+      </c>
+      <c r="C50" s="9" t="s">
+        <v>657</v>
+      </c>
+    </row>
+    <row r="51" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A51" s="45"/>
+      <c r="B51" s="9" t="s">
+        <v>765</v>
+      </c>
+      <c r="C51" s="9"/>
+    </row>
+    <row r="52" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A52" s="45" t="s">
+        <v>766</v>
+      </c>
+      <c r="B52" s="21" t="s">
+        <v>767</v>
+      </c>
+      <c r="C52" s="21" t="s">
+        <v>768</v>
+      </c>
+    </row>
+    <row r="53" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A53" s="45"/>
+      <c r="B53" s="9" t="s">
+        <v>769</v>
+      </c>
+      <c r="C53" s="21"/>
+    </row>
+    <row r="54" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A54" s="20" t="s">
+        <v>137</v>
+      </c>
+      <c r="B54" s="21" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="55" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A55" s="42" t="s">
+        <v>690</v>
+      </c>
+      <c r="B55" s="21" t="s">
+        <v>689</v>
+      </c>
+    </row>
+    <row r="56" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A56" s="15" t="s">
+        <v>80</v>
+      </c>
+      <c r="B56" s="5">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="57" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A57" s="15" t="s">
+        <v>252</v>
+      </c>
+      <c r="B57" s="13" t="s">
+        <v>109</v>
+      </c>
+    </row>
+    <row r="58" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A58" s="15" t="s">
+        <v>665</v>
+      </c>
+      <c r="B58" s="13" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="59" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A59" s="15" t="s">
+        <v>654</v>
+      </c>
+      <c r="B59" s="13" t="s">
+        <v>655</v>
+      </c>
+    </row>
+    <row r="60" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A60" s="15" t="s">
+        <v>681</v>
+      </c>
+      <c r="B60" s="13" t="s">
+        <v>682</v>
+      </c>
+    </row>
+    <row r="61" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A61" s="15" t="s">
+        <v>89</v>
+      </c>
+      <c r="B61" s="5" t="s">
+        <v>90</v>
+      </c>
+    </row>
+    <row r="62" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A62" s="15" t="s">
+        <v>146</v>
+      </c>
+      <c r="B62" s="5" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="63" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A63" s="15" t="s">
+        <v>102</v>
+      </c>
+      <c r="B63" s="5" t="s">
+        <v>101</v>
+      </c>
+    </row>
+    <row r="64" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A64" s="15" t="s">
+        <v>110</v>
+      </c>
+      <c r="B64" s="5" t="s">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="65" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A65" s="15" t="s">
+        <v>183</v>
+      </c>
+      <c r="B65" s="5" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="66" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A66" s="15" t="s">
+        <v>253</v>
+      </c>
+      <c r="B66" s="5" t="s">
+        <v>254</v>
+      </c>
+    </row>
+    <row r="67" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A67" s="15" t="s">
+        <v>661</v>
+      </c>
+      <c r="B67" s="43">
+        <v>4</v>
+      </c>
+    </row>
+    <row r="68" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A68" s="15" t="s">
+        <v>687</v>
+      </c>
+      <c r="B68" s="25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="69" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A69" s="15" t="s">
+        <v>185</v>
+      </c>
+      <c r="B69" s="5">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="70" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A70" s="15" t="s">
+        <v>92</v>
+      </c>
+      <c r="B70" s="5">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="71" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A71" s="15" t="s">
+        <v>97</v>
+      </c>
+      <c r="B71" s="25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="72" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A72" s="15" t="s">
+        <v>108</v>
+      </c>
+      <c r="B72" s="25">
+        <v>1E-3</v>
+      </c>
+    </row>
+    <row r="73" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A73" s="15" t="s">
+        <v>688</v>
+      </c>
+      <c r="B73" s="25">
+        <v>0.05</v>
+      </c>
+    </row>
+    <row r="74" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A74" s="15" t="s">
+        <v>167</v>
+      </c>
+      <c r="B74" s="13">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="75" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A75" s="52" t="s">
+        <v>121</v>
+      </c>
+      <c r="B75" s="52"/>
+      <c r="C75" s="52"/>
+    </row>
+    <row r="76" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A76" s="15" t="s">
+        <v>120</v>
+      </c>
+      <c r="B76" s="13" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="15" t="s">
-        <v>697</v>
-      </c>
-      <c r="B22" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="59" t="s">
-        <v>631</v>
-      </c>
-      <c r="B23" t="s">
-        <v>549</v>
-      </c>
-      <c r="C23" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="59"/>
-      <c r="B24" s="9" t="s">
-        <v>632</v>
-      </c>
-      <c r="C24" s="9" t="s">
-        <v>635</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="59" t="s">
-        <v>169</v>
-      </c>
-      <c r="B25" t="s">
-        <v>72</v>
-      </c>
-      <c r="C25" t="s">
-        <v>72</v>
-      </c>
-      <c r="D25" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="59"/>
-      <c r="B26" s="9" t="s">
-        <v>633</v>
-      </c>
-      <c r="C26" s="9" t="s">
-        <v>634</v>
-      </c>
-      <c r="D26" s="9" t="s">
-        <v>736</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="59" t="s">
-        <v>161</v>
-      </c>
-      <c r="B27" t="s">
-        <v>166</v>
-      </c>
-      <c r="C27" t="s">
-        <v>165</v>
-      </c>
-      <c r="D27" t="s">
-        <v>164</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="59"/>
-      <c r="B28" s="9" t="s">
-        <v>167</v>
-      </c>
-      <c r="C28" s="9" t="s">
-        <v>162</v>
-      </c>
-      <c r="D28" s="9" t="s">
-        <v>163</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="59"/>
-      <c r="B29" s="9" t="s">
-        <v>739</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="59" t="s">
-        <v>173</v>
-      </c>
-      <c r="B30" s="23" t="s">
-        <v>178</v>
-      </c>
-      <c r="C30" s="23" t="s">
-        <v>179</v>
-      </c>
-      <c r="D30" s="23" t="s">
-        <v>180</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="59"/>
-      <c r="B31" s="9" t="s">
-        <v>181</v>
-      </c>
-      <c r="C31" s="9"/>
-      <c r="D31" s="9"/>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="56" t="s">
-        <v>74</v>
-      </c>
-      <c r="B32" s="57"/>
-      <c r="C32" s="57"/>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A33" s="56" t="s">
-        <v>76</v>
-      </c>
-      <c r="B33" s="57"/>
-      <c r="C33" s="57"/>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A34" s="59" t="s">
-        <v>140</v>
-      </c>
-      <c r="B34" t="s">
-        <v>732</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A35" s="59"/>
-      <c r="B35" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A36" s="59" t="s">
-        <v>141</v>
-      </c>
-      <c r="B36" t="s">
-        <v>733</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A37" s="59"/>
-      <c r="B37" s="9" t="s">
-        <v>73</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A38" s="33" t="s">
-        <v>257</v>
-      </c>
-      <c r="B38" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A39" s="15" t="s">
-        <v>62</v>
-      </c>
-      <c r="B39" s="5">
-        <v>15</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A40" s="15" t="s">
-        <v>67</v>
-      </c>
-      <c r="B40" t="s">
-        <v>68</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A41" s="15" t="s">
-        <v>69</v>
-      </c>
-      <c r="B41" t="s">
-        <v>70</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A42" s="15" t="s">
-        <v>710</v>
-      </c>
-      <c r="B42" t="s">
-        <v>714</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A43" s="15" t="s">
-        <v>711</v>
-      </c>
-      <c r="B43" t="s">
-        <v>715</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A44" s="15" t="s">
-        <v>716</v>
-      </c>
-      <c r="B44" t="s">
-        <v>717</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A45" s="15" t="s">
-        <v>98</v>
-      </c>
-      <c r="B45" t="s">
-        <v>737</v>
-      </c>
-    </row>
-    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A46" s="59" t="s">
-        <v>137</v>
-      </c>
-      <c r="B46" t="s">
-        <v>151</v>
-      </c>
-      <c r="C46" t="s">
-        <v>661</v>
-      </c>
-    </row>
-    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A47" s="59"/>
-      <c r="B47" s="9" t="s">
-        <v>136</v>
-      </c>
-      <c r="C47" s="9" t="s">
-        <v>660</v>
-      </c>
-    </row>
-    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A48" s="22" t="s">
-        <v>138</v>
-      </c>
-      <c r="B48" s="23" t="s">
-        <v>139</v>
-      </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A49" s="51" t="s">
-        <v>721</v>
-      </c>
-      <c r="B49" s="23" t="s">
-        <v>720</v>
-      </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A50" s="15" t="s">
-        <v>80</v>
-      </c>
-      <c r="B50" s="5">
-        <v>2</v>
-      </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A51" s="15" t="s">
-        <v>564</v>
-      </c>
-      <c r="B51" s="5">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A52" s="15" t="s">
-        <v>254</v>
-      </c>
-      <c r="B52" s="13" t="s">
-        <v>109</v>
-      </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A53" s="15" t="s">
-        <v>696</v>
-      </c>
-      <c r="B53" s="13" t="s">
-        <v>142</v>
-      </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A54" s="15" t="s">
-        <v>657</v>
-      </c>
-      <c r="B54" s="13" t="s">
-        <v>658</v>
-      </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A55" s="15" t="s">
-        <v>712</v>
-      </c>
-      <c r="B55" s="13" t="s">
-        <v>713</v>
-      </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A56" s="15" t="s">
-        <v>89</v>
-      </c>
-      <c r="B56" s="5" t="s">
-        <v>90</v>
-      </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A57" s="15" t="s">
-        <v>147</v>
-      </c>
-      <c r="B57" s="5" t="s">
-        <v>148</v>
-      </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A58" s="15" t="s">
-        <v>102</v>
-      </c>
-      <c r="B58" s="5" t="s">
-        <v>101</v>
-      </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A59" s="15" t="s">
-        <v>110</v>
-      </c>
-      <c r="B59" s="5" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A60" s="15" t="s">
-        <v>185</v>
-      </c>
-      <c r="B60" s="5" t="s">
-        <v>85</v>
-      </c>
-    </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A61" s="15" t="s">
-        <v>255</v>
-      </c>
-      <c r="B61" s="5" t="s">
-        <v>256</v>
-      </c>
-    </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A62" s="15" t="s">
-        <v>664</v>
-      </c>
-      <c r="B62" s="52">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A63" s="15" t="s">
-        <v>718</v>
-      </c>
-      <c r="B63" s="28">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A64" s="15" t="s">
-        <v>187</v>
-      </c>
-      <c r="B64" s="5">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A65" s="15" t="s">
-        <v>92</v>
-      </c>
-      <c r="B65" s="5">
-        <v>5</v>
-      </c>
-    </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A66" s="15" t="s">
-        <v>97</v>
-      </c>
-      <c r="B66" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A67" s="15" t="s">
-        <v>108</v>
-      </c>
-      <c r="B67" s="28">
-        <v>1E-3</v>
-      </c>
-    </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A68" s="15" t="s">
-        <v>719</v>
-      </c>
-      <c r="B68" s="28">
-        <v>0.05</v>
-      </c>
-    </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A69" s="15" t="s">
-        <v>168</v>
-      </c>
-      <c r="B69" s="13">
-        <v>40</v>
-      </c>
-    </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A70" s="60" t="s">
-        <v>122</v>
-      </c>
-      <c r="B70" s="60"/>
-      <c r="C70" s="60"/>
-    </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A71" s="15" t="s">
-        <v>121</v>
-      </c>
-      <c r="B71" s="13" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A72" s="15" t="s">
+    <row r="77" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A77" s="15" t="s">
         <v>61</v>
       </c>
-      <c r="B72" t="s">
-        <v>570</v>
-      </c>
-    </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A73" s="15" t="s">
+      <c r="B77" t="s">
+        <v>567</v>
+      </c>
+    </row>
+    <row r="78" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A78" s="15" t="s">
         <v>60</v>
       </c>
-      <c r="B73" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A74" s="15" t="s">
+      <c r="B78" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="79" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A79" s="15" t="s">
+        <v>131</v>
+      </c>
+      <c r="B79" t="s">
         <v>132</v>
       </c>
-      <c r="B74" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A75" s="56" t="s">
+    </row>
+    <row r="80" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A80" s="49" t="s">
         <v>84</v>
       </c>
-      <c r="B75" s="57"/>
-      <c r="C75" s="57"/>
-    </row>
-    <row r="76" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A76" s="53" t="s">
-        <v>131</v>
-      </c>
-      <c r="B76" s="53"/>
-      <c r="C76" s="53"/>
-      <c r="D76" s="11"/>
-      <c r="E76" s="11"/>
-    </row>
-    <row r="77" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A77" s="54" t="s">
+      <c r="B80" s="50"/>
+      <c r="C80" s="50"/>
+    </row>
+    <row r="81" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A81" s="46" t="s">
+        <v>130</v>
+      </c>
+      <c r="B81" s="46"/>
+      <c r="C81" s="46"/>
+      <c r="D81" s="11"/>
+      <c r="E81" s="11"/>
+    </row>
+    <row r="82" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A82" s="47" t="s">
         <v>96</v>
       </c>
-      <c r="B77" s="54"/>
-      <c r="C77" s="54"/>
-      <c r="D77" s="11"/>
-      <c r="E77" s="11"/>
-    </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A78" s="15" t="s">
-        <v>699</v>
-      </c>
-      <c r="B78" s="14" t="s">
-        <v>738</v>
-      </c>
-    </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A79" s="15" t="s">
-        <v>700</v>
-      </c>
-      <c r="B79" s="14" t="s">
-        <v>738</v>
+      <c r="B82" s="47"/>
+      <c r="C82" s="47"/>
+      <c r="D82" s="11"/>
+      <c r="E82" s="11"/>
+    </row>
+    <row r="83" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A83" s="15" t="s">
+        <v>668</v>
+      </c>
+      <c r="B83" s="14" t="s">
+        <v>707</v>
+      </c>
+    </row>
+    <row r="84" spans="1:5" x14ac:dyDescent="0.3">
+      <c r="A84" s="15" t="s">
+        <v>669</v>
+      </c>
+      <c r="B84" s="14" t="s">
+        <v>707</v>
       </c>
     </row>
   </sheetData>
-  <mergeCells count="18">
-    <mergeCell ref="A12:A13"/>
-    <mergeCell ref="A23:A24"/>
-    <mergeCell ref="A76:C76"/>
-    <mergeCell ref="A77:C77"/>
+  <mergeCells count="20">
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="A81:C81"/>
+    <mergeCell ref="A82:C82"/>
     <mergeCell ref="B1:J1"/>
+    <mergeCell ref="A80:C80"/>
+    <mergeCell ref="A2:A3"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="A9:A10"/>
     <mergeCell ref="A75:C75"/>
-    <mergeCell ref="A2:A3"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="A34:A35"/>
-    <mergeCell ref="A70:C70"/>
-    <mergeCell ref="A46:A47"/>
-    <mergeCell ref="A8:A9"/>
-    <mergeCell ref="A10:A11"/>
-    <mergeCell ref="A27:A29"/>
-    <mergeCell ref="A25:A26"/>
-    <mergeCell ref="A30:A31"/>
-    <mergeCell ref="A32:C32"/>
-    <mergeCell ref="A33:C33"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="A37:A39"/>
+    <mergeCell ref="A35:A36"/>
+    <mergeCell ref="A40:A41"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3794,13 +3926,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="48" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
-      <c r="E1" s="55"/>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
+      <c r="E1" s="48"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3810,7 +3942,7 @@
         <v>63</v>
       </c>
       <c r="C2" t="s">
-        <v>578</v>
+        <v>575</v>
       </c>
       <c r="D2" t="s">
         <v>78</v>
@@ -3841,39 +3973,39 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
-        <v>640</v>
-      </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
-      <c r="D1" s="55"/>
+      <c r="A1" s="48" t="s">
+        <v>637</v>
+      </c>
+      <c r="B1" s="48"/>
+      <c r="C1" s="48"/>
+      <c r="D1" s="48"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>643</v>
+        <v>640</v>
       </c>
       <c r="B2" t="s">
-        <v>645</v>
-      </c>
-      <c r="C2" s="35" t="s">
-        <v>647</v>
-      </c>
-      <c r="D2" s="35" t="s">
-        <v>649</v>
+        <v>642</v>
+      </c>
+      <c r="C2" s="32" t="s">
+        <v>644</v>
+      </c>
+      <c r="D2" s="32" t="s">
+        <v>646</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>644</v>
+        <v>641</v>
       </c>
       <c r="B3" t="s">
-        <v>646</v>
-      </c>
-      <c r="C3" s="35" t="s">
-        <v>648</v>
-      </c>
-      <c r="D3" s="35" t="s">
-        <v>650</v>
+        <v>643</v>
+      </c>
+      <c r="C3" s="32" t="s">
+        <v>645</v>
+      </c>
+      <c r="D3" s="32" t="s">
+        <v>647</v>
       </c>
     </row>
   </sheetData>
@@ -3888,7 +4020,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{EB27DC44-D357-46E3-9C3E-84D17CC4B47E}">
   <dimension ref="A1:D444"/>
   <sheetViews>
-    <sheetView topLeftCell="A40" workbookViewId="0">
+    <sheetView topLeftCell="A406" workbookViewId="0">
       <selection activeCell="D63" sqref="D63"/>
     </sheetView>
   </sheetViews>
@@ -3899,42 +4031,42 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="38" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="61" t="s">
-        <v>253</v>
-      </c>
-      <c r="C1" s="62"/>
-      <c r="D1" s="62"/>
+      <c r="A1" s="34" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="53" t="s">
+        <v>251</v>
+      </c>
+      <c r="C1" s="54"/>
+      <c r="D1" s="54"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="39">
-        <v>0</v>
-      </c>
-      <c r="B2" s="40" t="s">
-        <v>297</v>
+      <c r="A2" s="35">
+        <v>0</v>
+      </c>
+      <c r="B2" s="36" t="s">
+        <v>295</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="39">
-        <v>1</v>
-      </c>
-      <c r="B3" s="40" t="s">
-        <v>722</v>
+      <c r="A3" s="35">
+        <v>1</v>
+      </c>
+      <c r="B3" s="36" t="s">
+        <v>691</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A4" s="39">
+      <c r="A4" s="35">
         <v>2</v>
       </c>
-      <c r="B4" s="40" t="s">
-        <v>727</v>
+      <c r="B4" s="36" t="s">
+        <v>696</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>723</v>
+        <v>692</v>
       </c>
       <c r="B5">
         <v>0</v>
@@ -3945,7 +4077,7 @@
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>724</v>
+        <v>693</v>
       </c>
       <c r="B6">
         <v>0</v>
@@ -3953,7 +4085,7 @@
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>725</v>
+        <v>694</v>
       </c>
       <c r="B7">
         <v>0</v>
@@ -3961,7 +4093,7 @@
     </row>
     <row r="8" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>726</v>
+        <v>695</v>
       </c>
       <c r="B8">
         <v>0</v>
@@ -3972,7 +4104,7 @@
     </row>
     <row r="9" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>728</v>
+        <v>697</v>
       </c>
       <c r="B9">
         <v>1</v>
@@ -3980,7 +4112,7 @@
     </row>
     <row r="10" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
-        <v>729</v>
+        <v>698</v>
       </c>
       <c r="B10">
         <v>1</v>
@@ -3988,7 +4120,7 @@
     </row>
     <row r="11" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
-        <v>730</v>
+        <v>699</v>
       </c>
       <c r="B11">
         <v>1</v>
@@ -3999,7 +4131,7 @@
     </row>
     <row r="12" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
-        <v>731</v>
+        <v>700</v>
       </c>
       <c r="B12">
         <v>1</v>
@@ -4010,7 +4142,7 @@
     </row>
     <row r="13" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B13">
         <v>1</v>
@@ -4018,7 +4150,7 @@
     </row>
     <row r="15" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B15">
         <v>0</v>
@@ -4034,7 +4166,7 @@
     </row>
     <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
-        <v>214</v>
+        <v>212</v>
       </c>
       <c r="B17">
         <v>0</v>
@@ -4042,7 +4174,7 @@
     </row>
     <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
-        <v>215</v>
+        <v>213</v>
       </c>
       <c r="B18">
         <v>0</v>
@@ -4066,7 +4198,7 @@
     </row>
     <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
-        <v>216</v>
+        <v>214</v>
       </c>
       <c r="B21">
         <v>1</v>
@@ -4074,7 +4206,7 @@
     </row>
     <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
       <c r="B22">
         <v>1</v>
@@ -4082,7 +4214,7 @@
     </row>
     <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B23">
         <v>1</v>
@@ -4098,7 +4230,7 @@
     </row>
     <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
-        <v>219</v>
+        <v>217</v>
       </c>
       <c r="B25">
         <v>1</v>
@@ -4122,7 +4254,7 @@
     </row>
     <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
-        <v>220</v>
+        <v>218</v>
       </c>
       <c r="B28">
         <v>1</v>
@@ -4130,7 +4262,7 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
-        <v>221</v>
+        <v>219</v>
       </c>
       <c r="B29">
         <v>1</v>
@@ -4138,7 +4270,7 @@
     </row>
     <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
-        <v>222</v>
+        <v>220</v>
       </c>
       <c r="B30">
         <v>1</v>
@@ -4146,7 +4278,7 @@
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>223</v>
+        <v>221</v>
       </c>
       <c r="B31">
         <v>1</v>
@@ -4154,7 +4286,7 @@
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
-        <v>224</v>
+        <v>222</v>
       </c>
       <c r="B32">
         <v>1</v>
@@ -4162,7 +4294,7 @@
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
       <c r="B33">
         <v>1</v>
@@ -4202,7 +4334,7 @@
     </row>
     <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
-        <v>258</v>
+        <v>256</v>
       </c>
       <c r="B38">
         <v>1</v>
@@ -4210,7 +4342,7 @@
     </row>
     <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B39">
         <v>1</v>
@@ -4242,7 +4374,7 @@
     </row>
     <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
       <c r="B43">
         <v>1</v>
@@ -4250,7 +4382,7 @@
     </row>
     <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
-        <v>259</v>
+        <v>257</v>
       </c>
       <c r="B44">
         <v>1</v>
@@ -4258,7 +4390,7 @@
     </row>
     <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B45">
         <v>1</v>
@@ -4266,7 +4398,7 @@
     </row>
     <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
-        <v>229</v>
+        <v>227</v>
       </c>
       <c r="B46">
         <v>1</v>
@@ -4282,7 +4414,7 @@
     </row>
     <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
-        <v>230</v>
+        <v>228</v>
       </c>
       <c r="B48">
         <v>1</v>
@@ -4290,7 +4422,7 @@
     </row>
     <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
-        <v>231</v>
+        <v>229</v>
       </c>
       <c r="B49">
         <v>1</v>
@@ -4298,7 +4430,7 @@
     </row>
     <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
-        <v>232</v>
+        <v>230</v>
       </c>
       <c r="B50">
         <v>1</v>
@@ -4306,7 +4438,7 @@
     </row>
     <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
-        <v>233</v>
+        <v>231</v>
       </c>
       <c r="B51">
         <v>1</v>
@@ -4314,7 +4446,7 @@
     </row>
     <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
-        <v>234</v>
+        <v>232</v>
       </c>
       <c r="B52">
         <v>1</v>
@@ -4322,7 +4454,7 @@
     </row>
     <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
       <c r="B53">
         <v>1</v>
@@ -4330,7 +4462,7 @@
     </row>
     <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B54">
         <v>1</v>
@@ -4338,7 +4470,7 @@
     </row>
     <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
       <c r="B55">
         <v>1</v>
@@ -4346,7 +4478,7 @@
     </row>
     <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B56">
         <v>1</v>
@@ -4354,7 +4486,7 @@
     </row>
     <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
-        <v>239</v>
+        <v>237</v>
       </c>
       <c r="B57">
         <v>1</v>
@@ -4362,7 +4494,7 @@
     </row>
     <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
-        <v>240</v>
+        <v>238</v>
       </c>
       <c r="B58">
         <v>0</v>
@@ -4370,7 +4502,7 @@
     </row>
     <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
-        <v>241</v>
+        <v>239</v>
       </c>
       <c r="B59">
         <v>1</v>
@@ -4378,7 +4510,7 @@
     </row>
     <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
-        <v>242</v>
+        <v>240</v>
       </c>
       <c r="B60">
         <v>1</v>
@@ -4386,7 +4518,7 @@
     </row>
     <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
       <c r="B61">
         <v>0</v>
@@ -4394,7 +4526,7 @@
     </row>
     <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B62">
         <v>0</v>
@@ -4402,7 +4534,7 @@
     </row>
     <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
-        <v>245</v>
+        <v>243</v>
       </c>
       <c r="B63">
         <v>1</v>
@@ -4410,7 +4542,7 @@
     </row>
     <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
-        <v>246</v>
+        <v>244</v>
       </c>
       <c r="B64">
         <v>1</v>
@@ -4418,7 +4550,7 @@
     </row>
     <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
-        <v>247</v>
+        <v>245</v>
       </c>
       <c r="B65">
         <v>1</v>
@@ -4426,7 +4558,7 @@
     </row>
     <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
-        <v>260</v>
+        <v>258</v>
       </c>
       <c r="B66">
         <v>1</v>
@@ -4434,7 +4566,7 @@
     </row>
     <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
       <c r="B67">
         <v>1</v>
@@ -4442,7 +4574,7 @@
     </row>
     <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
       <c r="B68">
         <v>1</v>
@@ -4450,7 +4582,7 @@
     </row>
     <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
       <c r="B69">
         <v>1</v>
@@ -4490,7 +4622,7 @@
     </row>
     <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B74">
         <v>1</v>
@@ -4498,7 +4630,7 @@
     </row>
     <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
       <c r="B75">
         <v>1</v>
@@ -4506,7 +4638,7 @@
     </row>
     <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B76">
         <v>1</v>
@@ -4514,7 +4646,7 @@
     </row>
     <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
       <c r="B77">
         <v>0</v>
@@ -4522,7 +4654,7 @@
     </row>
     <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B78">
         <v>1</v>
@@ -4530,7 +4662,7 @@
     </row>
     <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
-        <v>265</v>
+        <v>263</v>
       </c>
       <c r="B79">
         <v>1</v>
@@ -4538,7 +4670,7 @@
     </row>
     <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
-        <v>266</v>
+        <v>264</v>
       </c>
       <c r="B80">
         <v>1</v>
@@ -4546,7 +4678,7 @@
     </row>
     <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
-        <v>267</v>
+        <v>265</v>
       </c>
       <c r="B81">
         <v>0</v>
@@ -4554,7 +4686,7 @@
     </row>
     <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
       <c r="B82">
         <v>1</v>
@@ -4562,7 +4694,7 @@
     </row>
     <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B83">
         <v>1</v>
@@ -4570,7 +4702,7 @@
     </row>
     <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
-        <v>270</v>
+        <v>268</v>
       </c>
       <c r="B84">
         <v>1</v>
@@ -4578,7 +4710,7 @@
     </row>
     <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
-        <v>271</v>
+        <v>269</v>
       </c>
       <c r="B85">
         <v>1</v>
@@ -4586,7 +4718,7 @@
     </row>
     <row r="86" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A86" t="s">
-        <v>272</v>
+        <v>270</v>
       </c>
       <c r="B86">
         <v>1</v>
@@ -4594,7 +4726,7 @@
     </row>
     <row r="87" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A87" t="s">
-        <v>273</v>
+        <v>271</v>
       </c>
       <c r="B87">
         <v>1</v>
@@ -4602,7 +4734,7 @@
     </row>
     <row r="88" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A88" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
       <c r="B88">
         <v>1</v>
@@ -4610,7 +4742,7 @@
     </row>
     <row r="89" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A89" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B89">
         <v>0</v>
@@ -4618,7 +4750,7 @@
     </row>
     <row r="90" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A90" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
       <c r="B90">
         <v>1</v>
@@ -4626,7 +4758,7 @@
     </row>
     <row r="91" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A91" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B91">
         <v>1</v>
@@ -4634,7 +4766,7 @@
     </row>
     <row r="92" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A92" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
       <c r="B92">
         <v>0</v>
@@ -4642,7 +4774,7 @@
     </row>
     <row r="93" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A93" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B93">
         <v>0</v>
@@ -4650,7 +4782,7 @@
     </row>
     <row r="94" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A94" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
       <c r="B94">
         <v>1</v>
@@ -4658,7 +4790,7 @@
     </row>
     <row r="95" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A95" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B95">
         <v>1</v>
@@ -4674,7 +4806,7 @@
     </row>
     <row r="97" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A97" t="s">
-        <v>282</v>
+        <v>280</v>
       </c>
       <c r="B97">
         <v>1</v>
@@ -4682,7 +4814,7 @@
     </row>
     <row r="98" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A98" t="s">
-        <v>283</v>
+        <v>281</v>
       </c>
       <c r="B98">
         <v>1</v>
@@ -4690,7 +4822,7 @@
     </row>
     <row r="99" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A99" t="s">
-        <v>284</v>
+        <v>282</v>
       </c>
       <c r="B99">
         <v>1</v>
@@ -4698,7 +4830,7 @@
     </row>
     <row r="100" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A100" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
       <c r="B100">
         <v>1</v>
@@ -4706,7 +4838,7 @@
     </row>
     <row r="101" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A101" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B101">
         <v>0</v>
@@ -4714,7 +4846,7 @@
     </row>
     <row r="102" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A102" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
       <c r="B102">
         <v>0</v>
@@ -4722,7 +4854,7 @@
     </row>
     <row r="103" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A103" t="s">
-        <v>288</v>
+        <v>286</v>
       </c>
       <c r="B103">
         <v>1</v>
@@ -4730,7 +4862,7 @@
     </row>
     <row r="104" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A104" t="s">
-        <v>289</v>
+        <v>287</v>
       </c>
       <c r="B104">
         <v>0</v>
@@ -4738,7 +4870,7 @@
     </row>
     <row r="105" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A105" t="s">
-        <v>290</v>
+        <v>288</v>
       </c>
       <c r="B105">
         <v>0</v>
@@ -4746,7 +4878,7 @@
     </row>
     <row r="106" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A106" t="s">
-        <v>291</v>
+        <v>289</v>
       </c>
       <c r="B106">
         <v>0</v>
@@ -4754,7 +4886,7 @@
     </row>
     <row r="107" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A107" t="s">
-        <v>292</v>
+        <v>290</v>
       </c>
       <c r="B107">
         <v>1</v>
@@ -4762,7 +4894,7 @@
     </row>
     <row r="108" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A108" t="s">
-        <v>293</v>
+        <v>291</v>
       </c>
       <c r="B108">
         <v>1</v>
@@ -4770,7 +4902,7 @@
     </row>
     <row r="109" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A109" t="s">
-        <v>294</v>
+        <v>292</v>
       </c>
       <c r="B109">
         <v>0</v>
@@ -4778,7 +4910,7 @@
     </row>
     <row r="110" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A110" t="s">
-        <v>295</v>
+        <v>293</v>
       </c>
       <c r="B110">
         <v>0</v>
@@ -4786,7 +4918,7 @@
     </row>
     <row r="111" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A111" t="s">
-        <v>296</v>
+        <v>294</v>
       </c>
       <c r="B111">
         <v>0</v>
@@ -4794,7 +4926,7 @@
     </row>
     <row r="112" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A112" t="s">
-        <v>298</v>
+        <v>296</v>
       </c>
       <c r="B112">
         <v>1</v>
@@ -4802,7 +4934,7 @@
     </row>
     <row r="113" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A113" t="s">
-        <v>299</v>
+        <v>297</v>
       </c>
       <c r="B113">
         <v>1</v>
@@ -4810,7 +4942,7 @@
     </row>
     <row r="114" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A114" t="s">
-        <v>300</v>
+        <v>298</v>
       </c>
       <c r="B114">
         <v>0</v>
@@ -4818,7 +4950,7 @@
     </row>
     <row r="115" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A115" t="s">
-        <v>301</v>
+        <v>299</v>
       </c>
       <c r="B115">
         <v>0</v>
@@ -4826,7 +4958,7 @@
     </row>
     <row r="116" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A116" t="s">
-        <v>302</v>
+        <v>300</v>
       </c>
       <c r="B116">
         <v>0</v>
@@ -4834,7 +4966,7 @@
     </row>
     <row r="117" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A117" t="s">
-        <v>303</v>
+        <v>301</v>
       </c>
       <c r="B117">
         <v>0</v>
@@ -4842,7 +4974,7 @@
     </row>
     <row r="118" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A118" t="s">
-        <v>304</v>
+        <v>302</v>
       </c>
       <c r="B118">
         <v>0</v>
@@ -4850,7 +4982,7 @@
     </row>
     <row r="119" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A119" t="s">
-        <v>305</v>
+        <v>303</v>
       </c>
       <c r="B119">
         <v>1</v>
@@ -4858,7 +4990,7 @@
     </row>
     <row r="120" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A120" t="s">
-        <v>306</v>
+        <v>304</v>
       </c>
       <c r="B120">
         <v>1</v>
@@ -4866,7 +4998,7 @@
     </row>
     <row r="121" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A121" t="s">
-        <v>307</v>
+        <v>305</v>
       </c>
       <c r="B121">
         <v>1</v>
@@ -4874,7 +5006,7 @@
     </row>
     <row r="122" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A122" t="s">
-        <v>308</v>
+        <v>306</v>
       </c>
       <c r="B122">
         <v>0</v>
@@ -4882,7 +5014,7 @@
     </row>
     <row r="123" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A123" t="s">
-        <v>309</v>
+        <v>307</v>
       </c>
       <c r="B123">
         <v>1</v>
@@ -4890,7 +5022,7 @@
     </row>
     <row r="124" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A124" t="s">
-        <v>310</v>
+        <v>308</v>
       </c>
       <c r="B124">
         <v>1</v>
@@ -4898,7 +5030,7 @@
     </row>
     <row r="125" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A125" t="s">
-        <v>311</v>
+        <v>309</v>
       </c>
       <c r="B125">
         <v>0</v>
@@ -4906,7 +5038,7 @@
     </row>
     <row r="126" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A126" t="s">
-        <v>312</v>
+        <v>310</v>
       </c>
       <c r="B126">
         <v>0</v>
@@ -4914,7 +5046,7 @@
     </row>
     <row r="127" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A127" t="s">
-        <v>313</v>
+        <v>311</v>
       </c>
       <c r="B127">
         <v>0</v>
@@ -4922,7 +5054,7 @@
     </row>
     <row r="128" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A128" t="s">
-        <v>314</v>
+        <v>312</v>
       </c>
       <c r="B128">
         <v>0</v>
@@ -4930,7 +5062,7 @@
     </row>
     <row r="129" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A129" t="s">
-        <v>315</v>
+        <v>313</v>
       </c>
       <c r="B129">
         <v>0</v>
@@ -4938,7 +5070,7 @@
     </row>
     <row r="130" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A130" t="s">
-        <v>316</v>
+        <v>314</v>
       </c>
       <c r="B130">
         <v>0</v>
@@ -4946,7 +5078,7 @@
     </row>
     <row r="131" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A131" t="s">
-        <v>317</v>
+        <v>315</v>
       </c>
       <c r="B131">
         <v>1</v>
@@ -4954,7 +5086,7 @@
     </row>
     <row r="132" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A132" t="s">
-        <v>318</v>
+        <v>316</v>
       </c>
       <c r="B132">
         <v>0</v>
@@ -4962,7 +5094,7 @@
     </row>
     <row r="133" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A133" t="s">
-        <v>319</v>
+        <v>317</v>
       </c>
       <c r="B133">
         <v>0</v>
@@ -4970,7 +5102,7 @@
     </row>
     <row r="134" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A134" t="s">
-        <v>320</v>
+        <v>318</v>
       </c>
       <c r="B134">
         <v>0</v>
@@ -4978,7 +5110,7 @@
     </row>
     <row r="135" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A135" t="s">
-        <v>321</v>
+        <v>319</v>
       </c>
       <c r="B135">
         <v>0</v>
@@ -4986,7 +5118,7 @@
     </row>
     <row r="136" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A136" t="s">
-        <v>322</v>
+        <v>320</v>
       </c>
       <c r="B136">
         <v>0</v>
@@ -4994,7 +5126,7 @@
     </row>
     <row r="137" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A137" t="s">
-        <v>323</v>
+        <v>321</v>
       </c>
       <c r="B137">
         <v>1</v>
@@ -5002,7 +5134,7 @@
     </row>
     <row r="138" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A138" t="s">
-        <v>324</v>
+        <v>322</v>
       </c>
       <c r="B138">
         <v>1</v>
@@ -5010,7 +5142,7 @@
     </row>
     <row r="139" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A139" t="s">
-        <v>325</v>
+        <v>323</v>
       </c>
       <c r="B139">
         <v>1</v>
@@ -5018,7 +5150,7 @@
     </row>
     <row r="140" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A140" t="s">
-        <v>326</v>
+        <v>324</v>
       </c>
       <c r="B140">
         <v>1</v>
@@ -5026,7 +5158,7 @@
     </row>
     <row r="141" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A141" t="s">
-        <v>327</v>
+        <v>325</v>
       </c>
       <c r="B141">
         <v>1</v>
@@ -5034,7 +5166,7 @@
     </row>
     <row r="142" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A142" t="s">
-        <v>328</v>
+        <v>326</v>
       </c>
       <c r="B142">
         <v>1</v>
@@ -5042,7 +5174,7 @@
     </row>
     <row r="143" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A143" t="s">
-        <v>329</v>
+        <v>327</v>
       </c>
       <c r="B143">
         <v>1</v>
@@ -5050,7 +5182,7 @@
     </row>
     <row r="144" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A144" t="s">
-        <v>330</v>
+        <v>328</v>
       </c>
       <c r="B144">
         <v>1</v>
@@ -5058,7 +5190,7 @@
     </row>
     <row r="145" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A145" t="s">
-        <v>331</v>
+        <v>329</v>
       </c>
       <c r="B145">
         <v>1</v>
@@ -5066,7 +5198,7 @@
     </row>
     <row r="146" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A146" t="s">
-        <v>332</v>
+        <v>330</v>
       </c>
       <c r="B146">
         <v>1</v>
@@ -5074,7 +5206,7 @@
     </row>
     <row r="147" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A147" t="s">
-        <v>333</v>
+        <v>331</v>
       </c>
       <c r="B147">
         <v>1</v>
@@ -5082,7 +5214,7 @@
     </row>
     <row r="148" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A148" t="s">
-        <v>334</v>
+        <v>332</v>
       </c>
       <c r="B148">
         <v>1</v>
@@ -5090,7 +5222,7 @@
     </row>
     <row r="149" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A149" t="s">
-        <v>335</v>
+        <v>333</v>
       </c>
       <c r="B149">
         <v>1</v>
@@ -5098,7 +5230,7 @@
     </row>
     <row r="150" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A150" t="s">
-        <v>336</v>
+        <v>334</v>
       </c>
       <c r="B150">
         <v>1</v>
@@ -5106,7 +5238,7 @@
     </row>
     <row r="151" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A151" t="s">
-        <v>337</v>
+        <v>335</v>
       </c>
       <c r="B151">
         <v>1</v>
@@ -5114,7 +5246,7 @@
     </row>
     <row r="152" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A152" t="s">
-        <v>338</v>
+        <v>336</v>
       </c>
       <c r="B152">
         <v>1</v>
@@ -5122,7 +5254,7 @@
     </row>
     <row r="153" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A153" t="s">
-        <v>339</v>
+        <v>337</v>
       </c>
       <c r="B153">
         <v>0</v>
@@ -5130,7 +5262,7 @@
     </row>
     <row r="154" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A154" t="s">
-        <v>340</v>
+        <v>338</v>
       </c>
       <c r="B154">
         <v>1</v>
@@ -5138,7 +5270,7 @@
     </row>
     <row r="155" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A155" t="s">
-        <v>341</v>
+        <v>339</v>
       </c>
       <c r="B155">
         <v>1</v>
@@ -5146,7 +5278,7 @@
     </row>
     <row r="156" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A156" t="s">
-        <v>342</v>
+        <v>340</v>
       </c>
       <c r="B156">
         <v>0</v>
@@ -5154,7 +5286,7 @@
     </row>
     <row r="157" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A157" t="s">
-        <v>343</v>
+        <v>341</v>
       </c>
       <c r="B157">
         <v>1</v>
@@ -5165,7 +5297,7 @@
     </row>
     <row r="158" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A158" t="s">
-        <v>344</v>
+        <v>342</v>
       </c>
       <c r="B158">
         <v>1</v>
@@ -5173,7 +5305,7 @@
     </row>
     <row r="159" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A159" t="s">
-        <v>345</v>
+        <v>343</v>
       </c>
       <c r="B159">
         <v>1</v>
@@ -5181,7 +5313,7 @@
     </row>
     <row r="160" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A160" t="s">
-        <v>346</v>
+        <v>344</v>
       </c>
       <c r="B160">
         <v>1</v>
@@ -5189,7 +5321,7 @@
     </row>
     <row r="161" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A161" t="s">
-        <v>347</v>
+        <v>345</v>
       </c>
       <c r="B161">
         <v>1</v>
@@ -5197,7 +5329,7 @@
     </row>
     <row r="162" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A162" t="s">
-        <v>348</v>
+        <v>346</v>
       </c>
       <c r="B162">
         <v>1</v>
@@ -5205,7 +5337,7 @@
     </row>
     <row r="163" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A163" t="s">
-        <v>349</v>
+        <v>347</v>
       </c>
       <c r="B163">
         <v>1</v>
@@ -5213,7 +5345,7 @@
     </row>
     <row r="164" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A164" t="s">
-        <v>350</v>
+        <v>348</v>
       </c>
       <c r="B164">
         <v>1</v>
@@ -5221,7 +5353,7 @@
     </row>
     <row r="165" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A165" t="s">
-        <v>351</v>
+        <v>349</v>
       </c>
       <c r="B165">
         <v>1</v>
@@ -5229,7 +5361,7 @@
     </row>
     <row r="166" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A166" t="s">
-        <v>352</v>
+        <v>350</v>
       </c>
       <c r="B166">
         <v>1</v>
@@ -5237,7 +5369,7 @@
     </row>
     <row r="167" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A167" t="s">
-        <v>353</v>
+        <v>351</v>
       </c>
       <c r="B167">
         <v>1</v>
@@ -5245,7 +5377,7 @@
     </row>
     <row r="168" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A168" t="s">
-        <v>354</v>
+        <v>352</v>
       </c>
       <c r="B168">
         <v>1</v>
@@ -5253,7 +5385,7 @@
     </row>
     <row r="169" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A169" t="s">
-        <v>355</v>
+        <v>353</v>
       </c>
       <c r="B169">
         <v>1</v>
@@ -5261,7 +5393,7 @@
     </row>
     <row r="170" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A170" t="s">
-        <v>356</v>
+        <v>354</v>
       </c>
       <c r="B170">
         <v>1</v>
@@ -5269,7 +5401,7 @@
     </row>
     <row r="171" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A171" t="s">
-        <v>357</v>
+        <v>355</v>
       </c>
       <c r="B171">
         <v>1</v>
@@ -5277,7 +5409,7 @@
     </row>
     <row r="172" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A172" t="s">
-        <v>358</v>
+        <v>356</v>
       </c>
       <c r="B172">
         <v>1</v>
@@ -5285,7 +5417,7 @@
     </row>
     <row r="173" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A173" t="s">
-        <v>359</v>
+        <v>357</v>
       </c>
       <c r="B173">
         <v>1</v>
@@ -5293,7 +5425,7 @@
     </row>
     <row r="174" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A174" t="s">
-        <v>360</v>
+        <v>358</v>
       </c>
       <c r="B174">
         <v>1</v>
@@ -5301,7 +5433,7 @@
     </row>
     <row r="175" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A175" t="s">
-        <v>361</v>
+        <v>359</v>
       </c>
       <c r="B175">
         <v>1</v>
@@ -5309,7 +5441,7 @@
     </row>
     <row r="176" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A176" t="s">
-        <v>362</v>
+        <v>360</v>
       </c>
       <c r="B176">
         <v>1</v>
@@ -5317,7 +5449,7 @@
     </row>
     <row r="177" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A177" t="s">
-        <v>190</v>
+        <v>188</v>
       </c>
       <c r="B177">
         <v>1</v>
@@ -5325,7 +5457,7 @@
     </row>
     <row r="178" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A178" t="s">
-        <v>363</v>
+        <v>361</v>
       </c>
       <c r="B178">
         <v>1</v>
@@ -5333,7 +5465,7 @@
     </row>
     <row r="179" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A179" t="s">
-        <v>364</v>
+        <v>362</v>
       </c>
       <c r="B179">
         <v>1</v>
@@ -5341,7 +5473,7 @@
     </row>
     <row r="180" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A180" t="s">
-        <v>365</v>
+        <v>363</v>
       </c>
       <c r="B180">
         <v>1</v>
@@ -5349,7 +5481,7 @@
     </row>
     <row r="181" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A181" t="s">
-        <v>366</v>
+        <v>364</v>
       </c>
       <c r="B181">
         <v>1</v>
@@ -5357,7 +5489,7 @@
     </row>
     <row r="182" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A182" t="s">
-        <v>367</v>
+        <v>365</v>
       </c>
       <c r="B182">
         <v>1</v>
@@ -5365,7 +5497,7 @@
     </row>
     <row r="183" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A183" t="s">
-        <v>368</v>
+        <v>366</v>
       </c>
       <c r="B183">
         <v>1</v>
@@ -5373,7 +5505,7 @@
     </row>
     <row r="184" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A184" t="s">
-        <v>369</v>
+        <v>367</v>
       </c>
       <c r="B184">
         <v>0</v>
@@ -5381,7 +5513,7 @@
     </row>
     <row r="185" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A185" t="s">
-        <v>370</v>
+        <v>368</v>
       </c>
       <c r="B185">
         <v>1</v>
@@ -5389,7 +5521,7 @@
     </row>
     <row r="186" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A186" t="s">
-        <v>371</v>
+        <v>369</v>
       </c>
       <c r="B186">
         <v>1</v>
@@ -5397,7 +5529,7 @@
     </row>
     <row r="187" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A187" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B187">
         <v>1</v>
@@ -5405,7 +5537,7 @@
     </row>
     <row r="188" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A188" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B188">
         <v>0</v>
@@ -5413,7 +5545,7 @@
     </row>
     <row r="189" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A189" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B189">
         <v>1</v>
@@ -5429,7 +5561,7 @@
     </row>
     <row r="191" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A191" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B191">
         <v>1</v>
@@ -5437,7 +5569,7 @@
     </row>
     <row r="192" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A192" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="B192">
         <v>1</v>
@@ -5445,7 +5577,7 @@
     </row>
     <row r="193" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A193" t="s">
-        <v>377</v>
+        <v>375</v>
       </c>
       <c r="B193">
         <v>1</v>
@@ -5453,7 +5585,7 @@
     </row>
     <row r="194" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A194" t="s">
-        <v>378</v>
+        <v>376</v>
       </c>
       <c r="B194">
         <v>1</v>
@@ -5461,7 +5593,7 @@
     </row>
     <row r="195" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A195" t="s">
-        <v>379</v>
+        <v>377</v>
       </c>
       <c r="B195">
         <v>1</v>
@@ -5469,7 +5601,7 @@
     </row>
     <row r="196" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A196" t="s">
-        <v>380</v>
+        <v>378</v>
       </c>
       <c r="B196">
         <v>1</v>
@@ -5477,7 +5609,7 @@
     </row>
     <row r="197" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A197" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="B197">
         <v>1</v>
@@ -5485,7 +5617,7 @@
     </row>
     <row r="198" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A198" t="s">
-        <v>382</v>
+        <v>380</v>
       </c>
       <c r="B198">
         <v>1</v>
@@ -5493,7 +5625,7 @@
     </row>
     <row r="199" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A199" t="s">
-        <v>383</v>
+        <v>381</v>
       </c>
       <c r="B199">
         <v>1</v>
@@ -5501,7 +5633,7 @@
     </row>
     <row r="200" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A200" t="s">
-        <v>384</v>
+        <v>382</v>
       </c>
       <c r="B200">
         <v>0</v>
@@ -5509,7 +5641,7 @@
     </row>
     <row r="201" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A201" t="s">
-        <v>385</v>
+        <v>383</v>
       </c>
       <c r="B201">
         <v>1</v>
@@ -5517,7 +5649,7 @@
     </row>
     <row r="202" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A202" t="s">
-        <v>386</v>
+        <v>384</v>
       </c>
       <c r="B202">
         <v>1</v>
@@ -5525,7 +5657,7 @@
     </row>
     <row r="203" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A203" t="s">
-        <v>387</v>
+        <v>385</v>
       </c>
       <c r="B203">
         <v>1</v>
@@ -5533,7 +5665,7 @@
     </row>
     <row r="204" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A204" t="s">
-        <v>388</v>
+        <v>386</v>
       </c>
       <c r="B204">
         <v>0</v>
@@ -5541,7 +5673,7 @@
     </row>
     <row r="205" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A205" t="s">
-        <v>389</v>
+        <v>387</v>
       </c>
       <c r="B205">
         <v>1</v>
@@ -5549,7 +5681,7 @@
     </row>
     <row r="206" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A206" t="s">
-        <v>390</v>
+        <v>388</v>
       </c>
       <c r="B206">
         <v>1</v>
@@ -5557,7 +5689,7 @@
     </row>
     <row r="207" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A207" t="s">
-        <v>391</v>
+        <v>389</v>
       </c>
       <c r="B207">
         <v>1</v>
@@ -5565,7 +5697,7 @@
     </row>
     <row r="208" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A208" t="s">
-        <v>392</v>
+        <v>390</v>
       </c>
       <c r="B208">
         <v>1</v>
@@ -5573,7 +5705,7 @@
     </row>
     <row r="209" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A209" t="s">
-        <v>393</v>
+        <v>391</v>
       </c>
       <c r="B209">
         <v>1</v>
@@ -5581,7 +5713,7 @@
     </row>
     <row r="210" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A210" t="s">
-        <v>394</v>
+        <v>392</v>
       </c>
       <c r="B210">
         <v>1</v>
@@ -5589,7 +5721,7 @@
     </row>
     <row r="211" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A211" t="s">
-        <v>395</v>
+        <v>393</v>
       </c>
       <c r="B211">
         <v>1</v>
@@ -5597,7 +5729,7 @@
     </row>
     <row r="212" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A212" t="s">
-        <v>396</v>
+        <v>394</v>
       </c>
       <c r="B212">
         <v>1</v>
@@ -5605,7 +5737,7 @@
     </row>
     <row r="213" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A213" t="s">
-        <v>397</v>
+        <v>395</v>
       </c>
       <c r="B213">
         <v>1</v>
@@ -5613,7 +5745,7 @@
     </row>
     <row r="214" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A214" t="s">
-        <v>398</v>
+        <v>396</v>
       </c>
       <c r="B214">
         <v>1</v>
@@ -5621,7 +5753,7 @@
     </row>
     <row r="215" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A215" t="s">
-        <v>399</v>
+        <v>397</v>
       </c>
       <c r="B215">
         <v>1</v>
@@ -5629,7 +5761,7 @@
     </row>
     <row r="216" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A216" t="s">
-        <v>400</v>
+        <v>398</v>
       </c>
       <c r="B216">
         <v>1</v>
@@ -5637,7 +5769,7 @@
     </row>
     <row r="217" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A217" t="s">
-        <v>401</v>
+        <v>399</v>
       </c>
       <c r="B217">
         <v>1</v>
@@ -5645,7 +5777,7 @@
     </row>
     <row r="218" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A218" t="s">
-        <v>402</v>
+        <v>400</v>
       </c>
       <c r="B218">
         <v>1</v>
@@ -5653,7 +5785,7 @@
     </row>
     <row r="219" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A219" t="s">
-        <v>403</v>
+        <v>401</v>
       </c>
       <c r="B219">
         <v>1</v>
@@ -5661,7 +5793,7 @@
     </row>
     <row r="220" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A220" t="s">
-        <v>404</v>
+        <v>402</v>
       </c>
       <c r="B220">
         <v>1</v>
@@ -5669,7 +5801,7 @@
     </row>
     <row r="221" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A221" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="B221">
         <v>0</v>
@@ -5677,7 +5809,7 @@
     </row>
     <row r="222" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A222" t="s">
-        <v>406</v>
+        <v>404</v>
       </c>
       <c r="B222">
         <v>0</v>
@@ -5685,7 +5817,7 @@
     </row>
     <row r="223" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A223" t="s">
-        <v>407</v>
+        <v>405</v>
       </c>
       <c r="B223">
         <v>0</v>
@@ -5701,7 +5833,7 @@
     </row>
     <row r="225" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A225" t="s">
-        <v>408</v>
+        <v>406</v>
       </c>
       <c r="B225">
         <v>1</v>
@@ -5709,7 +5841,7 @@
     </row>
     <row r="226" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A226" t="s">
-        <v>409</v>
+        <v>407</v>
       </c>
       <c r="B226">
         <v>1</v>
@@ -5717,7 +5849,7 @@
     </row>
     <row r="227" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A227" t="s">
-        <v>410</v>
+        <v>408</v>
       </c>
       <c r="B227">
         <v>1</v>
@@ -5733,7 +5865,7 @@
     </row>
     <row r="229" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A229" t="s">
-        <v>411</v>
+        <v>409</v>
       </c>
       <c r="B229">
         <v>1</v>
@@ -5741,7 +5873,7 @@
     </row>
     <row r="230" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A230" t="s">
-        <v>419</v>
+        <v>417</v>
       </c>
       <c r="B230">
         <v>1</v>
@@ -5749,7 +5881,7 @@
     </row>
     <row r="231" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A231" t="s">
-        <v>420</v>
+        <v>418</v>
       </c>
       <c r="B231">
         <v>1</v>
@@ -5757,7 +5889,7 @@
     </row>
     <row r="232" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A232" t="s">
-        <v>421</v>
+        <v>419</v>
       </c>
       <c r="B232">
         <v>1</v>
@@ -5765,7 +5897,7 @@
     </row>
     <row r="233" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A233" t="s">
-        <v>422</v>
+        <v>420</v>
       </c>
       <c r="B233">
         <v>1</v>
@@ -5773,7 +5905,7 @@
     </row>
     <row r="234" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A234" t="s">
-        <v>423</v>
+        <v>421</v>
       </c>
       <c r="B234">
         <v>1</v>
@@ -5781,7 +5913,7 @@
     </row>
     <row r="235" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A235" t="s">
-        <v>424</v>
+        <v>422</v>
       </c>
       <c r="B235">
         <v>1</v>
@@ -5789,7 +5921,7 @@
     </row>
     <row r="236" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A236" t="s">
-        <v>425</v>
+        <v>423</v>
       </c>
       <c r="B236">
         <v>1</v>
@@ -5797,7 +5929,7 @@
     </row>
     <row r="237" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A237" t="s">
-        <v>426</v>
+        <v>424</v>
       </c>
       <c r="B237">
         <v>1</v>
@@ -5805,7 +5937,7 @@
     </row>
     <row r="238" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A238" t="s">
-        <v>427</v>
+        <v>425</v>
       </c>
       <c r="B238">
         <v>1</v>
@@ -5813,7 +5945,7 @@
     </row>
     <row r="239" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A239" t="s">
-        <v>428</v>
+        <v>426</v>
       </c>
       <c r="B239">
         <v>0</v>
@@ -5821,7 +5953,7 @@
     </row>
     <row r="240" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A240" t="s">
-        <v>429</v>
+        <v>427</v>
       </c>
       <c r="B240">
         <v>1</v>
@@ -5829,7 +5961,7 @@
     </row>
     <row r="241" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A241" t="s">
-        <v>430</v>
+        <v>428</v>
       </c>
       <c r="B241">
         <v>1</v>
@@ -5837,7 +5969,7 @@
     </row>
     <row r="242" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A242" t="s">
-        <v>431</v>
+        <v>429</v>
       </c>
       <c r="B242">
         <v>1</v>
@@ -5845,7 +5977,7 @@
     </row>
     <row r="243" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A243" t="s">
-        <v>432</v>
+        <v>430</v>
       </c>
       <c r="B243">
         <v>1</v>
@@ -5853,7 +5985,7 @@
     </row>
     <row r="244" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A244" t="s">
-        <v>433</v>
+        <v>431</v>
       </c>
       <c r="B244">
         <v>0</v>
@@ -5864,7 +5996,7 @@
     </row>
     <row r="245" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A245" t="s">
-        <v>434</v>
+        <v>432</v>
       </c>
       <c r="B245">
         <v>1</v>
@@ -5872,7 +6004,7 @@
     </row>
     <row r="246" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A246" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="B246">
         <v>1</v>
@@ -5880,7 +6012,7 @@
     </row>
     <row r="247" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A247" t="s">
-        <v>436</v>
+        <v>434</v>
       </c>
       <c r="B247">
         <v>1</v>
@@ -5888,7 +6020,7 @@
     </row>
     <row r="248" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A248" t="s">
-        <v>437</v>
+        <v>435</v>
       </c>
       <c r="B248">
         <v>1</v>
@@ -5896,7 +6028,7 @@
     </row>
     <row r="249" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A249" t="s">
-        <v>438</v>
+        <v>436</v>
       </c>
       <c r="B249">
         <v>1</v>
@@ -5904,7 +6036,7 @@
     </row>
     <row r="250" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A250" t="s">
-        <v>439</v>
+        <v>437</v>
       </c>
       <c r="B250">
         <v>1</v>
@@ -5912,7 +6044,7 @@
     </row>
     <row r="251" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A251" t="s">
-        <v>440</v>
+        <v>438</v>
       </c>
       <c r="B251">
         <v>1</v>
@@ -5920,7 +6052,7 @@
     </row>
     <row r="252" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A252" t="s">
-        <v>441</v>
+        <v>439</v>
       </c>
       <c r="B252">
         <v>1</v>
@@ -5928,7 +6060,7 @@
     </row>
     <row r="253" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A253" t="s">
-        <v>442</v>
+        <v>440</v>
       </c>
       <c r="B253">
         <v>1</v>
@@ -5936,7 +6068,7 @@
     </row>
     <row r="254" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A254" t="s">
-        <v>443</v>
+        <v>441</v>
       </c>
       <c r="B254">
         <v>1</v>
@@ -5944,7 +6076,7 @@
     </row>
     <row r="255" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A255" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="B255">
         <v>1</v>
@@ -5952,7 +6084,7 @@
     </row>
     <row r="256" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A256" t="s">
-        <v>445</v>
+        <v>443</v>
       </c>
       <c r="B256">
         <v>1</v>
@@ -5960,7 +6092,7 @@
     </row>
     <row r="257" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A257" t="s">
-        <v>446</v>
+        <v>444</v>
       </c>
       <c r="B257">
         <v>0</v>
@@ -5968,7 +6100,7 @@
     </row>
     <row r="258" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A258" t="s">
-        <v>447</v>
+        <v>445</v>
       </c>
       <c r="B258">
         <v>0</v>
@@ -5976,7 +6108,7 @@
     </row>
     <row r="259" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A259" t="s">
-        <v>448</v>
+        <v>446</v>
       </c>
       <c r="B259">
         <v>0</v>
@@ -5984,7 +6116,7 @@
     </row>
     <row r="260" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A260" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B260">
         <v>0</v>
@@ -5992,7 +6124,7 @@
     </row>
     <row r="261" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A261" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="B261">
         <v>0</v>
@@ -6000,7 +6132,7 @@
     </row>
     <row r="262" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A262" t="s">
-        <v>451</v>
+        <v>449</v>
       </c>
       <c r="B262">
         <v>0</v>
@@ -6008,7 +6140,7 @@
     </row>
     <row r="263" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A263" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="B263">
         <v>0</v>
@@ -6016,7 +6148,7 @@
     </row>
     <row r="264" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A264" t="s">
-        <v>453</v>
+        <v>451</v>
       </c>
       <c r="B264">
         <v>1</v>
@@ -6024,7 +6156,7 @@
     </row>
     <row r="265" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A265" t="s">
-        <v>454</v>
+        <v>452</v>
       </c>
       <c r="B265">
         <v>1</v>
@@ -6032,7 +6164,7 @@
     </row>
     <row r="266" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A266" t="s">
-        <v>455</v>
+        <v>453</v>
       </c>
       <c r="B266">
         <v>1</v>
@@ -6040,7 +6172,7 @@
     </row>
     <row r="267" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A267" t="s">
-        <v>456</v>
+        <v>454</v>
       </c>
       <c r="B267">
         <v>1</v>
@@ -6048,7 +6180,7 @@
     </row>
     <row r="268" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A268" t="s">
-        <v>457</v>
+        <v>455</v>
       </c>
       <c r="B268">
         <v>1</v>
@@ -6056,7 +6188,7 @@
     </row>
     <row r="269" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A269" t="s">
-        <v>458</v>
+        <v>456</v>
       </c>
       <c r="B269">
         <v>1</v>
@@ -6064,7 +6196,7 @@
     </row>
     <row r="270" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A270" t="s">
-        <v>459</v>
+        <v>457</v>
       </c>
       <c r="B270">
         <v>1</v>
@@ -6072,7 +6204,7 @@
     </row>
     <row r="271" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A271" t="s">
-        <v>460</v>
+        <v>458</v>
       </c>
       <c r="B271">
         <v>1</v>
@@ -6080,7 +6212,7 @@
     </row>
     <row r="272" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A272" t="s">
-        <v>461</v>
+        <v>459</v>
       </c>
       <c r="B272">
         <v>1</v>
@@ -6088,7 +6220,7 @@
     </row>
     <row r="273" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A273" t="s">
-        <v>462</v>
+        <v>460</v>
       </c>
       <c r="B273">
         <v>1</v>
@@ -6096,7 +6228,7 @@
     </row>
     <row r="274" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A274" t="s">
-        <v>463</v>
+        <v>461</v>
       </c>
       <c r="B274">
         <v>1</v>
@@ -6104,7 +6236,7 @@
     </row>
     <row r="275" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A275" t="s">
-        <v>464</v>
+        <v>462</v>
       </c>
       <c r="B275">
         <v>1</v>
@@ -6112,7 +6244,7 @@
     </row>
     <row r="276" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A276" t="s">
-        <v>465</v>
+        <v>463</v>
       </c>
       <c r="B276">
         <v>1</v>
@@ -6120,7 +6252,7 @@
     </row>
     <row r="277" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A277" t="s">
-        <v>466</v>
+        <v>464</v>
       </c>
       <c r="B277">
         <v>1</v>
@@ -6128,7 +6260,7 @@
     </row>
     <row r="278" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A278" t="s">
-        <v>467</v>
+        <v>465</v>
       </c>
       <c r="B278">
         <v>1</v>
@@ -6136,7 +6268,7 @@
     </row>
     <row r="279" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A279" t="s">
-        <v>468</v>
+        <v>466</v>
       </c>
       <c r="B279">
         <v>1</v>
@@ -6144,7 +6276,7 @@
     </row>
     <row r="280" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A280" t="s">
-        <v>412</v>
+        <v>410</v>
       </c>
       <c r="B280">
         <v>1</v>
@@ -6152,7 +6284,7 @@
     </row>
     <row r="281" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A281" t="s">
-        <v>413</v>
+        <v>411</v>
       </c>
       <c r="B281">
         <v>1</v>
@@ -6160,7 +6292,7 @@
     </row>
     <row r="282" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A282" t="s">
-        <v>414</v>
+        <v>412</v>
       </c>
       <c r="B282">
         <v>1</v>
@@ -6168,7 +6300,7 @@
     </row>
     <row r="283" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A283" t="s">
-        <v>415</v>
+        <v>413</v>
       </c>
       <c r="B283">
         <v>1</v>
@@ -6176,7 +6308,7 @@
     </row>
     <row r="284" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A284" t="s">
-        <v>416</v>
+        <v>414</v>
       </c>
       <c r="B284">
         <v>0</v>
@@ -6184,7 +6316,7 @@
     </row>
     <row r="285" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A285" t="s">
-        <v>417</v>
+        <v>415</v>
       </c>
       <c r="B285">
         <v>1</v>
@@ -6192,7 +6324,7 @@
     </row>
     <row r="286" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A286" t="s">
-        <v>469</v>
+        <v>467</v>
       </c>
       <c r="B286">
         <v>0</v>
@@ -6200,7 +6332,7 @@
     </row>
     <row r="287" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A287" t="s">
-        <v>470</v>
+        <v>468</v>
       </c>
       <c r="B287">
         <v>0</v>
@@ -6208,7 +6340,7 @@
     </row>
     <row r="288" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A288" t="s">
-        <v>471</v>
+        <v>469</v>
       </c>
       <c r="B288">
         <v>0</v>
@@ -6216,7 +6348,7 @@
     </row>
     <row r="289" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A289" t="s">
-        <v>472</v>
+        <v>470</v>
       </c>
       <c r="B289">
         <v>1</v>
@@ -6224,7 +6356,7 @@
     </row>
     <row r="290" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A290" t="s">
-        <v>473</v>
+        <v>471</v>
       </c>
       <c r="B290">
         <v>1</v>
@@ -6232,7 +6364,7 @@
     </row>
     <row r="291" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A291" t="s">
-        <v>474</v>
+        <v>472</v>
       </c>
       <c r="B291">
         <v>1</v>
@@ -6240,7 +6372,7 @@
     </row>
     <row r="292" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A292" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="B292">
         <v>1</v>
@@ -6248,7 +6380,7 @@
     </row>
     <row r="293" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A293" t="s">
-        <v>476</v>
+        <v>474</v>
       </c>
       <c r="B293">
         <v>1</v>
@@ -6256,7 +6388,7 @@
     </row>
     <row r="294" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A294" t="s">
-        <v>477</v>
+        <v>475</v>
       </c>
       <c r="B294">
         <v>0</v>
@@ -6264,7 +6396,7 @@
     </row>
     <row r="295" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A295" t="s">
-        <v>478</v>
+        <v>476</v>
       </c>
       <c r="B295">
         <v>0</v>
@@ -6272,7 +6404,7 @@
     </row>
     <row r="296" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A296" t="s">
-        <v>479</v>
+        <v>477</v>
       </c>
       <c r="B296">
         <v>0</v>
@@ -6280,7 +6412,7 @@
     </row>
     <row r="297" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A297" t="s">
-        <v>480</v>
+        <v>478</v>
       </c>
       <c r="B297">
         <v>1</v>
@@ -6296,7 +6428,7 @@
     </row>
     <row r="299" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A299" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B299">
         <v>1</v>
@@ -6304,7 +6436,7 @@
     </row>
     <row r="300" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A300" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B300">
         <v>1</v>
@@ -6312,7 +6444,7 @@
     </row>
     <row r="301" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A301" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B301">
         <v>1</v>
@@ -6320,7 +6452,7 @@
     </row>
     <row r="302" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A302" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B302">
         <v>1</v>
@@ -6328,7 +6460,7 @@
     </row>
     <row r="303" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A303" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B303">
         <v>0</v>
@@ -6336,7 +6468,7 @@
     </row>
     <row r="304" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A304" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B304">
         <v>1</v>
@@ -6344,7 +6476,7 @@
     </row>
     <row r="305" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A305" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B305">
         <v>0</v>
@@ -6352,7 +6484,7 @@
     </row>
     <row r="306" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A306" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="B306">
         <v>0</v>
@@ -6360,7 +6492,7 @@
     </row>
     <row r="307" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A307" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="B307">
         <v>1</v>
@@ -6368,7 +6500,7 @@
     </row>
     <row r="308" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A308" t="s">
-        <v>490</v>
+        <v>488</v>
       </c>
       <c r="B308">
         <v>0</v>
@@ -6376,7 +6508,7 @@
     </row>
     <row r="309" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A309" t="s">
-        <v>491</v>
+        <v>489</v>
       </c>
       <c r="B309">
         <v>0</v>
@@ -6384,7 +6516,7 @@
     </row>
     <row r="310" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A310" t="s">
-        <v>492</v>
+        <v>490</v>
       </c>
       <c r="B310">
         <v>1</v>
@@ -6392,7 +6524,7 @@
     </row>
     <row r="311" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A311" t="s">
-        <v>493</v>
+        <v>491</v>
       </c>
       <c r="B311">
         <v>1</v>
@@ -6400,7 +6532,7 @@
     </row>
     <row r="312" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A312" t="s">
-        <v>494</v>
+        <v>492</v>
       </c>
       <c r="B312">
         <v>1</v>
@@ -6408,7 +6540,7 @@
     </row>
     <row r="313" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A313" t="s">
-        <v>495</v>
+        <v>493</v>
       </c>
       <c r="B313">
         <v>1</v>
@@ -6416,7 +6548,7 @@
     </row>
     <row r="314" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A314" t="s">
-        <v>496</v>
+        <v>494</v>
       </c>
       <c r="B314">
         <v>1</v>
@@ -6424,7 +6556,7 @@
     </row>
     <row r="315" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A315" t="s">
-        <v>497</v>
+        <v>495</v>
       </c>
       <c r="B315">
         <v>1</v>
@@ -6432,7 +6564,7 @@
     </row>
     <row r="316" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A316" t="s">
-        <v>498</v>
+        <v>496</v>
       </c>
       <c r="B316">
         <v>1</v>
@@ -6440,7 +6572,7 @@
     </row>
     <row r="317" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A317" t="s">
-        <v>499</v>
+        <v>497</v>
       </c>
       <c r="B317">
         <v>1</v>
@@ -6448,7 +6580,7 @@
     </row>
     <row r="318" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A318" t="s">
-        <v>500</v>
+        <v>498</v>
       </c>
       <c r="B318">
         <v>1</v>
@@ -6456,7 +6588,7 @@
     </row>
     <row r="319" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A319" t="s">
-        <v>501</v>
+        <v>499</v>
       </c>
       <c r="B319">
         <v>1</v>
@@ -6464,7 +6596,7 @@
     </row>
     <row r="320" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A320" t="s">
-        <v>502</v>
+        <v>500</v>
       </c>
       <c r="B320">
         <v>1</v>
@@ -6472,7 +6604,7 @@
     </row>
     <row r="321" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A321" t="s">
-        <v>503</v>
+        <v>501</v>
       </c>
       <c r="B321">
         <v>1</v>
@@ -6480,7 +6612,7 @@
     </row>
     <row r="322" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A322" t="s">
-        <v>504</v>
+        <v>502</v>
       </c>
       <c r="B322">
         <v>1</v>
@@ -6496,7 +6628,7 @@
     </row>
     <row r="324" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A324" t="s">
-        <v>505</v>
+        <v>503</v>
       </c>
       <c r="B324">
         <v>1</v>
@@ -6504,7 +6636,7 @@
     </row>
     <row r="325" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A325" t="s">
-        <v>506</v>
+        <v>504</v>
       </c>
       <c r="B325">
         <v>1</v>
@@ -6512,7 +6644,7 @@
     </row>
     <row r="326" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A326" t="s">
-        <v>507</v>
+        <v>505</v>
       </c>
       <c r="B326">
         <v>0</v>
@@ -6520,7 +6652,7 @@
     </row>
     <row r="327" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A327" t="s">
-        <v>508</v>
+        <v>506</v>
       </c>
       <c r="B327">
         <v>1</v>
@@ -6531,7 +6663,7 @@
     </row>
     <row r="328" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A328" t="s">
-        <v>509</v>
+        <v>507</v>
       </c>
       <c r="B328">
         <v>1</v>
@@ -6539,7 +6671,7 @@
     </row>
     <row r="329" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A329" t="s">
-        <v>510</v>
+        <v>508</v>
       </c>
       <c r="B329">
         <v>1</v>
@@ -6547,7 +6679,7 @@
     </row>
     <row r="330" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A330" t="s">
-        <v>511</v>
+        <v>509</v>
       </c>
       <c r="B330">
         <v>1</v>
@@ -6558,7 +6690,7 @@
     </row>
     <row r="331" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A331" t="s">
-        <v>512</v>
+        <v>510</v>
       </c>
       <c r="B331">
         <v>1</v>
@@ -6566,7 +6698,7 @@
     </row>
     <row r="332" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A332" t="s">
-        <v>513</v>
+        <v>511</v>
       </c>
       <c r="B332">
         <v>1</v>
@@ -6574,7 +6706,7 @@
     </row>
     <row r="333" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A333" t="s">
-        <v>514</v>
+        <v>512</v>
       </c>
       <c r="B333">
         <v>1</v>
@@ -6582,7 +6714,7 @@
     </row>
     <row r="334" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A334" t="s">
-        <v>515</v>
+        <v>513</v>
       </c>
       <c r="B334">
         <v>1</v>
@@ -6590,7 +6722,7 @@
     </row>
     <row r="335" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A335" t="s">
-        <v>516</v>
+        <v>514</v>
       </c>
       <c r="B335">
         <v>1</v>
@@ -6598,7 +6730,7 @@
     </row>
     <row r="336" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A336" t="s">
-        <v>517</v>
+        <v>515</v>
       </c>
       <c r="B336">
         <v>1</v>
@@ -6606,7 +6738,7 @@
     </row>
     <row r="337" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A337" t="s">
-        <v>518</v>
+        <v>516</v>
       </c>
       <c r="B337">
         <v>1</v>
@@ -6614,7 +6746,7 @@
     </row>
     <row r="338" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A338" t="s">
-        <v>519</v>
+        <v>517</v>
       </c>
       <c r="B338">
         <v>0</v>
@@ -6622,7 +6754,7 @@
     </row>
     <row r="339" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A339" t="s">
-        <v>520</v>
+        <v>518</v>
       </c>
       <c r="B339">
         <v>0</v>
@@ -6630,7 +6762,7 @@
     </row>
     <row r="340" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A340" t="s">
-        <v>521</v>
+        <v>519</v>
       </c>
       <c r="B340">
         <v>1</v>
@@ -6638,7 +6770,7 @@
     </row>
     <row r="341" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A341" t="s">
-        <v>522</v>
+        <v>520</v>
       </c>
       <c r="B341">
         <v>1</v>
@@ -6646,7 +6778,7 @@
     </row>
     <row r="342" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A342" t="s">
-        <v>523</v>
+        <v>521</v>
       </c>
       <c r="B342">
         <v>1</v>
@@ -6654,7 +6786,7 @@
     </row>
     <row r="343" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A343" t="s">
-        <v>524</v>
+        <v>522</v>
       </c>
       <c r="B343">
         <v>1</v>
@@ -6662,7 +6794,7 @@
     </row>
     <row r="344" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A344" t="s">
-        <v>525</v>
+        <v>523</v>
       </c>
       <c r="B344">
         <v>1</v>
@@ -6678,7 +6810,7 @@
     </row>
     <row r="346" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A346" t="s">
-        <v>526</v>
+        <v>524</v>
       </c>
       <c r="B346">
         <v>1</v>
@@ -6686,7 +6818,7 @@
     </row>
     <row r="347" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A347" t="s">
-        <v>527</v>
+        <v>525</v>
       </c>
       <c r="B347">
         <v>1</v>
@@ -6694,7 +6826,7 @@
     </row>
     <row r="348" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A348" t="s">
-        <v>528</v>
+        <v>526</v>
       </c>
       <c r="B348">
         <v>1</v>
@@ -6702,7 +6834,7 @@
     </row>
     <row r="349" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A349" t="s">
-        <v>529</v>
+        <v>527</v>
       </c>
       <c r="B349">
         <v>1</v>
@@ -6718,7 +6850,7 @@
     </row>
     <row r="351" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A351" t="s">
-        <v>530</v>
+        <v>528</v>
       </c>
       <c r="B351">
         <v>0</v>
@@ -6734,7 +6866,7 @@
     </row>
     <row r="353" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A353" t="s">
-        <v>531</v>
+        <v>529</v>
       </c>
       <c r="B353">
         <v>1</v>
@@ -6742,7 +6874,7 @@
     </row>
     <row r="354" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A354" t="s">
-        <v>532</v>
+        <v>530</v>
       </c>
       <c r="B354">
         <v>1</v>
@@ -6750,7 +6882,7 @@
     </row>
     <row r="355" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A355" t="s">
-        <v>533</v>
+        <v>531</v>
       </c>
       <c r="B355">
         <v>1</v>
@@ -6758,7 +6890,7 @@
     </row>
     <row r="356" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A356" t="s">
-        <v>534</v>
+        <v>532</v>
       </c>
       <c r="B356">
         <v>1</v>
@@ -6774,7 +6906,7 @@
     </row>
     <row r="358" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A358" t="s">
-        <v>535</v>
+        <v>533</v>
       </c>
       <c r="B358">
         <v>1</v>
@@ -6782,7 +6914,7 @@
     </row>
     <row r="359" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A359" t="s">
-        <v>536</v>
+        <v>534</v>
       </c>
       <c r="B359">
         <v>1</v>
@@ -6790,7 +6922,7 @@
     </row>
     <row r="360" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A360" t="s">
-        <v>537</v>
+        <v>535</v>
       </c>
       <c r="B360">
         <v>1</v>
@@ -6798,7 +6930,7 @@
     </row>
     <row r="361" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A361" t="s">
-        <v>538</v>
+        <v>536</v>
       </c>
       <c r="B361">
         <v>1</v>
@@ -6806,7 +6938,7 @@
     </row>
     <row r="362" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A362" t="s">
-        <v>539</v>
+        <v>537</v>
       </c>
       <c r="B362">
         <v>1</v>
@@ -6814,7 +6946,7 @@
     </row>
     <row r="363" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A363" t="s">
-        <v>540</v>
+        <v>538</v>
       </c>
       <c r="B363">
         <v>1</v>
@@ -6822,7 +6954,7 @@
     </row>
     <row r="364" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A364" t="s">
-        <v>541</v>
+        <v>539</v>
       </c>
       <c r="B364">
         <v>0</v>
@@ -6830,7 +6962,7 @@
     </row>
     <row r="365" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A365" t="s">
-        <v>542</v>
+        <v>540</v>
       </c>
       <c r="B365">
         <v>0</v>
@@ -6838,7 +6970,7 @@
     </row>
     <row r="366" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A366" t="s">
-        <v>543</v>
+        <v>541</v>
       </c>
       <c r="B366">
         <v>1</v>
@@ -6846,7 +6978,7 @@
     </row>
     <row r="367" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A367" t="s">
-        <v>544</v>
+        <v>542</v>
       </c>
       <c r="B367">
         <v>0</v>
@@ -6854,7 +6986,7 @@
     </row>
     <row r="368" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A368" t="s">
-        <v>545</v>
+        <v>543</v>
       </c>
       <c r="B368">
         <v>1</v>
@@ -6862,7 +6994,7 @@
     </row>
     <row r="369" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A369" t="s">
-        <v>546</v>
+        <v>544</v>
       </c>
       <c r="B369">
         <v>1</v>
@@ -6886,7 +7018,7 @@
     </row>
     <row r="372" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A372" t="s">
-        <v>547</v>
+        <v>545</v>
       </c>
       <c r="B372">
         <v>1</v>
@@ -6894,7 +7026,7 @@
     </row>
     <row r="373" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A373" t="s">
-        <v>548</v>
+        <v>546</v>
       </c>
       <c r="B373">
         <v>0</v>
@@ -6902,7 +7034,7 @@
     </row>
     <row r="374" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A374" t="s">
-        <v>550</v>
+        <v>548</v>
       </c>
       <c r="B374">
         <v>1</v>
@@ -6910,7 +7042,7 @@
     </row>
     <row r="375" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A375" t="s">
-        <v>551</v>
+        <v>549</v>
       </c>
       <c r="B375">
         <v>0</v>
@@ -6918,7 +7050,7 @@
     </row>
     <row r="376" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A376" t="s">
-        <v>552</v>
+        <v>550</v>
       </c>
       <c r="B376">
         <v>1</v>
@@ -6926,7 +7058,7 @@
     </row>
     <row r="377" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A377" t="s">
-        <v>553</v>
+        <v>551</v>
       </c>
       <c r="B377">
         <v>1</v>
@@ -6934,7 +7066,7 @@
     </row>
     <row r="378" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A378" t="s">
-        <v>554</v>
+        <v>552</v>
       </c>
       <c r="B378">
         <v>1</v>
@@ -6942,7 +7074,7 @@
     </row>
     <row r="379" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A379" t="s">
-        <v>555</v>
+        <v>553</v>
       </c>
       <c r="B379">
         <v>0</v>
@@ -6950,7 +7082,7 @@
     </row>
     <row r="380" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A380" t="s">
-        <v>556</v>
+        <v>554</v>
       </c>
       <c r="B380">
         <v>0</v>
@@ -6958,7 +7090,7 @@
     </row>
     <row r="381" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A381" t="s">
-        <v>557</v>
+        <v>555</v>
       </c>
       <c r="B381">
         <v>0</v>
@@ -6969,7 +7101,7 @@
     </row>
     <row r="382" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A382" t="s">
-        <v>558</v>
+        <v>556</v>
       </c>
       <c r="B382">
         <v>1</v>
@@ -6977,7 +7109,7 @@
     </row>
     <row r="383" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A383" t="s">
-        <v>559</v>
+        <v>557</v>
       </c>
       <c r="B383">
         <v>1</v>
@@ -6985,7 +7117,7 @@
     </row>
     <row r="384" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A384" t="s">
-        <v>560</v>
+        <v>558</v>
       </c>
       <c r="B384">
         <v>0</v>
@@ -6993,7 +7125,7 @@
     </row>
     <row r="385" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A385" t="s">
-        <v>561</v>
+        <v>559</v>
       </c>
       <c r="B385">
         <v>1</v>
@@ -7001,7 +7133,7 @@
     </row>
     <row r="386" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A386" t="s">
-        <v>562</v>
+        <v>560</v>
       </c>
       <c r="B386">
         <v>1</v>
@@ -7009,7 +7141,7 @@
     </row>
     <row r="387" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A387" t="s">
-        <v>563</v>
+        <v>561</v>
       </c>
       <c r="B387">
         <v>1</v>
@@ -7017,7 +7149,7 @@
     </row>
     <row r="388" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A388" t="s">
-        <v>571</v>
+        <v>568</v>
       </c>
       <c r="B388">
         <v>1</v>
@@ -7025,7 +7157,7 @@
     </row>
     <row r="389" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A389" t="s">
-        <v>572</v>
+        <v>569</v>
       </c>
       <c r="B389">
         <v>1</v>
@@ -7033,7 +7165,7 @@
     </row>
     <row r="390" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A390" t="s">
-        <v>573</v>
+        <v>570</v>
       </c>
       <c r="B390">
         <v>1</v>
@@ -7041,7 +7173,7 @@
     </row>
     <row r="391" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A391" t="s">
-        <v>574</v>
+        <v>571</v>
       </c>
       <c r="B391">
         <v>0</v>
@@ -7049,7 +7181,7 @@
     </row>
     <row r="392" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A392" t="s">
-        <v>575</v>
+        <v>572</v>
       </c>
       <c r="B392">
         <v>0</v>
@@ -7073,7 +7205,7 @@
     </row>
     <row r="395" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A395" t="s">
-        <v>579</v>
+        <v>576</v>
       </c>
       <c r="B395">
         <v>1</v>
@@ -7081,7 +7213,7 @@
     </row>
     <row r="396" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A396" t="s">
-        <v>580</v>
+        <v>577</v>
       </c>
       <c r="B396">
         <v>1</v>
@@ -7089,7 +7221,7 @@
     </row>
     <row r="397" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A397" t="s">
-        <v>581</v>
+        <v>578</v>
       </c>
       <c r="B397">
         <v>1</v>
@@ -7097,7 +7229,7 @@
     </row>
     <row r="398" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A398" t="s">
-        <v>582</v>
+        <v>579</v>
       </c>
       <c r="B398">
         <v>1</v>
@@ -7105,7 +7237,7 @@
     </row>
     <row r="399" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A399" t="s">
-        <v>583</v>
+        <v>580</v>
       </c>
       <c r="B399">
         <v>1</v>
@@ -7113,7 +7245,7 @@
     </row>
     <row r="400" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A400" t="s">
-        <v>584</v>
+        <v>581</v>
       </c>
       <c r="B400">
         <v>1</v>
@@ -7121,7 +7253,7 @@
     </row>
     <row r="401" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A401" t="s">
-        <v>585</v>
+        <v>582</v>
       </c>
       <c r="B401">
         <v>1</v>
@@ -7129,7 +7261,7 @@
     </row>
     <row r="402" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A402" t="s">
-        <v>586</v>
+        <v>583</v>
       </c>
       <c r="B402">
         <v>1</v>
@@ -7137,7 +7269,7 @@
     </row>
     <row r="403" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A403" t="s">
-        <v>587</v>
+        <v>584</v>
       </c>
       <c r="B403">
         <v>1</v>
@@ -7145,7 +7277,7 @@
     </row>
     <row r="404" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A404" t="s">
-        <v>588</v>
+        <v>585</v>
       </c>
       <c r="B404">
         <v>1</v>
@@ -7153,7 +7285,7 @@
     </row>
     <row r="405" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A405" t="s">
-        <v>589</v>
+        <v>586</v>
       </c>
       <c r="B405">
         <v>1</v>
@@ -7161,7 +7293,7 @@
     </row>
     <row r="406" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A406" t="s">
-        <v>590</v>
+        <v>587</v>
       </c>
       <c r="B406">
         <v>1</v>
@@ -7169,7 +7301,7 @@
     </row>
     <row r="407" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A407" t="s">
-        <v>591</v>
+        <v>588</v>
       </c>
       <c r="B407">
         <v>1</v>
@@ -7177,7 +7309,7 @@
     </row>
     <row r="408" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A408" t="s">
-        <v>592</v>
+        <v>589</v>
       </c>
       <c r="B408">
         <v>0</v>
@@ -7185,7 +7317,7 @@
     </row>
     <row r="409" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A409" t="s">
-        <v>593</v>
+        <v>590</v>
       </c>
       <c r="B409">
         <v>0</v>
@@ -7193,7 +7325,7 @@
     </row>
     <row r="410" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A410" t="s">
-        <v>594</v>
+        <v>591</v>
       </c>
       <c r="B410">
         <v>0</v>
@@ -7201,7 +7333,7 @@
     </row>
     <row r="411" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A411" t="s">
-        <v>595</v>
+        <v>592</v>
       </c>
       <c r="B411">
         <v>1</v>
@@ -7209,7 +7341,7 @@
     </row>
     <row r="412" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A412" t="s">
-        <v>596</v>
+        <v>593</v>
       </c>
       <c r="B412">
         <v>1</v>
@@ -7217,7 +7349,7 @@
     </row>
     <row r="413" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A413" t="s">
-        <v>597</v>
+        <v>594</v>
       </c>
       <c r="B413">
         <v>1</v>
@@ -7225,7 +7357,7 @@
     </row>
     <row r="414" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A414" t="s">
-        <v>598</v>
+        <v>595</v>
       </c>
       <c r="B414">
         <v>0</v>
@@ -7233,7 +7365,7 @@
     </row>
     <row r="415" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A415" t="s">
-        <v>599</v>
+        <v>596</v>
       </c>
       <c r="B415">
         <v>1</v>
@@ -7241,7 +7373,7 @@
     </row>
     <row r="416" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A416" t="s">
-        <v>600</v>
+        <v>597</v>
       </c>
       <c r="B416">
         <v>1</v>
@@ -7249,7 +7381,7 @@
     </row>
     <row r="417" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A417" t="s">
-        <v>601</v>
+        <v>598</v>
       </c>
       <c r="B417">
         <v>1</v>
@@ -7257,7 +7389,7 @@
     </row>
     <row r="418" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A418" t="s">
-        <v>602</v>
+        <v>599</v>
       </c>
       <c r="B418">
         <v>1</v>
@@ -7265,7 +7397,7 @@
     </row>
     <row r="419" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A419" t="s">
-        <v>603</v>
+        <v>600</v>
       </c>
       <c r="B419">
         <v>1</v>
@@ -7273,7 +7405,7 @@
     </row>
     <row r="420" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A420" t="s">
-        <v>604</v>
+        <v>601</v>
       </c>
       <c r="B420">
         <v>1</v>
@@ -7281,7 +7413,7 @@
     </row>
     <row r="421" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A421" t="s">
-        <v>605</v>
+        <v>602</v>
       </c>
       <c r="B421">
         <v>1</v>
@@ -7289,7 +7421,7 @@
     </row>
     <row r="422" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A422" t="s">
-        <v>606</v>
+        <v>603</v>
       </c>
       <c r="B422">
         <v>1</v>
@@ -7297,7 +7429,7 @@
     </row>
     <row r="423" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A423" t="s">
-        <v>607</v>
+        <v>604</v>
       </c>
       <c r="B423">
         <v>1</v>
@@ -7305,7 +7437,7 @@
     </row>
     <row r="424" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A424" t="s">
-        <v>608</v>
+        <v>605</v>
       </c>
       <c r="B424">
         <v>1</v>
@@ -7313,7 +7445,7 @@
     </row>
     <row r="425" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A425" t="s">
-        <v>609</v>
+        <v>606</v>
       </c>
       <c r="B425">
         <v>1</v>
@@ -7321,7 +7453,7 @@
     </row>
     <row r="426" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A426" t="s">
-        <v>610</v>
+        <v>607</v>
       </c>
       <c r="B426">
         <v>1</v>
@@ -7329,7 +7461,7 @@
     </row>
     <row r="427" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A427" t="s">
-        <v>611</v>
+        <v>608</v>
       </c>
       <c r="B427">
         <v>1</v>
@@ -7337,7 +7469,7 @@
     </row>
     <row r="428" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A428" t="s">
-        <v>612</v>
+        <v>609</v>
       </c>
       <c r="B428">
         <v>1</v>
@@ -7345,7 +7477,7 @@
     </row>
     <row r="429" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A429" t="s">
-        <v>613</v>
+        <v>610</v>
       </c>
       <c r="B429">
         <v>1</v>
@@ -7353,7 +7485,7 @@
     </row>
     <row r="430" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A430" t="s">
-        <v>614</v>
+        <v>611</v>
       </c>
       <c r="B430">
         <v>1</v>
@@ -7361,7 +7493,7 @@
     </row>
     <row r="431" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A431" t="s">
-        <v>615</v>
+        <v>612</v>
       </c>
       <c r="B431">
         <v>1</v>
@@ -7369,7 +7501,7 @@
     </row>
     <row r="432" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A432" t="s">
-        <v>616</v>
+        <v>613</v>
       </c>
       <c r="B432">
         <v>1</v>
@@ -7377,7 +7509,7 @@
     </row>
     <row r="433" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A433" t="s">
-        <v>617</v>
+        <v>614</v>
       </c>
       <c r="B433">
         <v>0</v>
@@ -7385,7 +7517,7 @@
     </row>
     <row r="434" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A434" t="s">
-        <v>618</v>
+        <v>615</v>
       </c>
       <c r="B434">
         <v>1</v>
@@ -7393,7 +7525,7 @@
     </row>
     <row r="435" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A435" t="s">
-        <v>619</v>
+        <v>616</v>
       </c>
       <c r="B435">
         <v>0</v>
@@ -7401,7 +7533,7 @@
     </row>
     <row r="436" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A436" t="s">
-        <v>620</v>
+        <v>617</v>
       </c>
       <c r="B436">
         <v>1</v>
@@ -7409,7 +7541,7 @@
     </row>
     <row r="437" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A437" t="s">
-        <v>621</v>
+        <v>618</v>
       </c>
       <c r="B437">
         <v>1</v>
@@ -7417,7 +7549,7 @@
     </row>
     <row r="438" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A438" t="s">
-        <v>622</v>
+        <v>619</v>
       </c>
       <c r="B438">
         <v>1</v>
@@ -7425,7 +7557,7 @@
     </row>
     <row r="439" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A439" t="s">
-        <v>623</v>
+        <v>620</v>
       </c>
       <c r="B439">
         <v>1</v>
@@ -7433,7 +7565,7 @@
     </row>
     <row r="440" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A440" t="s">
-        <v>624</v>
+        <v>621</v>
       </c>
       <c r="B440">
         <v>0</v>
@@ -7441,7 +7573,7 @@
     </row>
     <row r="441" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A441" t="s">
-        <v>625</v>
+        <v>622</v>
       </c>
       <c r="B441">
         <v>0</v>
@@ -7449,7 +7581,7 @@
     </row>
     <row r="442" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A442" t="s">
-        <v>626</v>
+        <v>623</v>
       </c>
       <c r="B442">
         <v>0</v>
@@ -7457,7 +7589,7 @@
     </row>
     <row r="443" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A443" t="s">
-        <v>627</v>
+        <v>624</v>
       </c>
       <c r="B443">
         <v>0</v>
@@ -7465,7 +7597,7 @@
     </row>
     <row r="444" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A444" t="s">
-        <v>628</v>
+        <v>625</v>
       </c>
       <c r="B444">
         <v>1</v>
@@ -7525,10 +7657,10 @@
 
 <file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
-  <dimension ref="A1:E40"/>
+  <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A2" sqref="A2"/>
+    <sheetView topLeftCell="A13" workbookViewId="0">
+      <selection activeCell="I28" sqref="I28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7536,477 +7668,510 @@
     <col min="1" max="1" width="30" customWidth="1"/>
     <col min="2" max="2" width="72.09765625" customWidth="1"/>
     <col min="3" max="3" width="26.796875" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="31" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A1" s="8" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="8" t="s">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A1" s="44" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="44" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="16" t="s">
+      <c r="C1" s="44" t="s">
         <v>118</v>
       </c>
-      <c r="D1" s="17" t="s">
+      <c r="D1" s="27" t="s">
+        <v>184</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A2" s="28" t="s">
+        <v>87</v>
+      </c>
+      <c r="B2" s="29" t="s">
+        <v>659</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A3" s="56" t="s">
+        <v>639</v>
+      </c>
+      <c r="B3" s="33" t="s">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A4" s="31" t="s">
+        <v>648</v>
+      </c>
+      <c r="B4" s="31" t="s">
+        <v>649</v>
+      </c>
+      <c r="C4" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A5" s="26" t="s">
+        <v>634</v>
+      </c>
+      <c r="B5" s="57" t="s">
+        <v>718</v>
+      </c>
+      <c r="C5" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A6" s="26" t="s">
+        <v>175</v>
+      </c>
+      <c r="B6" s="57" t="s">
+        <v>719</v>
+      </c>
+      <c r="C6" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A7" s="58" t="s">
+        <v>720</v>
+      </c>
+      <c r="B7" s="57" t="s">
+        <v>721</v>
+      </c>
+      <c r="C7" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A8" s="59" t="s">
+        <v>722</v>
+      </c>
+      <c r="B8" s="60" t="s">
+        <v>723</v>
+      </c>
+      <c r="C8" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A9" s="31" t="s">
+        <v>724</v>
+      </c>
+      <c r="B9" s="60" t="s">
+        <v>725</v>
+      </c>
+      <c r="C9" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A10" s="26" t="s">
+        <v>176</v>
+      </c>
+      <c r="B10" s="26" t="s">
+        <v>726</v>
+      </c>
+      <c r="C10" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A11" s="26" t="s">
+        <v>180</v>
+      </c>
+      <c r="B11" s="26" t="s">
+        <v>727</v>
+      </c>
+      <c r="C11" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A12" s="31" t="s">
+        <v>181</v>
+      </c>
+      <c r="B12" s="31" t="s">
+        <v>728</v>
+      </c>
+      <c r="C12" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A13" s="31" t="s">
+        <v>182</v>
+      </c>
+      <c r="B13" s="31" t="s">
+        <v>729</v>
+      </c>
+      <c r="C13" s="31" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A14" s="26" t="s">
+        <v>134</v>
+      </c>
+      <c r="B14" s="26" t="s">
+        <v>730</v>
+      </c>
+      <c r="C14" s="26" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A15" s="29" t="s">
+        <v>190</v>
+      </c>
+      <c r="B15" s="61" t="s">
+        <v>704</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="A16" s="33" t="s">
+        <v>191</v>
+      </c>
+      <c r="B16" s="33" t="s">
+        <v>662</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="29" t="s">
+        <v>674</v>
+      </c>
+      <c r="B17" s="29" t="s">
+        <v>663</v>
+      </c>
+    </row>
+    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A18" s="33" t="s">
+        <v>186</v>
+      </c>
+      <c r="B18" s="33" t="s">
+        <v>187</v>
+      </c>
+    </row>
+    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A19" s="29" t="s">
+        <v>142</v>
+      </c>
+      <c r="B19" s="29" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A20" s="33" t="s">
+        <v>670</v>
+      </c>
+      <c r="B20" s="33" t="s">
+        <v>671</v>
+      </c>
+    </row>
+    <row r="21" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A21" s="28" t="s">
+        <v>731</v>
+      </c>
+      <c r="B21" s="29" t="s">
+        <v>732</v>
+      </c>
+    </row>
+    <row r="22" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A22" s="18" t="s">
+        <v>173</v>
+      </c>
+      <c r="B22" s="62" t="s">
+        <v>733</v>
+      </c>
+      <c r="C22" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A23" s="63" t="s">
+        <v>734</v>
+      </c>
+      <c r="B23" s="64" t="s">
+        <v>735</v>
+      </c>
+      <c r="C23" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A24" s="65" t="s">
+        <v>736</v>
+      </c>
+      <c r="B24" s="62" t="s">
+        <v>737</v>
+      </c>
+      <c r="C24" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A25" s="66" t="s">
+        <v>738</v>
+      </c>
+      <c r="B25" s="64" t="s">
+        <v>739</v>
+      </c>
+      <c r="C25" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A26" s="18" t="s">
+        <v>174</v>
+      </c>
+      <c r="B26" s="62" t="s">
+        <v>740</v>
+      </c>
+      <c r="C26" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A27" s="18" t="s">
+        <v>177</v>
+      </c>
+      <c r="B27" s="62" t="s">
+        <v>741</v>
+      </c>
+      <c r="C27" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A28" s="63" t="s">
+        <v>178</v>
+      </c>
+      <c r="B28" s="64" t="s">
+        <v>742</v>
+      </c>
+      <c r="C28" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A29" s="63" t="s">
+        <v>179</v>
+      </c>
+      <c r="B29" s="64" t="s">
+        <v>743</v>
+      </c>
+      <c r="C29" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A30" s="63" t="s">
+        <v>112</v>
+      </c>
+      <c r="B30" s="64" t="s">
+        <v>744</v>
+      </c>
+      <c r="C30" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A31" s="18" t="s">
+        <v>169</v>
+      </c>
+      <c r="B31" s="62" t="s">
+        <v>745</v>
+      </c>
+      <c r="C31" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A32" s="63" t="s">
+        <v>171</v>
+      </c>
+      <c r="B32" s="64" t="s">
+        <v>746</v>
+      </c>
+      <c r="C32" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A33" s="18" t="s">
+        <v>170</v>
+      </c>
+      <c r="B33" s="62" t="s">
+        <v>747</v>
+      </c>
+      <c r="C33" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A34" s="63" t="s">
+        <v>116</v>
+      </c>
+      <c r="B34" s="64" t="s">
+        <v>748</v>
+      </c>
+      <c r="C34" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A35" s="18" t="s">
+        <v>115</v>
+      </c>
+      <c r="B35" s="62" t="s">
+        <v>749</v>
+      </c>
+      <c r="C35" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A36" s="63" t="s">
+        <v>117</v>
+      </c>
+      <c r="B36" s="64" t="s">
+        <v>750</v>
+      </c>
+      <c r="C36" s="63" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A37" s="18" t="s">
+        <v>123</v>
+      </c>
+      <c r="B37" s="62" t="s">
+        <v>751</v>
+      </c>
+      <c r="C37" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A38" s="63" t="s">
         <v>119</v>
       </c>
-      <c r="E1" s="30" t="s">
-        <v>186</v>
-      </c>
-    </row>
-    <row r="2" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A2" s="35" t="s">
-        <v>174</v>
-      </c>
-      <c r="B2" s="45" t="s">
-        <v>665</v>
-      </c>
-      <c r="C2" s="35" t="s">
+      <c r="B38" s="64" t="s">
+        <v>752</v>
+      </c>
+      <c r="C38" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D2" s="35" t="s">
+    </row>
+    <row r="39" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A39" s="18" t="s">
+        <v>189</v>
+      </c>
+      <c r="B39" s="62" t="s">
+        <v>753</v>
+      </c>
+      <c r="C39" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="3" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A3" s="20" t="s">
-        <v>175</v>
-      </c>
-      <c r="B3" s="46" t="s">
-        <v>666</v>
-      </c>
-      <c r="C3" s="20" t="s">
+    <row r="40" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A40" s="18" t="s">
+        <v>754</v>
+      </c>
+      <c r="B40" s="62" t="s">
+        <v>755</v>
+      </c>
+      <c r="C40" s="18" t="s">
         <v>72</v>
       </c>
-      <c r="D3" s="20" t="s">
+    </row>
+    <row r="41" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A41" s="18" t="s">
+        <v>664</v>
+      </c>
+      <c r="B41" s="62" t="s">
+        <v>667</v>
+      </c>
+      <c r="C41" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A4" s="35" t="s">
-        <v>112</v>
-      </c>
-      <c r="B4" s="45" t="s">
-        <v>667</v>
-      </c>
-      <c r="C4" s="35" t="s">
+    <row r="42" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A42" s="63" t="s">
+        <v>756</v>
+      </c>
+      <c r="B42" s="64" t="s">
+        <v>757</v>
+      </c>
+      <c r="C42" s="63" t="s">
         <v>72</v>
       </c>
-      <c r="D4" s="35" t="s">
+    </row>
+    <row r="43" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
+      <c r="A43" s="18" t="s">
+        <v>758</v>
+      </c>
+      <c r="B43" s="64" t="s">
+        <v>759</v>
+      </c>
+      <c r="C43" s="63" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A5" s="20" t="s">
-        <v>170</v>
-      </c>
-      <c r="B5" s="46" t="s">
-        <v>668</v>
-      </c>
-      <c r="C5" s="20" t="s">
+    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A44" s="41" t="s">
+        <v>113</v>
+      </c>
+      <c r="B44" s="41" t="s">
+        <v>760</v>
+      </c>
+      <c r="C44" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D5" s="20" t="s">
+    </row>
+    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A45" s="31" t="s">
+        <v>114</v>
+      </c>
+      <c r="B45" s="31" t="s">
+        <v>761</v>
+      </c>
+      <c r="C45" s="31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A6" s="35" t="s">
-        <v>172</v>
-      </c>
-      <c r="B6" s="45" t="s">
-        <v>669</v>
-      </c>
-      <c r="C6" s="35" t="s">
+    <row r="46" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A46" s="41" t="s">
+        <v>672</v>
+      </c>
+      <c r="B46" s="41" t="s">
+        <v>673</v>
+      </c>
+      <c r="C46" s="41" t="s">
         <v>72</v>
       </c>
-      <c r="D6" s="35" t="s">
+    </row>
+    <row r="47" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A47" s="31" t="s">
+        <v>676</v>
+      </c>
+      <c r="B47" s="31" t="s">
+        <v>675</v>
+      </c>
+      <c r="C47" s="31" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="20" t="s">
-        <v>171</v>
-      </c>
-      <c r="B7" s="46" t="s">
-        <v>670</v>
-      </c>
-      <c r="C7" s="20" t="s">
+    <row r="48" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A48" s="41" t="s">
+        <v>677</v>
+      </c>
+      <c r="B48" s="41" t="s">
+        <v>678</v>
+      </c>
+      <c r="C48" s="41" t="s">
         <v>72</v>
-      </c>
-      <c r="D7" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="35" t="s">
-        <v>116</v>
-      </c>
-      <c r="B8" s="45" t="s">
-        <v>671</v>
-      </c>
-      <c r="C8" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D8" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A9" s="20" t="s">
-        <v>115</v>
-      </c>
-      <c r="B9" s="46" t="s">
-        <v>672</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D9" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="10" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A10" s="35" t="s">
-        <v>117</v>
-      </c>
-      <c r="B10" s="45" t="s">
-        <v>673</v>
-      </c>
-      <c r="C10" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D10" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="11" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A11" s="20" t="s">
-        <v>124</v>
-      </c>
-      <c r="B11" s="46" t="s">
-        <v>674</v>
-      </c>
-      <c r="C11" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D11" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="12" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A12" s="35" t="s">
-        <v>120</v>
-      </c>
-      <c r="B12" s="45" t="s">
-        <v>675</v>
-      </c>
-      <c r="C12" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D12" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="13" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A13" s="20" t="s">
-        <v>191</v>
-      </c>
-      <c r="B13" s="46" t="s">
-        <v>676</v>
-      </c>
-      <c r="C13" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D13" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="14" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A14" s="35" t="s">
-        <v>178</v>
-      </c>
-      <c r="B14" s="45" t="s">
-        <v>677</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D14" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="15" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A15" s="20" t="s">
-        <v>179</v>
-      </c>
-      <c r="B15" s="46" t="s">
-        <v>678</v>
-      </c>
-      <c r="C15" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D15" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="16" spans="1:5" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A16" s="35" t="s">
-        <v>180</v>
-      </c>
-      <c r="B16" s="45" t="s">
-        <v>679</v>
-      </c>
-      <c r="C16" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D16" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="17" spans="1:4" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A17" s="20" t="s">
-        <v>695</v>
-      </c>
-      <c r="B17" s="46" t="s">
-        <v>698</v>
-      </c>
-      <c r="C17" s="20" t="s">
-        <v>72</v>
-      </c>
-      <c r="D17" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="18" spans="1:4" s="35" customFormat="1" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A18" s="48" t="s">
-        <v>682</v>
-      </c>
-      <c r="B18" s="49" t="s">
-        <v>683</v>
-      </c>
-      <c r="C18" s="35" t="s">
-        <v>72</v>
-      </c>
-      <c r="D18" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="19" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A19" s="29" t="s">
-        <v>176</v>
-      </c>
-      <c r="B19" s="47" t="s">
-        <v>685</v>
-      </c>
-      <c r="C19" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="20" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A20" s="29" t="s">
-        <v>637</v>
-      </c>
-      <c r="B20" s="47" t="s">
-        <v>680</v>
-      </c>
-      <c r="C20" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="21" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A21" s="29" t="s">
-        <v>651</v>
-      </c>
-      <c r="B21" s="29" t="s">
-        <v>652</v>
-      </c>
-      <c r="C21" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="22" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A22" s="34" t="s">
-        <v>177</v>
-      </c>
-      <c r="B22" s="34" t="s">
-        <v>686</v>
-      </c>
-      <c r="C22" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="23" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A23" s="29" t="s">
-        <v>182</v>
-      </c>
-      <c r="B23" s="29" t="s">
-        <v>687</v>
-      </c>
-      <c r="C23" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="24" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A24" s="34" t="s">
-        <v>183</v>
-      </c>
-      <c r="B24" s="34" t="s">
-        <v>688</v>
-      </c>
-      <c r="C24" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="25" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A25" s="29" t="s">
-        <v>184</v>
-      </c>
-      <c r="B25" s="29" t="s">
-        <v>689</v>
-      </c>
-      <c r="C25" s="29" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="26" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A26" s="34" t="s">
-        <v>135</v>
-      </c>
-      <c r="B26" s="34" t="s">
-        <v>690</v>
-      </c>
-      <c r="C26" s="34" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="27" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A27" s="50" t="s">
-        <v>113</v>
-      </c>
-      <c r="B27" s="50" t="s">
-        <v>691</v>
-      </c>
-      <c r="C27" s="50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="28" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A28" s="50" t="s">
-        <v>114</v>
-      </c>
-      <c r="B28" s="50" t="s">
-        <v>692</v>
-      </c>
-      <c r="C28" s="50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="29" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A29" s="50" t="s">
-        <v>703</v>
-      </c>
-      <c r="B29" s="50" t="s">
-        <v>704</v>
-      </c>
-      <c r="C29" s="50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="30" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A30" s="50" t="s">
-        <v>707</v>
-      </c>
-      <c r="B30" s="50" t="s">
-        <v>706</v>
-      </c>
-      <c r="C30" s="50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="31" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A31" s="50" t="s">
-        <v>708</v>
-      </c>
-      <c r="B31" s="50" t="s">
-        <v>709</v>
-      </c>
-      <c r="C31" s="50" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="32" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A32" s="31" t="s">
-        <v>87</v>
-      </c>
-      <c r="B32" s="32" t="s">
-        <v>662</v>
-      </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A33" s="31" t="s">
-        <v>642</v>
-      </c>
-      <c r="B33" s="32" t="s">
-        <v>663</v>
-      </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A34" s="36" t="s">
-        <v>192</v>
-      </c>
-      <c r="B34" s="37" t="s">
-        <v>735</v>
-      </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A35" s="32" t="s">
-        <v>193</v>
-      </c>
-      <c r="B35" s="32" t="s">
-        <v>693</v>
-      </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A36" s="50" t="s">
-        <v>705</v>
-      </c>
-      <c r="B36" s="50" t="s">
-        <v>694</v>
-      </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A37" s="32" t="s">
-        <v>188</v>
-      </c>
-      <c r="B37" s="32" t="s">
-        <v>189</v>
-      </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A38" s="36" t="s">
-        <v>143</v>
-      </c>
-      <c r="B38" s="36" t="s">
-        <v>144</v>
-      </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A39" s="36" t="s">
-        <v>701</v>
-      </c>
-      <c r="B39" s="36" t="s">
-        <v>702</v>
-      </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A40" s="31" t="s">
-        <v>681</v>
-      </c>
-      <c r="B40" s="32" t="s">
-        <v>684</v>
       </c>
     </row>
   </sheetData>
@@ -8019,8 +8184,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48B31D4-AE50-4CB5-9904-DE1BA8BD2BC3}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="A15" sqref="A15"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -8034,186 +8199,186 @@
         <v>0</v>
       </c>
       <c r="B1" s="7" t="s">
-        <v>145</v>
-      </c>
-      <c r="C1" s="44" t="s">
-        <v>576</v>
+        <v>144</v>
+      </c>
+      <c r="C1" s="40" t="s">
+        <v>573</v>
       </c>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" s="3" t="s">
-        <v>636</v>
+        <v>633</v>
       </c>
       <c r="B2" s="4" t="s">
-        <v>641</v>
-      </c>
-      <c r="C2" s="20" t="s">
+        <v>638</v>
+      </c>
+      <c r="C2" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="3" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A3" s="3" t="s">
-        <v>150</v>
+        <v>149</v>
       </c>
       <c r="B3" s="4" t="s">
+        <v>157</v>
+      </c>
+      <c r="C3" s="18" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A4" s="22" t="s">
+        <v>153</v>
+      </c>
+      <c r="B4" s="23" t="s">
         <v>158</v>
       </c>
-      <c r="C3" s="20" t="s">
+      <c r="C4" s="32" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A4" s="25" t="s">
-        <v>154</v>
-      </c>
-      <c r="B4" s="26" t="s">
+    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A5" s="32" t="s">
+        <v>564</v>
+      </c>
+      <c r="B5" s="32" t="s">
+        <v>566</v>
+      </c>
+      <c r="C5" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A6" s="22" t="s">
+        <v>209</v>
+      </c>
+      <c r="B6" s="23" t="s">
+        <v>207</v>
+      </c>
+      <c r="C6" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A7" s="22" t="s">
+        <v>151</v>
+      </c>
+      <c r="B7" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C7" s="32" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A8" s="37" t="s">
+        <v>145</v>
+      </c>
+      <c r="B8" s="38" t="s">
         <v>159</v>
       </c>
-      <c r="C4" s="35" t="s">
+      <c r="C8" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A5" s="35" t="s">
-        <v>567</v>
-      </c>
-      <c r="B5" s="35" t="s">
-        <v>569</v>
-      </c>
-      <c r="C5" s="35" t="s">
+    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A9" s="37" t="s">
+        <v>650</v>
+      </c>
+      <c r="B9" s="38" t="s">
+        <v>651</v>
+      </c>
+      <c r="C9" s="18" t="s">
         <v>72</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A6" s="25" t="s">
-        <v>211</v>
-      </c>
-      <c r="B6" s="26" t="s">
-        <v>209</v>
-      </c>
-      <c r="C6" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A7" s="25" t="s">
-        <v>152</v>
-      </c>
-      <c r="B7" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C7" s="35" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A8" s="41" t="s">
-        <v>146</v>
-      </c>
-      <c r="B8" s="42" t="s">
-        <v>160</v>
-      </c>
-      <c r="C8" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A9" s="41" t="s">
-        <v>653</v>
-      </c>
-      <c r="B9" s="42" t="s">
-        <v>654</v>
-      </c>
-      <c r="C9" s="20" t="s">
-        <v>72</v>
-      </c>
-    </row>
     <row r="10" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A10" s="41" t="s">
+      <c r="A10" s="37" t="s">
+        <v>562</v>
+      </c>
+      <c r="B10" s="38" t="s">
         <v>565</v>
       </c>
-      <c r="B10" s="42" t="s">
-        <v>568</v>
-      </c>
-      <c r="C10" s="20" t="s">
+      <c r="C10" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="11" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A11" s="3" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>206</v>
-      </c>
-      <c r="C11" s="20" t="s">
+        <v>204</v>
+      </c>
+      <c r="C11" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="12" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A12" s="3" t="s">
-        <v>153</v>
+        <v>152</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>149</v>
-      </c>
-      <c r="C12" s="20" t="s">
+        <v>148</v>
+      </c>
+      <c r="C12" s="18" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="13" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A13" s="35" t="s">
+      <c r="A13" s="32" t="s">
+        <v>203</v>
+      </c>
+      <c r="B13" s="32" t="s">
         <v>205</v>
       </c>
-      <c r="B13" s="35" t="s">
-        <v>207</v>
-      </c>
-      <c r="C13" s="35" t="s">
-        <v>549</v>
+      <c r="C13" s="32" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="14" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A14" s="35" t="s">
-        <v>655</v>
-      </c>
-      <c r="B14" s="35" t="s">
-        <v>656</v>
-      </c>
-      <c r="C14" s="35" t="s">
-        <v>549</v>
+      <c r="A14" s="32" t="s">
+        <v>652</v>
+      </c>
+      <c r="B14" s="32" t="s">
+        <v>653</v>
+      </c>
+      <c r="C14" s="32" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="15" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A15" s="35" t="s">
-        <v>566</v>
-      </c>
-      <c r="B15" s="35" t="s">
-        <v>568</v>
-      </c>
-      <c r="C15" s="35" t="s">
-        <v>549</v>
+      <c r="A15" s="32" t="s">
+        <v>563</v>
+      </c>
+      <c r="B15" s="32" t="s">
+        <v>565</v>
+      </c>
+      <c r="C15" s="32" t="s">
+        <v>547</v>
       </c>
     </row>
     <row r="16" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A16" s="43" t="s">
-        <v>204</v>
-      </c>
-      <c r="B16" s="43" t="s">
+      <c r="A16" s="39" t="s">
+        <v>202</v>
+      </c>
+      <c r="B16" s="39" t="s">
+        <v>206</v>
+      </c>
+      <c r="C16" s="32" t="s">
+        <v>547</v>
+      </c>
+    </row>
+    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="A17" s="22" t="s">
         <v>208</v>
       </c>
-      <c r="C16" s="35" t="s">
-        <v>549</v>
-      </c>
-    </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="25" t="s">
-        <v>210</v>
-      </c>
-      <c r="B17" s="26" t="s">
-        <v>149</v>
-      </c>
-      <c r="C17" s="35" t="s">
-        <v>549</v>
+      <c r="B17" s="23" t="s">
+        <v>148</v>
+      </c>
+      <c r="C17" s="32" t="s">
+        <v>547</v>
       </c>
     </row>
   </sheetData>
@@ -8256,7 +8421,7 @@
         <v>4</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>198</v>
+        <v>196</v>
       </c>
     </row>
     <row r="4" spans="1:2" x14ac:dyDescent="0.3">
@@ -8288,7 +8453,7 @@
         <v>11</v>
       </c>
       <c r="B7" s="2" t="s">
-        <v>197</v>
+        <v>195</v>
       </c>
     </row>
     <row r="8" spans="1:2" x14ac:dyDescent="0.3">
@@ -8344,7 +8509,7 @@
         <v>24</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>196</v>
+        <v>194</v>
       </c>
     </row>
     <row r="15" spans="1:2" x14ac:dyDescent="0.3">
@@ -8461,42 +8626,42 @@
     </row>
     <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
+        <v>125</v>
+      </c>
+      <c r="B29" s="16" t="s">
         <v>126</v>
       </c>
-      <c r="B29" s="18" t="s">
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="A30" s="18" t="s">
         <v>127</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A30" s="20" t="s">
-        <v>128</v>
-      </c>
-      <c r="B30" s="19" t="s">
-        <v>202</v>
+      <c r="B30" s="17" t="s">
+        <v>200</v>
       </c>
     </row>
     <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
-        <v>129</v>
-      </c>
-      <c r="B31" s="18" t="s">
-        <v>201</v>
+        <v>128</v>
+      </c>
+      <c r="B31" s="16" t="s">
+        <v>199</v>
       </c>
     </row>
     <row r="32" spans="1:2" x14ac:dyDescent="0.3">
-      <c r="A32" s="20" t="s">
-        <v>194</v>
-      </c>
-      <c r="B32" s="19" t="s">
-        <v>199</v>
+      <c r="A32" s="18" t="s">
+        <v>192</v>
+      </c>
+      <c r="B32" s="17" t="s">
+        <v>197</v>
       </c>
     </row>
     <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
-        <v>195</v>
-      </c>
-      <c r="B33" s="18" t="s">
-        <v>200</v>
+        <v>193</v>
+      </c>
+      <c r="B33" s="16" t="s">
+        <v>198</v>
       </c>
     </row>
   </sheetData>
@@ -8508,7 +8673,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{36FE7B04-49FC-44AC-A9A9-144B494E3553}">
   <dimension ref="A1:A9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="A14" sqref="A14"/>
     </sheetView>
   </sheetViews>
@@ -8519,47 +8684,47 @@
   <sheetData>
     <row r="1" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A1" s="6" t="s">
-        <v>740</v>
+        <v>709</v>
       </c>
     </row>
     <row r="2" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
-        <v>741</v>
+        <v>710</v>
       </c>
     </row>
     <row r="3" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
-        <v>742</v>
+        <v>711</v>
       </c>
     </row>
     <row r="4" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
-        <v>743</v>
+        <v>712</v>
       </c>
     </row>
     <row r="5" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>744</v>
+        <v>713</v>
       </c>
     </row>
     <row r="6" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
-        <v>745</v>
+        <v>714</v>
       </c>
     </row>
     <row r="7" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
-        <v>746</v>
+        <v>715</v>
       </c>
     </row>
     <row r="8" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
-        <v>747</v>
+        <v>716</v>
       </c>
     </row>
     <row r="9" spans="1:1" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
-        <v>748</v>
+        <v>717</v>
       </c>
     </row>
   </sheetData>
@@ -8607,11 +8772,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="63" t="s">
+      <c r="A1" s="55" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="63"/>
-      <c r="C1" s="63"/>
+      <c r="B1" s="55"/>
+      <c r="C1" s="55"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/UnitTest/test_config.xlsx
+++ b/UnitTest/test_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\UnitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{20DF2824-80B7-48B9-A43C-9195FC477ED9}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B0A403-6D2B-4EEA-AE67-BC9F43071B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-29868" yWindow="-108" windowWidth="29976" windowHeight="17496" firstSheet="1" activeTab="4" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
     <sheet name="ПланСвод" sheetId="5" r:id="rId11"/>
     <sheet name="Титул" sheetId="13" r:id="rId12"/>
   </sheets>
-  <calcPr calcId="181029" refMode="R1C1"/>
+  <calcPr calcId="181029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -2737,39 +2737,6 @@
     <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center" wrapText="1"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
@@ -2793,15 +2760,48 @@
     </xf>
     <xf numFmtId="0" fontId="7" fillId="5" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
     <xf numFmtId="0" fontId="7" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="11" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center" wrapText="1"/>
+    </xf>
   </cellXfs>
   <cellStyles count="3">
     <cellStyle name="Обычный" xfId="0" builtinId="0"/>
@@ -3120,8 +3120,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{049FB1B4-2A61-4643-8816-8B76EC36FD4B}">
   <dimension ref="A1:J84"/>
   <sheetViews>
-    <sheetView topLeftCell="A67" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="E64" sqref="E64"/>
+    <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="A42" sqref="A37:D43"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3135,20 +3135,20 @@
       <c r="A1" s="8" t="s">
         <v>81</v>
       </c>
-      <c r="B1" s="48" t="s">
+      <c r="B1" s="65" t="s">
         <v>82</v>
       </c>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
-      <c r="F1" s="48"/>
-      <c r="G1" s="48"/>
-      <c r="H1" s="48"/>
-      <c r="I1" s="48"/>
-      <c r="J1" s="48"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
+      <c r="F1" s="65"/>
+      <c r="G1" s="65"/>
+      <c r="H1" s="65"/>
+      <c r="I1" s="65"/>
+      <c r="J1" s="65"/>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A2" s="51" t="s">
+      <c r="A2" s="66" t="s">
         <v>53</v>
       </c>
       <c r="B2" t="s">
@@ -3165,7 +3165,7 @@
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A3" s="51"/>
+      <c r="A3" s="66"/>
       <c r="B3" s="9" t="s">
         <v>57</v>
       </c>
@@ -3180,7 +3180,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="68" t="s">
+      <c r="A4" s="56" t="s">
         <v>71</v>
       </c>
       <c r="B4" t="s">
@@ -3188,7 +3188,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="69" t="s">
+      <c r="A5" s="57" t="s">
         <v>88</v>
       </c>
       <c r="B5" t="s">
@@ -3196,7 +3196,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="69" t="s">
+      <c r="A6" s="57" t="s">
         <v>156</v>
       </c>
       <c r="B6" t="s">
@@ -3204,7 +3204,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="68" t="s">
+      <c r="A7" s="56" t="s">
         <v>75</v>
       </c>
       <c r="B7" t="s">
@@ -3212,7 +3212,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="68" t="s">
+      <c r="A8" s="56" t="s">
         <v>656</v>
       </c>
       <c r="B8" t="s">
@@ -3220,7 +3220,7 @@
       </c>
     </row>
     <row r="9" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A9" s="70" t="s">
+      <c r="A9" s="67" t="s">
         <v>139</v>
       </c>
       <c r="B9" t="s">
@@ -3228,13 +3228,13 @@
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A10" s="70"/>
+      <c r="A10" s="67"/>
       <c r="B10" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="11" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A11" s="70" t="s">
+      <c r="A11" s="67" t="s">
         <v>140</v>
       </c>
       <c r="B11" t="s">
@@ -3242,13 +3242,13 @@
       </c>
     </row>
     <row r="12" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A12" s="70"/>
+      <c r="A12" s="67"/>
       <c r="B12" s="9" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="68" t="s">
+      <c r="A13" s="56" t="s">
         <v>67</v>
       </c>
       <c r="B13" t="s">
@@ -3256,7 +3256,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="68" t="s">
+      <c r="A14" s="56" t="s">
         <v>69</v>
       </c>
       <c r="B14" t="s">
@@ -3264,7 +3264,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="68" t="s">
+      <c r="A15" s="56" t="s">
         <v>679</v>
       </c>
       <c r="B15" t="s">
@@ -3272,7 +3272,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="68" t="s">
+      <c r="A16" s="56" t="s">
         <v>680</v>
       </c>
       <c r="B16" t="s">
@@ -3280,7 +3280,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="68" t="s">
+      <c r="A17" s="56" t="s">
         <v>685</v>
       </c>
       <c r="B17" t="s">
@@ -3296,7 +3296,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="71" t="s">
+      <c r="A19" s="58" t="s">
         <v>763</v>
       </c>
       <c r="B19" t="s">
@@ -3304,7 +3304,7 @@
       </c>
     </row>
     <row r="20" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A20" s="45" t="s">
+      <c r="A20" s="62" t="s">
         <v>107</v>
       </c>
       <c r="B20" t="s">
@@ -3313,13 +3313,13 @@
       <c r="C20" s="19"/>
     </row>
     <row r="21" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A21" s="45"/>
+      <c r="A21" s="62"/>
       <c r="B21" s="19" t="s">
         <v>129</v>
       </c>
     </row>
     <row r="22" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A22" s="45" t="s">
+      <c r="A22" s="62" t="s">
         <v>154</v>
       </c>
       <c r="B22" s="24" t="s">
@@ -3327,13 +3327,13 @@
       </c>
     </row>
     <row r="23" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A23" s="45"/>
+      <c r="A23" s="62"/>
       <c r="B23" s="19" t="s">
         <v>155</v>
       </c>
     </row>
     <row r="24" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A24" s="45" t="s">
+      <c r="A24" s="62" t="s">
         <v>122</v>
       </c>
       <c r="B24" t="s">
@@ -3341,7 +3341,7 @@
       </c>
     </row>
     <row r="25" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A25" s="45"/>
+      <c r="A25" s="62"/>
       <c r="B25" s="9" t="s">
         <v>626</v>
       </c>
@@ -3403,7 +3403,7 @@
       </c>
     </row>
     <row r="33" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A33" s="45" t="s">
+      <c r="A33" s="62" t="s">
         <v>628</v>
       </c>
       <c r="B33" t="s">
@@ -3414,7 +3414,7 @@
       </c>
     </row>
     <row r="34" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A34" s="45"/>
+      <c r="A34" s="62"/>
       <c r="B34" s="9" t="s">
         <v>629</v>
       </c>
@@ -3423,7 +3423,7 @@
       </c>
     </row>
     <row r="35" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A35" s="45" t="s">
+      <c r="A35" s="62" t="s">
         <v>168</v>
       </c>
       <c r="B35" t="s">
@@ -3437,7 +3437,7 @@
       </c>
     </row>
     <row r="36" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A36" s="45"/>
+      <c r="A36" s="62"/>
       <c r="B36" s="9" t="s">
         <v>630</v>
       </c>
@@ -3449,21 +3449,21 @@
       </c>
     </row>
     <row r="37" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A37" s="67" t="s">
+      <c r="A37" s="61" t="s">
         <v>160</v>
       </c>
       <c r="B37" t="s">
+        <v>164</v>
+      </c>
+      <c r="C37" t="s">
+        <v>163</v>
+      </c>
+      <c r="D37" t="s">
         <v>165</v>
       </c>
-      <c r="C37" t="s">
-        <v>164</v>
-      </c>
-      <c r="D37" t="s">
-        <v>163</v>
-      </c>
     </row>
     <row r="38" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A38" s="67"/>
+      <c r="A38" s="61"/>
       <c r="B38" s="9" t="s">
         <v>166</v>
       </c>
@@ -3475,27 +3475,27 @@
       </c>
     </row>
     <row r="39" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A39" s="67"/>
+      <c r="A39" s="61"/>
       <c r="B39" s="9" t="s">
         <v>708</v>
       </c>
     </row>
     <row r="40" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A40" s="67" t="s">
+      <c r="A40" s="61" t="s">
         <v>172</v>
       </c>
       <c r="B40" s="21" t="s">
+        <v>177</v>
+      </c>
+      <c r="C40" s="21" t="s">
+        <v>178</v>
+      </c>
+      <c r="D40" s="21" t="s">
         <v>179</v>
       </c>
-      <c r="C40" s="21" t="s">
-        <v>177</v>
-      </c>
-      <c r="D40" s="21" t="s">
-        <v>178</v>
-      </c>
     </row>
     <row r="41" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A41" s="67"/>
+      <c r="A41" s="61"/>
       <c r="B41" s="9" t="s">
         <v>762</v>
       </c>
@@ -3503,21 +3503,21 @@
       <c r="D41" s="9"/>
     </row>
     <row r="42" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A42" s="67" t="s">
+      <c r="A42" s="61" t="s">
         <v>764</v>
       </c>
-      <c r="B42" t="s">
+      <c r="B42" s="21" t="s">
+        <v>736</v>
+      </c>
+      <c r="C42" s="21" t="s">
+        <v>738</v>
+      </c>
+      <c r="D42" t="s">
         <v>734</v>
       </c>
-      <c r="C42" s="21" t="s">
-        <v>736</v>
-      </c>
-      <c r="D42" s="21" t="s">
-        <v>738</v>
-      </c>
     </row>
     <row r="43" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A43" s="67"/>
+      <c r="A43" s="61"/>
       <c r="B43" s="9" t="s">
         <v>762</v>
       </c>
@@ -3525,18 +3525,18 @@
       <c r="D43" s="9"/>
     </row>
     <row r="44" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A44" s="49" t="s">
+      <c r="A44" s="59" t="s">
         <v>74</v>
       </c>
-      <c r="B44" s="50"/>
-      <c r="C44" s="50"/>
+      <c r="B44" s="60"/>
+      <c r="C44" s="60"/>
     </row>
     <row r="45" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A45" s="49" t="s">
+      <c r="A45" s="59" t="s">
         <v>76</v>
       </c>
-      <c r="B45" s="50"/>
-      <c r="C45" s="50"/>
+      <c r="B45" s="60"/>
+      <c r="C45" s="60"/>
     </row>
     <row r="46" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
@@ -3563,7 +3563,7 @@
       </c>
     </row>
     <row r="49" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A49" s="45" t="s">
+      <c r="A49" s="62" t="s">
         <v>136</v>
       </c>
       <c r="B49" t="s">
@@ -3574,7 +3574,7 @@
       </c>
     </row>
     <row r="50" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A50" s="45"/>
+      <c r="A50" s="62"/>
       <c r="B50" s="9" t="s">
         <v>135</v>
       </c>
@@ -3583,14 +3583,14 @@
       </c>
     </row>
     <row r="51" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A51" s="45"/>
+      <c r="A51" s="62"/>
       <c r="B51" s="9" t="s">
         <v>765</v>
       </c>
       <c r="C51" s="9"/>
     </row>
     <row r="52" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A52" s="45" t="s">
+      <c r="A52" s="62" t="s">
         <v>766</v>
       </c>
       <c r="B52" s="21" t="s">
@@ -3601,7 +3601,7 @@
       </c>
     </row>
     <row r="53" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A53" s="45"/>
+      <c r="A53" s="62"/>
       <c r="B53" s="9" t="s">
         <v>769</v>
       </c>
@@ -3776,11 +3776,11 @@
       </c>
     </row>
     <row r="75" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A75" s="52" t="s">
+      <c r="A75" s="68" t="s">
         <v>121</v>
       </c>
-      <c r="B75" s="52"/>
-      <c r="C75" s="52"/>
+      <c r="B75" s="68"/>
+      <c r="C75" s="68"/>
     </row>
     <row r="76" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A76" s="15" t="s">
@@ -3815,27 +3815,27 @@
       </c>
     </row>
     <row r="80" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A80" s="49" t="s">
+      <c r="A80" s="59" t="s">
         <v>84</v>
       </c>
-      <c r="B80" s="50"/>
-      <c r="C80" s="50"/>
+      <c r="B80" s="60"/>
+      <c r="C80" s="60"/>
     </row>
     <row r="81" spans="1:5" ht="109.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A81" s="46" t="s">
+      <c r="A81" s="63" t="s">
         <v>130</v>
       </c>
-      <c r="B81" s="46"/>
-      <c r="C81" s="46"/>
+      <c r="B81" s="63"/>
+      <c r="C81" s="63"/>
       <c r="D81" s="11"/>
       <c r="E81" s="11"/>
     </row>
     <row r="82" spans="1:5" ht="67.2" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A82" s="47" t="s">
+      <c r="A82" s="64" t="s">
         <v>96</v>
       </c>
-      <c r="B82" s="47"/>
-      <c r="C82" s="47"/>
+      <c r="B82" s="64"/>
+      <c r="C82" s="64"/>
       <c r="D82" s="11"/>
       <c r="E82" s="11"/>
     </row>
@@ -3857,11 +3857,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A44:C44"/>
-    <mergeCell ref="A45:C45"/>
-    <mergeCell ref="A42:A43"/>
-    <mergeCell ref="A49:A51"/>
-    <mergeCell ref="A52:A53"/>
     <mergeCell ref="A24:A25"/>
     <mergeCell ref="A33:A34"/>
     <mergeCell ref="A81:C81"/>
@@ -3877,6 +3872,11 @@
     <mergeCell ref="A37:A39"/>
     <mergeCell ref="A35:A36"/>
     <mergeCell ref="A40:A41"/>
+    <mergeCell ref="A44:C44"/>
+    <mergeCell ref="A45:C45"/>
+    <mergeCell ref="A42:A43"/>
+    <mergeCell ref="A49:A51"/>
+    <mergeCell ref="A52:A53"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -3926,13 +3926,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:5" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="65" t="s">
         <v>83</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
-      <c r="E1" s="48"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
+      <c r="E1" s="65"/>
     </row>
     <row r="2" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -3973,12 +3973,12 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="48" t="s">
+      <c r="A1" s="65" t="s">
         <v>637</v>
       </c>
-      <c r="B1" s="48"/>
-      <c r="C1" s="48"/>
-      <c r="D1" s="48"/>
+      <c r="B1" s="65"/>
+      <c r="C1" s="65"/>
+      <c r="D1" s="65"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
@@ -4034,11 +4034,11 @@
       <c r="A1" s="34" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="53" t="s">
+      <c r="B1" s="69" t="s">
         <v>251</v>
       </c>
-      <c r="C1" s="54"/>
-      <c r="D1" s="54"/>
+      <c r="C1" s="70"/>
+      <c r="D1" s="70"/>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
       <c r="A2" s="35">
@@ -7693,7 +7693,7 @@
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="56" t="s">
+      <c r="A3" s="45" t="s">
         <v>639</v>
       </c>
       <c r="B3" s="33" t="s">
@@ -7715,7 +7715,7 @@
       <c r="A5" s="26" t="s">
         <v>634</v>
       </c>
-      <c r="B5" s="57" t="s">
+      <c r="B5" s="46" t="s">
         <v>718</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -7726,7 +7726,7 @@
       <c r="A6" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="57" t="s">
+      <c r="B6" s="46" t="s">
         <v>719</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -7734,10 +7734,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="58" t="s">
+      <c r="A7" s="47" t="s">
         <v>720</v>
       </c>
-      <c r="B7" s="57" t="s">
+      <c r="B7" s="46" t="s">
         <v>721</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -7745,10 +7745,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="59" t="s">
+      <c r="A8" s="48" t="s">
         <v>722</v>
       </c>
-      <c r="B8" s="60" t="s">
+      <c r="B8" s="49" t="s">
         <v>723</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -7759,7 +7759,7 @@
       <c r="A9" s="31" t="s">
         <v>724</v>
       </c>
-      <c r="B9" s="60" t="s">
+      <c r="B9" s="49" t="s">
         <v>725</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -7825,7 +7825,7 @@
       <c r="A15" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="61" t="s">
+      <c r="B15" s="50" t="s">
         <v>704</v>
       </c>
     </row>
@@ -7881,7 +7881,7 @@
       <c r="A22" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="62" t="s">
+      <c r="B22" s="51" t="s">
         <v>733</v>
       </c>
       <c r="C22" s="18" t="s">
@@ -7889,21 +7889,21 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="63" t="s">
+      <c r="A23" s="52" t="s">
         <v>734</v>
       </c>
-      <c r="B23" s="64" t="s">
+      <c r="B23" s="53" t="s">
         <v>735</v>
       </c>
-      <c r="C23" s="63" t="s">
+      <c r="C23" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="65" t="s">
+      <c r="A24" s="54" t="s">
         <v>736</v>
       </c>
-      <c r="B24" s="62" t="s">
+      <c r="B24" s="51" t="s">
         <v>737</v>
       </c>
       <c r="C24" s="18" t="s">
@@ -7911,13 +7911,13 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="66" t="s">
+      <c r="A25" s="55" t="s">
         <v>738</v>
       </c>
-      <c r="B25" s="64" t="s">
+      <c r="B25" s="53" t="s">
         <v>739</v>
       </c>
-      <c r="C25" s="63" t="s">
+      <c r="C25" s="52" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7925,7 +7925,7 @@
       <c r="A26" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="62" t="s">
+      <c r="B26" s="51" t="s">
         <v>740</v>
       </c>
       <c r="C26" s="18" t="s">
@@ -7936,7 +7936,7 @@
       <c r="A27" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="62" t="s">
+      <c r="B27" s="51" t="s">
         <v>741</v>
       </c>
       <c r="C27" s="18" t="s">
@@ -7944,35 +7944,35 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="63" t="s">
+      <c r="A28" s="52" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="64" t="s">
+      <c r="B28" s="53" t="s">
         <v>742</v>
       </c>
-      <c r="C28" s="63" t="s">
+      <c r="C28" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="63" t="s">
+      <c r="A29" s="52" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="64" t="s">
+      <c r="B29" s="53" t="s">
         <v>743</v>
       </c>
-      <c r="C29" s="63" t="s">
+      <c r="C29" s="52" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="63" t="s">
+      <c r="A30" s="52" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="64" t="s">
+      <c r="B30" s="53" t="s">
         <v>744</v>
       </c>
-      <c r="C30" s="63" t="s">
+      <c r="C30" s="52" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7980,7 +7980,7 @@
       <c r="A31" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="62" t="s">
+      <c r="B31" s="51" t="s">
         <v>745</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -7988,13 +7988,13 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="63" t="s">
+      <c r="A32" s="52" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="64" t="s">
+      <c r="B32" s="53" t="s">
         <v>746</v>
       </c>
-      <c r="C32" s="63" t="s">
+      <c r="C32" s="52" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8002,7 +8002,7 @@
       <c r="A33" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="62" t="s">
+      <c r="B33" s="51" t="s">
         <v>747</v>
       </c>
       <c r="C33" s="18" t="s">
@@ -8010,13 +8010,13 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="63" t="s">
+      <c r="A34" s="52" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="64" t="s">
+      <c r="B34" s="53" t="s">
         <v>748</v>
       </c>
-      <c r="C34" s="63" t="s">
+      <c r="C34" s="52" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8024,7 +8024,7 @@
       <c r="A35" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="62" t="s">
+      <c r="B35" s="51" t="s">
         <v>749</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -8032,13 +8032,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="63" t="s">
+      <c r="A36" s="52" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="64" t="s">
+      <c r="B36" s="53" t="s">
         <v>750</v>
       </c>
-      <c r="C36" s="63" t="s">
+      <c r="C36" s="52" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8046,7 +8046,7 @@
       <c r="A37" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="62" t="s">
+      <c r="B37" s="51" t="s">
         <v>751</v>
       </c>
       <c r="C37" s="18" t="s">
@@ -8054,13 +8054,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="63" t="s">
+      <c r="A38" s="52" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="64" t="s">
+      <c r="B38" s="53" t="s">
         <v>752</v>
       </c>
-      <c r="C38" s="63" t="s">
+      <c r="C38" s="52" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8068,7 +8068,7 @@
       <c r="A39" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B39" s="62" t="s">
+      <c r="B39" s="51" t="s">
         <v>753</v>
       </c>
       <c r="C39" s="18" t="s">
@@ -8079,7 +8079,7 @@
       <c r="A40" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="B40" s="62" t="s">
+      <c r="B40" s="51" t="s">
         <v>755</v>
       </c>
       <c r="C40" s="18" t="s">
@@ -8090,7 +8090,7 @@
       <c r="A41" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="B41" s="62" t="s">
+      <c r="B41" s="51" t="s">
         <v>667</v>
       </c>
       <c r="C41" s="18" t="s">
@@ -8098,13 +8098,13 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="63" t="s">
+      <c r="A42" s="52" t="s">
         <v>756</v>
       </c>
-      <c r="B42" s="64" t="s">
+      <c r="B42" s="53" t="s">
         <v>757</v>
       </c>
-      <c r="C42" s="63" t="s">
+      <c r="C42" s="52" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8112,10 +8112,10 @@
       <c r="A43" s="18" t="s">
         <v>758</v>
       </c>
-      <c r="B43" s="64" t="s">
+      <c r="B43" s="53" t="s">
         <v>759</v>
       </c>
-      <c r="C43" s="63" t="s">
+      <c r="C43" s="52" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8184,7 +8184,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{C48B31D4-AE50-4CB5-9904-DE1BA8BD2BC3}">
   <dimension ref="A1:C17"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="K22" sqref="K22"/>
     </sheetView>
   </sheetViews>
@@ -8772,11 +8772,11 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="33.6" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" s="55" t="s">
+      <c r="A1" s="71" t="s">
         <v>86</v>
       </c>
-      <c r="B1" s="55"/>
-      <c r="C1" s="55"/>
+      <c r="B1" s="71"/>
+      <c r="C1" s="71"/>
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A2" t="s">

--- a/UnitTest/test_config.xlsx
+++ b/UnitTest/test_config.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="R:\acmp\excelbibltest\ExcelBiblT\UnitTest\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B2B0A403-6D2B-4EEA-AE67-BC9F43071B3B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{FADDF229-8A49-4BF0-B21B-5FB2D84D3C9A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="828" yWindow="-108" windowWidth="30000" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
+    <workbookView xWindow="-29868" yWindow="-108" windowWidth="29976" windowHeight="17496" xr2:uid="{FF49B81A-127A-B44C-A44B-FF0F3EF8FCF9}"/>
   </bookViews>
   <sheets>
     <sheet name="Параметры" sheetId="1" r:id="rId1"/>
@@ -44,7 +44,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="893" uniqueCount="770">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="897" uniqueCount="771">
   <si>
     <t>Название</t>
   </si>
@@ -2363,6 +2363,9 @@
   </si>
   <si>
     <t>Нумерование групп (сначала указывается номер группы названия компетенции, далее номер компетенции, далее номер индикатора)</t>
+  </si>
+  <si>
+    <t>Обратного графа</t>
   </si>
 </sst>
 </file>
@@ -2734,12 +2737,6 @@
     <xf numFmtId="0" fontId="10" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
-      <alignment horizontal="left"/>
-    </xf>
     <xf numFmtId="0" fontId="7" fillId="6" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
@@ -2763,6 +2760,12 @@
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="12" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="13" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="4" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -3121,7 +3124,7 @@
   <dimension ref="A1:J84"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A28" zoomScaleNormal="100" workbookViewId="0">
-      <selection activeCell="A42" sqref="A37:D43"/>
+      <selection activeCell="A35" sqref="A35:E36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.19921875" defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -3180,7 +3183,7 @@
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A4" s="56" t="s">
+      <c r="A4" s="54" t="s">
         <v>71</v>
       </c>
       <c r="B4" t="s">
@@ -3188,7 +3191,7 @@
       </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A5" s="57" t="s">
+      <c r="A5" s="55" t="s">
         <v>88</v>
       </c>
       <c r="B5" t="s">
@@ -3196,7 +3199,7 @@
       </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A6" s="57" t="s">
+      <c r="A6" s="55" t="s">
         <v>156</v>
       </c>
       <c r="B6" t="s">
@@ -3204,7 +3207,7 @@
       </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A7" s="56" t="s">
+      <c r="A7" s="54" t="s">
         <v>75</v>
       </c>
       <c r="B7" t="s">
@@ -3212,7 +3215,7 @@
       </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A8" s="56" t="s">
+      <c r="A8" s="54" t="s">
         <v>656</v>
       </c>
       <c r="B8" t="s">
@@ -3248,7 +3251,7 @@
       </c>
     </row>
     <row r="13" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A13" s="56" t="s">
+      <c r="A13" s="54" t="s">
         <v>67</v>
       </c>
       <c r="B13" t="s">
@@ -3256,7 +3259,7 @@
       </c>
     </row>
     <row r="14" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A14" s="56" t="s">
+      <c r="A14" s="54" t="s">
         <v>69</v>
       </c>
       <c r="B14" t="s">
@@ -3264,7 +3267,7 @@
       </c>
     </row>
     <row r="15" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A15" s="56" t="s">
+      <c r="A15" s="54" t="s">
         <v>679</v>
       </c>
       <c r="B15" t="s">
@@ -3272,7 +3275,7 @@
       </c>
     </row>
     <row r="16" spans="1:10" x14ac:dyDescent="0.3">
-      <c r="A16" s="56" t="s">
+      <c r="A16" s="54" t="s">
         <v>680</v>
       </c>
       <c r="B16" t="s">
@@ -3280,7 +3283,7 @@
       </c>
     </row>
     <row r="17" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A17" s="56" t="s">
+      <c r="A17" s="54" t="s">
         <v>685</v>
       </c>
       <c r="B17" t="s">
@@ -3296,7 +3299,7 @@
       </c>
     </row>
     <row r="19" spans="1:3" x14ac:dyDescent="0.3">
-      <c r="A19" s="58" t="s">
+      <c r="A19" s="56" t="s">
         <v>763</v>
       </c>
       <c r="B19" t="s">
@@ -3402,7 +3405,7 @@
         <v>72</v>
       </c>
     </row>
-    <row r="33" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A33" s="62" t="s">
         <v>628</v>
       </c>
@@ -3413,7 +3416,7 @@
         <v>547</v>
       </c>
     </row>
-    <row r="34" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A34" s="62"/>
       <c r="B34" s="9" t="s">
         <v>629</v>
@@ -3422,7 +3425,7 @@
         <v>632</v>
       </c>
     </row>
-    <row r="35" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A35" s="62" t="s">
         <v>168</v>
       </c>
@@ -3435,8 +3438,11 @@
       <c r="D35" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="36" spans="1:4" x14ac:dyDescent="0.3">
+      <c r="E35" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="36" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A36" s="62"/>
       <c r="B36" s="9" t="s">
         <v>630</v>
@@ -3445,10 +3451,13 @@
         <v>631</v>
       </c>
       <c r="D36" s="9" t="s">
+        <v>770</v>
+      </c>
+      <c r="E36" s="9" t="s">
         <v>705</v>
       </c>
     </row>
-    <row r="37" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A37" s="61" t="s">
         <v>160</v>
       </c>
@@ -3462,7 +3471,7 @@
         <v>165</v>
       </c>
     </row>
-    <row r="38" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A38" s="61"/>
       <c r="B38" s="9" t="s">
         <v>166</v>
@@ -3474,13 +3483,13 @@
         <v>162</v>
       </c>
     </row>
-    <row r="39" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A39" s="61"/>
       <c r="B39" s="9" t="s">
         <v>708</v>
       </c>
     </row>
-    <row r="40" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A40" s="61" t="s">
         <v>172</v>
       </c>
@@ -3494,7 +3503,7 @@
         <v>179</v>
       </c>
     </row>
-    <row r="41" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A41" s="61"/>
       <c r="B41" s="9" t="s">
         <v>762</v>
@@ -3502,7 +3511,7 @@
       <c r="C41" s="9"/>
       <c r="D41" s="9"/>
     </row>
-    <row r="42" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A42" s="61" t="s">
         <v>764</v>
       </c>
@@ -3516,7 +3525,7 @@
         <v>734</v>
       </c>
     </row>
-    <row r="43" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A43" s="61"/>
       <c r="B43" s="9" t="s">
         <v>762</v>
@@ -3524,21 +3533,21 @@
       <c r="C43" s="9"/>
       <c r="D43" s="9"/>
     </row>
-    <row r="44" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A44" s="59" t="s">
         <v>74</v>
       </c>
       <c r="B44" s="60"/>
       <c r="C44" s="60"/>
     </row>
-    <row r="45" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A45" s="59" t="s">
         <v>76</v>
       </c>
       <c r="B45" s="60"/>
       <c r="C45" s="60"/>
     </row>
-    <row r="46" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A46" s="30" t="s">
         <v>255</v>
       </c>
@@ -3546,7 +3555,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="47" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A47" s="15" t="s">
         <v>62</v>
       </c>
@@ -3554,7 +3563,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="48" spans="1:4" x14ac:dyDescent="0.3">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.3">
       <c r="A48" s="15" t="s">
         <v>98</v>
       </c>
@@ -3857,8 +3866,6 @@
     </row>
   </sheetData>
   <mergeCells count="20">
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="A33:A34"/>
     <mergeCell ref="A81:C81"/>
     <mergeCell ref="A82:C82"/>
     <mergeCell ref="B1:J1"/>
@@ -3877,6 +3884,8 @@
     <mergeCell ref="A42:A43"/>
     <mergeCell ref="A49:A51"/>
     <mergeCell ref="A52:A53"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="A33:A34"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" horizontalDpi="1200" verticalDpi="1200" r:id="rId1"/>
@@ -7659,8 +7668,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{18A12029-91E4-4DE9-80DD-286C95739410}">
   <dimension ref="A1:D48"/>
   <sheetViews>
-    <sheetView topLeftCell="A13" workbookViewId="0">
-      <selection activeCell="I28" sqref="I28"/>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:D48"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15.6" x14ac:dyDescent="0.3"/>
@@ -7671,13 +7680,13 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A1" s="44" t="s">
-        <v>0</v>
-      </c>
-      <c r="B1" s="44" t="s">
+      <c r="A1" s="57" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" s="57" t="s">
         <v>100</v>
       </c>
-      <c r="C1" s="44" t="s">
+      <c r="C1" s="57" t="s">
         <v>118</v>
       </c>
       <c r="D1" s="27" t="s">
@@ -7685,19 +7694,25 @@
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A2" s="28" t="s">
+      <c r="A2" s="58" t="s">
         <v>87</v>
       </c>
-      <c r="B2" s="29" t="s">
+      <c r="B2" s="31" t="s">
         <v>659</v>
       </c>
+      <c r="C2" s="31" t="s">
+        <v>72</v>
+      </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.3">
-      <c r="A3" s="45" t="s">
+      <c r="A3" s="58" t="s">
         <v>639</v>
       </c>
-      <c r="B3" s="33" t="s">
+      <c r="B3" s="31" t="s">
         <v>660</v>
+      </c>
+      <c r="C3" s="31" t="s">
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
@@ -7715,7 +7730,7 @@
       <c r="A5" s="26" t="s">
         <v>634</v>
       </c>
-      <c r="B5" s="46" t="s">
+      <c r="B5" s="44" t="s">
         <v>718</v>
       </c>
       <c r="C5" s="26" t="s">
@@ -7726,7 +7741,7 @@
       <c r="A6" s="26" t="s">
         <v>175</v>
       </c>
-      <c r="B6" s="46" t="s">
+      <c r="B6" s="44" t="s">
         <v>719</v>
       </c>
       <c r="C6" s="26" t="s">
@@ -7734,10 +7749,10 @@
       </c>
     </row>
     <row r="7" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A7" s="47" t="s">
+      <c r="A7" s="45" t="s">
         <v>720</v>
       </c>
-      <c r="B7" s="46" t="s">
+      <c r="B7" s="44" t="s">
         <v>721</v>
       </c>
       <c r="C7" s="26" t="s">
@@ -7745,10 +7760,10 @@
       </c>
     </row>
     <row r="8" spans="1:4" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A8" s="48" t="s">
+      <c r="A8" s="46" t="s">
         <v>722</v>
       </c>
-      <c r="B8" s="49" t="s">
+      <c r="B8" s="47" t="s">
         <v>723</v>
       </c>
       <c r="C8" s="31" t="s">
@@ -7759,7 +7774,7 @@
       <c r="A9" s="31" t="s">
         <v>724</v>
       </c>
-      <c r="B9" s="49" t="s">
+      <c r="B9" s="47" t="s">
         <v>725</v>
       </c>
       <c r="C9" s="31" t="s">
@@ -7825,7 +7840,7 @@
       <c r="A15" s="29" t="s">
         <v>190</v>
       </c>
-      <c r="B15" s="50" t="s">
+      <c r="B15" s="48" t="s">
         <v>704</v>
       </c>
     </row>
@@ -7881,7 +7896,7 @@
       <c r="A22" s="18" t="s">
         <v>173</v>
       </c>
-      <c r="B22" s="51" t="s">
+      <c r="B22" s="49" t="s">
         <v>733</v>
       </c>
       <c r="C22" s="18" t="s">
@@ -7889,21 +7904,21 @@
       </c>
     </row>
     <row r="23" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A23" s="52" t="s">
+      <c r="A23" s="50" t="s">
         <v>734</v>
       </c>
-      <c r="B23" s="53" t="s">
+      <c r="B23" s="51" t="s">
         <v>735</v>
       </c>
-      <c r="C23" s="52" t="s">
+      <c r="C23" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="24" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A24" s="54" t="s">
+      <c r="A24" s="52" t="s">
         <v>736</v>
       </c>
-      <c r="B24" s="51" t="s">
+      <c r="B24" s="49" t="s">
         <v>737</v>
       </c>
       <c r="C24" s="18" t="s">
@@ -7911,13 +7926,13 @@
       </c>
     </row>
     <row r="25" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A25" s="55" t="s">
+      <c r="A25" s="53" t="s">
         <v>738</v>
       </c>
-      <c r="B25" s="53" t="s">
+      <c r="B25" s="51" t="s">
         <v>739</v>
       </c>
-      <c r="C25" s="52" t="s">
+      <c r="C25" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7925,7 +7940,7 @@
       <c r="A26" s="18" t="s">
         <v>174</v>
       </c>
-      <c r="B26" s="51" t="s">
+      <c r="B26" s="49" t="s">
         <v>740</v>
       </c>
       <c r="C26" s="18" t="s">
@@ -7936,7 +7951,7 @@
       <c r="A27" s="18" t="s">
         <v>177</v>
       </c>
-      <c r="B27" s="51" t="s">
+      <c r="B27" s="49" t="s">
         <v>741</v>
       </c>
       <c r="C27" s="18" t="s">
@@ -7944,35 +7959,35 @@
       </c>
     </row>
     <row r="28" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A28" s="52" t="s">
+      <c r="A28" s="50" t="s">
         <v>178</v>
       </c>
-      <c r="B28" s="53" t="s">
+      <c r="B28" s="51" t="s">
         <v>742</v>
       </c>
-      <c r="C28" s="52" t="s">
+      <c r="C28" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="29" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A29" s="52" t="s">
+      <c r="A29" s="50" t="s">
         <v>179</v>
       </c>
-      <c r="B29" s="53" t="s">
+      <c r="B29" s="51" t="s">
         <v>743</v>
       </c>
-      <c r="C29" s="52" t="s">
+      <c r="C29" s="50" t="s">
         <v>72</v>
       </c>
     </row>
     <row r="30" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A30" s="52" t="s">
+      <c r="A30" s="50" t="s">
         <v>112</v>
       </c>
-      <c r="B30" s="53" t="s">
+      <c r="B30" s="51" t="s">
         <v>744</v>
       </c>
-      <c r="C30" s="52" t="s">
+      <c r="C30" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -7980,7 +7995,7 @@
       <c r="A31" s="18" t="s">
         <v>169</v>
       </c>
-      <c r="B31" s="51" t="s">
+      <c r="B31" s="49" t="s">
         <v>745</v>
       </c>
       <c r="C31" s="18" t="s">
@@ -7988,13 +8003,13 @@
       </c>
     </row>
     <row r="32" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A32" s="52" t="s">
+      <c r="A32" s="50" t="s">
         <v>171</v>
       </c>
-      <c r="B32" s="53" t="s">
+      <c r="B32" s="51" t="s">
         <v>746</v>
       </c>
-      <c r="C32" s="52" t="s">
+      <c r="C32" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8002,7 +8017,7 @@
       <c r="A33" s="18" t="s">
         <v>170</v>
       </c>
-      <c r="B33" s="51" t="s">
+      <c r="B33" s="49" t="s">
         <v>747</v>
       </c>
       <c r="C33" s="18" t="s">
@@ -8010,13 +8025,13 @@
       </c>
     </row>
     <row r="34" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A34" s="52" t="s">
+      <c r="A34" s="50" t="s">
         <v>116</v>
       </c>
-      <c r="B34" s="53" t="s">
+      <c r="B34" s="51" t="s">
         <v>748</v>
       </c>
-      <c r="C34" s="52" t="s">
+      <c r="C34" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8024,7 +8039,7 @@
       <c r="A35" s="18" t="s">
         <v>115</v>
       </c>
-      <c r="B35" s="51" t="s">
+      <c r="B35" s="49" t="s">
         <v>749</v>
       </c>
       <c r="C35" s="18" t="s">
@@ -8032,13 +8047,13 @@
       </c>
     </row>
     <row r="36" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A36" s="52" t="s">
+      <c r="A36" s="50" t="s">
         <v>117</v>
       </c>
-      <c r="B36" s="53" t="s">
+      <c r="B36" s="51" t="s">
         <v>750</v>
       </c>
-      <c r="C36" s="52" t="s">
+      <c r="C36" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8046,7 +8061,7 @@
       <c r="A37" s="18" t="s">
         <v>123</v>
       </c>
-      <c r="B37" s="51" t="s">
+      <c r="B37" s="49" t="s">
         <v>751</v>
       </c>
       <c r="C37" s="18" t="s">
@@ -8054,13 +8069,13 @@
       </c>
     </row>
     <row r="38" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A38" s="52" t="s">
+      <c r="A38" s="50" t="s">
         <v>119</v>
       </c>
-      <c r="B38" s="53" t="s">
+      <c r="B38" s="51" t="s">
         <v>752</v>
       </c>
-      <c r="C38" s="52" t="s">
+      <c r="C38" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8068,7 +8083,7 @@
       <c r="A39" s="18" t="s">
         <v>189</v>
       </c>
-      <c r="B39" s="51" t="s">
+      <c r="B39" s="49" t="s">
         <v>753</v>
       </c>
       <c r="C39" s="18" t="s">
@@ -8079,7 +8094,7 @@
       <c r="A40" s="18" t="s">
         <v>754</v>
       </c>
-      <c r="B40" s="51" t="s">
+      <c r="B40" s="49" t="s">
         <v>755</v>
       </c>
       <c r="C40" s="18" t="s">
@@ -8090,7 +8105,7 @@
       <c r="A41" s="18" t="s">
         <v>664</v>
       </c>
-      <c r="B41" s="51" t="s">
+      <c r="B41" s="49" t="s">
         <v>667</v>
       </c>
       <c r="C41" s="18" t="s">
@@ -8098,13 +8113,13 @@
       </c>
     </row>
     <row r="42" spans="1:3" ht="16.2" thickBot="1" x14ac:dyDescent="0.35">
-      <c r="A42" s="52" t="s">
+      <c r="A42" s="50" t="s">
         <v>756</v>
       </c>
-      <c r="B42" s="53" t="s">
+      <c r="B42" s="51" t="s">
         <v>757</v>
       </c>
-      <c r="C42" s="52" t="s">
+      <c r="C42" s="50" t="s">
         <v>72</v>
       </c>
     </row>
@@ -8112,10 +8127,10 @@
       <c r="A43" s="18" t="s">
         <v>758</v>
       </c>
-      <c r="B43" s="53" t="s">
+      <c r="B43" s="51" t="s">
         <v>759</v>
       </c>
-      <c r="C43" s="52" t="s">
+      <c r="C43" s="50" t="s">
         <v>72</v>
       </c>
     </row>
